--- a/data/raw_data/HealthData.xlsx
+++ b/data/raw_data/HealthData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianaluccioli/Dropbox/DSAN5100/final_project/5100_project/data/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AFB35-62F5-E74B-A3E7-C0AC4823D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Health Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Health Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -319,17 +328,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -337,7 +348,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -347,41 +358,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -571,20 +585,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AZ53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -750,7 +767,7 @@
         <v>12.02</v>
       </c>
       <c r="C2" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -759,10 +776,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="K2" s="1">
-        <v>949949.0</v>
+        <v>949949</v>
       </c>
       <c r="L2" s="1">
         <v>38.6</v>
@@ -786,23 +803,23 @@
         <v>6.69</v>
       </c>
       <c r="S2" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="T2" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AB2" s="1">
         <v>58.7</v>
@@ -818,25 +835,25 @@
         <v>11.1</v>
       </c>
       <c r="AG2" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AI2" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AK2" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AL2" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AM2" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="1">
         <v>149.4</v>
@@ -849,13 +866,13 @@
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AT2" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="AU2" s="1">
         <v>4.2</v>
@@ -864,19 +881,19 @@
         <v>2.8</v>
       </c>
       <c r="AW2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX2" s="1">
         <v>0.1</v>
       </c>
       <c r="AY2" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="AZ2" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -891,10 +908,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K3" s="4">
-        <v>146072.0</v>
+        <v>146072</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -916,77 +933,77 @@
         <v>6.62</v>
       </c>
       <c r="S3" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T3" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB3" s="1">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AC3" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AD3" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AE3" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AL3" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AM3" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AN3" s="1">
         <v>178.9</v>
       </c>
       <c r="AO3" s="1">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AQ3" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AR3" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX3" s="1">
         <v>3.6</v>
@@ -995,10 +1012,10 @@
         <v>122.3</v>
       </c>
       <c r="AZ3" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1015,13 +1032,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="K4" s="4">
-        <v>1345764.0</v>
+        <v>1345764</v>
       </c>
       <c r="L4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1">
         <v>5.7</v>
@@ -1042,23 +1059,23 @@
         <v>6.17</v>
       </c>
       <c r="S4" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="T4" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA4" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="1">
         <v>54.9</v>
@@ -1067,7 +1084,7 @@
         <v>15.1</v>
       </c>
       <c r="AD4" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE4" s="1">
         <v>4.5</v>
@@ -1080,19 +1097,19 @@
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AL4" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AM4" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AN4" s="1">
         <v>123.5</v>
@@ -1104,17 +1121,17 @@
         <v>15.1</v>
       </c>
       <c r="AQ4" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AR4" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AX4" s="1">
         <v>0.6</v>
@@ -1123,10 +1140,10 @@
         <v>69.8</v>
       </c>
       <c r="AZ4" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1144,10 +1161,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="4">
-        <v>577447.0</v>
+        <v>577447</v>
       </c>
       <c r="L5" s="1">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M5" s="1">
         <v>8.1</v>
@@ -1156,7 +1173,7 @@
         <v>7.51</v>
       </c>
       <c r="O5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P5" s="1">
         <v>7.38</v>
@@ -1168,23 +1185,23 @@
         <v>7.67</v>
       </c>
       <c r="S5" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="T5" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="1">
         <v>60.2</v>
@@ -1197,31 +1214,31 @@
         <v>7.4</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AG5" s="1">
         <v>5.2</v>
       </c>
       <c r="AH5" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AI5" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AK5" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AL5" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AM5" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AN5" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="AO5" s="1">
         <v>60.2</v>
@@ -1231,13 +1248,13 @@
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AS5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AT5" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="AU5" s="1">
         <v>3.9</v>
@@ -1246,7 +1263,7 @@
         <v>1.4</v>
       </c>
       <c r="AW5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX5" s="1">
         <v>0.3</v>
@@ -1255,10 +1272,10 @@
         <v>52.1</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1275,10 +1292,10 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>3120.0</v>
+        <v>3120</v>
       </c>
       <c r="K6" s="4">
-        <v>8104632.0</v>
+        <v>8104632</v>
       </c>
       <c r="L6" s="1">
         <v>10.5</v>
@@ -1290,7 +1307,7 @@
         <v>4.21</v>
       </c>
       <c r="O6" s="1">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="P6" s="1">
         <v>3.92</v>
@@ -1299,32 +1316,32 @@
         <v>4.07</v>
       </c>
       <c r="R6" s="1">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T6" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="1">
         <v>52.8</v>
       </c>
       <c r="AC6" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AD6" s="2">
         <v>16.3</v>
@@ -1340,41 +1357,41 @@
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AK6" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AL6" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AM6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AN6" s="1">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="AO6" s="1">
         <v>52.8</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AQ6" s="2">
         <v>16.3</v>
       </c>
       <c r="AR6" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX6" s="1">
         <v>2.4</v>
@@ -1383,10 +1400,10 @@
         <v>74.5</v>
       </c>
       <c r="AZ6" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1403,13 +1420,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="K7" s="4">
-        <v>1137745.0</v>
+        <v>1137745</v>
       </c>
       <c r="L7" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1">
         <v>4.49</v>
@@ -1418,7 +1435,7 @@
         <v>4.75</v>
       </c>
       <c r="O7" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P7" s="1">
         <v>4.8</v>
@@ -1430,23 +1447,23 @@
         <v>4.54</v>
       </c>
       <c r="S7" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="Z7" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB7" s="1">
         <v>51.5</v>
@@ -1467,22 +1484,22 @@
         <v>5.5</v>
       </c>
       <c r="AH7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AI7" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AK7" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AL7" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AM7" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AN7" s="1">
         <v>103.1</v>
@@ -1497,13 +1514,13 @@
         <v>96.1</v>
       </c>
       <c r="AR7" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS7" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT7" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU7" s="2">
         <v>3.8</v>
@@ -1512,7 +1529,7 @@
         <v>2.4</v>
       </c>
       <c r="AW7" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX7" s="1">
         <v>2.7</v>
@@ -1521,10 +1538,10 @@
         <v>93.9</v>
       </c>
       <c r="AZ7" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1541,10 +1558,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4">
-        <v>672949.0</v>
+        <v>672949</v>
       </c>
       <c r="L8" s="1">
         <v>15.6</v>
@@ -1562,29 +1579,29 @@
         <v>4.33</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="R8" s="1">
         <v>4.25</v>
       </c>
       <c r="S8" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="Z8" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AA8" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="1">
         <v>50.7</v>
@@ -1606,19 +1623,19 @@
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AL8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AM8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AN8" s="1">
         <v>93.6</v>
@@ -1633,14 +1650,14 @@
         <v>32.6</v>
       </c>
       <c r="AR8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX8" s="1">
         <v>3.9</v>
@@ -1649,10 +1666,10 @@
         <v>127.8</v>
       </c>
       <c r="AZ8" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1669,10 +1686,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="4">
-        <v>180343.0</v>
+        <v>180343</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1685,32 +1702,32 @@
         <v>6.44</v>
       </c>
       <c r="P9" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="R9" s="1">
         <v>7.49</v>
       </c>
       <c r="S9" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T9" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AA9" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="1">
         <v>57.3</v>
@@ -1723,29 +1740,29 @@
       </c>
       <c r="AE9" s="3"/>
       <c r="AF9" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI9" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ9" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AL9" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AM9" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="1">
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="AO9" s="1">
         <v>57.3</v>
@@ -1757,13 +1774,13 @@
         <v>92.2</v>
       </c>
       <c r="AR9" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS9" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="AU9" s="2">
         <v>5.2</v>
@@ -1772,7 +1789,7 @@
         <v>2.1</v>
       </c>
       <c r="AW9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="1">
         <v>4.8</v>
@@ -1781,15 +1798,15 @@
         <v>86.7</v>
       </c>
       <c r="AZ9" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1799,10 +1816,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K10" s="4">
-        <v>186464.0</v>
+        <v>186464</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1814,23 +1831,23 @@
         <v>5.54</v>
       </c>
       <c r="S10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T10" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="Z10" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AA10" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="1">
         <v>44.9</v>
@@ -1847,22 +1864,22 @@
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AL10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AN10" s="1">
         <v>94.1</v>
@@ -1877,13 +1894,13 @@
         <v>2.7</v>
       </c>
       <c r="AR10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AT10" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AU10" s="2">
         <v>4.2</v>
@@ -1892,19 +1909,19 @@
         <v>0.6</v>
       </c>
       <c r="AW10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="1">
         <v>5.6</v>
       </c>
       <c r="AY10" s="2">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="AZ10" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +1929,7 @@
         <v>10.65</v>
       </c>
       <c r="C11" s="1">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1921,10 +1938,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <v>1470.0</v>
+        <v>1470</v>
       </c>
       <c r="K11" s="4">
-        <v>3828199.0</v>
+        <v>3828199</v>
       </c>
       <c r="L11" s="1">
         <v>24.1</v>
@@ -1948,23 +1965,23 @@
         <v>5.98</v>
       </c>
       <c r="S11" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="T11" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="Z11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AA11" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AB11" s="1">
         <v>55.6</v>
@@ -1976,32 +1993,32 @@
         <v>10.6</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF11" s="1">
         <v>10.9</v>
       </c>
       <c r="AG11" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AJ11" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AK11" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AL11" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AM11" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AN11" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="AO11" s="1">
         <v>55.6</v>
@@ -2013,14 +2030,14 @@
         <v>10.6</v>
       </c>
       <c r="AR11" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AX11" s="1">
         <v>1.4</v>
@@ -2029,10 +2046,10 @@
         <v>78.2</v>
       </c>
       <c r="AZ11" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2049,10 +2066,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="K12" s="4">
-        <v>2147399.0</v>
+        <v>2147399</v>
       </c>
       <c r="L12" s="1">
         <v>32.1</v>
@@ -2076,29 +2093,29 @@
         <v>7.08</v>
       </c>
       <c r="S12" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="T12" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="AC12" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AD12" s="2">
         <v>24.3</v>
@@ -2107,58 +2124,58 @@
         <v>4.8</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AG12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AI12" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AK12" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AL12" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AM12" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AN12" s="1">
         <v>124.4</v>
       </c>
       <c r="AO12" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AQ12" s="2">
         <v>24.3</v>
       </c>
       <c r="AR12" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT12" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AV12" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AW12" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AX12" s="1">
         <v>0.8</v>
@@ -2167,10 +2184,10 @@
         <v>82.5</v>
       </c>
       <c r="AZ12" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2183,10 +2200,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="K13" s="4">
-        <v>265924.0</v>
+        <v>265924</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2208,23 +2225,23 @@
         <v>5.79</v>
       </c>
       <c r="S13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T13" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AA13" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="1">
         <v>59.3</v>
@@ -2239,22 +2256,22 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AI13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AM13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AN13" s="1">
         <v>70.5</v>
@@ -2269,22 +2286,22 @@
         <v>27.3</v>
       </c>
       <c r="AR13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS13" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AT13" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="AU13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="2">
         <v>0.4</v>
       </c>
       <c r="AW13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="1">
         <v>3.2</v>
@@ -2293,10 +2310,10 @@
         <v>113.6</v>
       </c>
       <c r="AZ13" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2312,10 +2329,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
-        <v>328941.0</v>
+        <v>328941</v>
       </c>
       <c r="L14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M14" s="1">
         <v>4.55</v>
@@ -2324,10 +2341,10 @@
         <v>5.05</v>
       </c>
       <c r="O14" s="1">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="P14" s="1">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="Q14" s="1">
         <v>5.13</v>
@@ -2336,23 +2353,23 @@
         <v>5.27</v>
       </c>
       <c r="S14" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="T14" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="Z14" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AB14" s="1">
         <v>58.4</v>
@@ -2362,7 +2379,7 @@
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="1">
@@ -2370,22 +2387,22 @@
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AL14" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AM14" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AN14" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AO14" s="1">
         <v>58.4</v>
@@ -2395,14 +2412,14 @@
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX14" s="1">
         <v>0.5</v>
@@ -2411,10 +2428,10 @@
         <v>56.1</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2431,13 +2448,13 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="K15" s="4">
-        <v>2532027.0</v>
+        <v>2532027</v>
       </c>
       <c r="L15" s="1">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="M15" s="1">
         <v>6.12</v>
@@ -2458,23 +2475,23 @@
         <v>5.59</v>
       </c>
       <c r="S15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T15" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Z15" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AA15" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AB15" s="1">
         <v>51.8</v>
@@ -2483,7 +2500,7 @@
         <v>11.3</v>
       </c>
       <c r="AD15" s="2">
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="AE15" s="1">
         <v>3.9</v>
@@ -2495,25 +2512,25 @@
         <v>5.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AI15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ15" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AL15" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AM15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AN15" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="AO15" s="1">
         <v>51.8</v>
@@ -2522,42 +2539,42 @@
         <v>11.3</v>
       </c>
       <c r="AQ15" s="2">
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="AR15" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AS15" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT15" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="2">
         <v>1.4</v>
       </c>
       <c r="AW15" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="AZ15" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>6.13</v>
@@ -2569,10 +2586,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="K16" s="4">
-        <v>1295622.0</v>
+        <v>1295622</v>
       </c>
       <c r="L16" s="1">
         <v>30.9</v>
@@ -2596,23 +2613,23 @@
         <v>7.16</v>
       </c>
       <c r="S16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T16" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA16" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="1">
         <v>59.7</v>
@@ -2632,22 +2649,22 @@
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ16" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AK16" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AL16" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AM16" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AN16" s="1">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="AO16" s="1">
         <v>59.7</v>
@@ -2657,14 +2674,14 @@
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX16" s="1">
         <v>0.1</v>
@@ -2673,10 +2690,10 @@
         <v>68.5</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2693,10 +2710,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="K17" s="4">
-        <v>592278.0</v>
+        <v>592278</v>
       </c>
       <c r="L17" s="1">
         <v>19.5</v>
@@ -2705,10 +2722,10 @@
         <v>5.31</v>
       </c>
       <c r="N17" s="1">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="O17" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="P17" s="1">
         <v>4.43</v>
@@ -2720,23 +2737,23 @@
         <v>5.2</v>
       </c>
       <c r="S17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T17" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA17" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="1">
         <v>59.9</v>
@@ -2756,19 +2773,19 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ17" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AL17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AM17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AN17" s="1">
         <v>85.4</v>
@@ -2783,14 +2800,14 @@
         <v>16.2</v>
       </c>
       <c r="AR17" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="1">
         <v>1.5</v>
@@ -2799,15 +2816,15 @@
         <v>63.5</v>
       </c>
       <c r="AZ17" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="1">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C18" s="1">
         <v>5.56</v>
@@ -2820,7 +2837,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
-        <v>558606.0</v>
+        <v>558606</v>
       </c>
       <c r="L18" s="1">
         <v>22.8</v>
@@ -2844,23 +2861,23 @@
         <v>5.81</v>
       </c>
       <c r="S18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="T18" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AB18" s="1">
         <v>60.3</v>
@@ -2872,31 +2889,31 @@
         <v>135.6</v>
       </c>
       <c r="AE18" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF18" s="1">
         <v>10.8</v>
       </c>
       <c r="AG18" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AI18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ18" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AK18" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AL18" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AM18" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AN18" s="1">
         <v>121.7</v>
@@ -2911,39 +2928,39 @@
         <v>135.6</v>
       </c>
       <c r="AR18" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AS18" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AT18" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="AU18" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AV18" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW18" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX18" s="1">
         <v>1.8</v>
       </c>
       <c r="AY18" s="2">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="AZ18" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="1">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="C19" s="1">
         <v>5.53</v>
@@ -2955,10 +2972,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="K19" s="4">
-        <v>848472.0</v>
+        <v>848472</v>
       </c>
       <c r="L19" s="1">
         <v>34.6</v>
@@ -2970,7 +2987,7 @@
         <v>6.05</v>
       </c>
       <c r="O19" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P19" s="1">
         <v>6.43</v>
@@ -2982,23 +2999,23 @@
         <v>5.77</v>
       </c>
       <c r="S19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T19" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z19" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA19" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AB19" s="1">
         <v>61.1</v>
@@ -3018,19 +3035,19 @@
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AL19" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AM19" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AN19" s="1">
         <v>176.3</v>
@@ -3043,26 +3060,26 @@
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX19" s="1">
         <v>0.2</v>
       </c>
       <c r="AY19" s="1">
-        <v>69.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3087,7 @@
         <v>10.97</v>
       </c>
       <c r="C20" s="1">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3079,13 +3096,13 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="K20" s="4">
-        <v>936106.0</v>
+        <v>936106</v>
       </c>
       <c r="L20" s="1">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="M20" s="1">
         <v>7.06</v>
@@ -3106,23 +3123,23 @@
         <v>7.37</v>
       </c>
       <c r="S20" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T20" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z20" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA20" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="1">
         <v>61.8</v>
@@ -3138,25 +3155,25 @@
         <v>10.9</v>
       </c>
       <c r="AG20" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI20" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AL20" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AM20" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AN20" s="1">
         <v>168.4</v>
@@ -3169,13 +3186,13 @@
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AS20" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT20" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="AU20" s="1">
         <v>2.4</v>
@@ -3184,19 +3201,19 @@
         <v>0.8</v>
       </c>
       <c r="AW20" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX20" s="1">
         <v>0.1</v>
       </c>
       <c r="AY20" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -3211,10 +3228,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="4">
-        <v>231535.0</v>
+        <v>231535</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3230,29 +3247,29 @@
         <v>6.33</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R21" s="1">
         <v>6.37</v>
       </c>
       <c r="S21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T21" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="Z21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA21" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AB21" s="1">
         <v>49.7</v>
@@ -3269,22 +3286,22 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AI21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AL21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AM21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AN21" s="1">
         <v>126.2</v>
@@ -3299,13 +3316,13 @@
         <v>1.9</v>
       </c>
       <c r="AR21" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS21" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT21" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU21" s="2">
         <v>2.8</v>
@@ -3314,7 +3331,7 @@
         <v>1.7</v>
       </c>
       <c r="AW21" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX21" s="1">
         <v>12.9</v>
@@ -3323,15 +3340,15 @@
         <v>110.5</v>
       </c>
       <c r="AZ21" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="1">
-        <v>9.72</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="C22" s="1">
         <v>3.89</v>
@@ -3343,10 +3360,10 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="K22" s="4">
-        <v>1193286.0</v>
+        <v>1193286</v>
       </c>
       <c r="L22" s="1">
         <v>21.3</v>
@@ -3370,23 +3387,23 @@
         <v>6.03</v>
       </c>
       <c r="S22" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="T22" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="Z22" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AA22" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AB22" s="1">
         <v>56.9</v>
@@ -3401,26 +3418,26 @@
         <v>4.5</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AG22" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AJ22" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AL22" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AM22" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AN22" s="1">
         <v>103.1</v>
@@ -3435,14 +3452,14 @@
         <v>26.7</v>
       </c>
       <c r="AR22" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX22" s="1">
         <v>2.8</v>
@@ -3451,10 +3468,10 @@
         <v>107.2</v>
       </c>
       <c r="AZ22" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -3471,13 +3488,13 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="K23" s="4">
-        <v>1381812.0</v>
+        <v>1381812</v>
       </c>
       <c r="L23" s="1">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M23" s="1">
         <v>3.66</v>
@@ -3498,23 +3515,23 @@
         <v>3.32</v>
       </c>
       <c r="S23" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="Z23" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA23" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AB23" s="1">
         <v>48.7</v>
@@ -3526,34 +3543,34 @@
         <v>26.6</v>
       </c>
       <c r="AE23" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AF23" s="1">
         <v>6.4</v>
       </c>
       <c r="AG23" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AI23" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AL23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="AO23" s="1">
         <v>48.7</v>
@@ -3565,13 +3582,13 @@
         <v>26.6</v>
       </c>
       <c r="AR23" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS23" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="AU23" s="2">
         <v>2.4</v>
@@ -3580,7 +3597,7 @@
         <v>0.5</v>
       </c>
       <c r="AW23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="1">
         <v>1.6</v>
@@ -3589,10 +3606,10 @@
         <v>105.3</v>
       </c>
       <c r="AZ23" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3609,13 +3626,13 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="K24" s="4">
-        <v>1874298.0</v>
+        <v>1874298</v>
       </c>
       <c r="L24" s="1">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="M24" s="1">
         <v>6.78</v>
@@ -3636,26 +3653,26 @@
         <v>6.42</v>
       </c>
       <c r="S24" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T24" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AA24" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB24" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AC24" s="1">
         <v>11.6</v>
@@ -3673,28 +3690,28 @@
         <v>6.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AI24" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AL24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AM24" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AN24" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="AO24" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AP24" s="1">
         <v>11.6</v>
@@ -3703,13 +3720,13 @@
         <v>19.3</v>
       </c>
       <c r="AR24" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS24" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AT24" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AU24" s="2">
         <v>3.4</v>
@@ -3718,7 +3735,7 @@
         <v>0.7</v>
       </c>
       <c r="AW24" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX24" s="1">
         <v>1.7</v>
@@ -3727,10 +3744,10 @@
         <v>95.9</v>
       </c>
       <c r="AZ24" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -3747,10 +3764,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="K25" s="4">
-        <v>1066806.0</v>
+        <v>1066806</v>
       </c>
       <c r="L25" s="1">
         <v>12.3</v>
@@ -3759,7 +3776,7 @@
         <v>4.8</v>
       </c>
       <c r="N25" s="1">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="O25" s="1">
         <v>4.53</v>
@@ -3774,29 +3791,29 @@
         <v>4.5</v>
       </c>
       <c r="S25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z25" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA25" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB25" s="1">
         <v>58.2</v>
       </c>
       <c r="AC25" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD25" s="2">
         <v>30.8</v>
@@ -3805,58 +3822,58 @@
         <v>3.8</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AG25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AI25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AL25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AM25" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AN25" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="AO25" s="1">
         <v>58.2</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AQ25" s="2">
         <v>30.8</v>
       </c>
       <c r="AR25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS25" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="AU25" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AV25" s="2">
         <v>1.4</v>
       </c>
       <c r="AW25" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX25" s="1">
         <v>1.5</v>
@@ -3865,10 +3882,10 @@
         <v>93.6</v>
       </c>
       <c r="AZ25" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -3886,7 +3903,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="4">
-        <v>591744.0</v>
+        <v>591744</v>
       </c>
       <c r="L26" s="1">
         <v>39.1</v>
@@ -3898,10 +3915,10 @@
         <v>8.41</v>
       </c>
       <c r="O26" s="1">
-        <v>8.71</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="P26" s="1">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="Q26" s="1">
         <v>9.39</v>
@@ -3910,23 +3927,23 @@
         <v>9.11</v>
       </c>
       <c r="S26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="T26" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA26" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AB26" s="1">
         <v>59.7</v>
@@ -3939,26 +3956,26 @@
         <v>6.9</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="3"/>
       <c r="AH26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AI26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AK26" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AL26" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AM26" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AN26" s="1">
         <v>173.7</v>
@@ -3971,22 +3988,22 @@
       </c>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AS26" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AT26" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AV26" s="1">
         <v>1.6</v>
       </c>
       <c r="AW26" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AX26" s="1">
         <v>0.2</v>
@@ -3995,10 +4012,10 @@
         <v>60.4</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -4015,10 +4032,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K27" s="4">
-        <v>1171775.0</v>
+        <v>1171775</v>
       </c>
       <c r="L27" s="1">
         <v>23.8</v>
@@ -4042,29 +4059,29 @@
         <v>6.77</v>
       </c>
       <c r="S27" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="T27" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA27" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="1">
         <v>57.7</v>
       </c>
       <c r="AC27" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="1">
@@ -4075,41 +4092,41 @@
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AI27" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AJ27" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AK27" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AL27" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AM27" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AN27" s="1">
-        <v>141.8</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="AO27" s="1">
         <v>57.7</v>
       </c>
       <c r="AP27" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS27" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT27" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="AU27" s="1">
         <v>5.6</v>
@@ -4118,19 +4135,19 @@
         <v>3.3</v>
       </c>
       <c r="AW27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX27" s="1">
         <v>0.2</v>
       </c>
       <c r="AY27" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="AZ27" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -4145,10 +4162,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K28" s="4">
-        <v>190089.0</v>
+        <v>190089</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4161,32 +4178,32 @@
         <v>4.78</v>
       </c>
       <c r="P28" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R28" s="1">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="S28" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Z28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA28" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB28" s="1">
         <v>53.2</v>
@@ -4195,32 +4212,32 @@
         <v>12.2</v>
       </c>
       <c r="AD28" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AE28" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="3"/>
       <c r="AH28" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AI28" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AJ28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AK28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AL28" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AM28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AN28" s="1">
         <v>131.6</v>
@@ -4232,16 +4249,16 @@
         <v>12.2</v>
       </c>
       <c r="AQ28" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AR28" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS28" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AT28" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="AU28" s="2">
         <v>2.8</v>
@@ -4250,19 +4267,19 @@
         <v>2.1</v>
       </c>
       <c r="AW28" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX28" s="1">
         <v>5.3</v>
       </c>
       <c r="AY28" s="2">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="AZ28" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,10 +4296,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="K29" s="4">
-        <v>370172.0</v>
+        <v>370172</v>
       </c>
       <c r="L29" s="1">
         <v>25.1</v>
@@ -4306,23 +4323,23 @@
         <v>5.83</v>
       </c>
       <c r="S29" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="T29" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z29" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA29" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB29" s="1">
         <v>63.6</v>
@@ -4334,7 +4351,7 @@
         <v>15.5</v>
       </c>
       <c r="AE29" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF29" s="1">
         <v>12.39</v>
@@ -4343,22 +4360,22 @@
         <v>4.7</v>
       </c>
       <c r="AH29" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI29" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AJ29" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AK29" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AL29" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AM29" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AN29" s="1">
         <v>89.4</v>
@@ -4373,34 +4390,34 @@
         <v>15.5</v>
       </c>
       <c r="AR29" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS29" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT29" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AU29" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AV29" s="2">
         <v>1.6</v>
       </c>
       <c r="AW29" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX29" s="1">
         <v>1.3</v>
       </c>
       <c r="AY29" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AZ29" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -4418,10 +4435,10 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="4">
-        <v>589149.0</v>
+        <v>589149</v>
       </c>
       <c r="L30" s="1">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M30" s="1">
         <v>5.85</v>
@@ -4433,7 +4450,7 @@
         <v>5.67</v>
       </c>
       <c r="P30" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q30" s="1">
         <v>5.76</v>
@@ -4442,35 +4459,35 @@
         <v>4.49</v>
       </c>
       <c r="S30" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="T30" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="Z30" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA30" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="1">
         <v>53.2</v>
       </c>
       <c r="AC30" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AD30" s="2">
         <v>45.3</v>
       </c>
       <c r="AE30" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF30" s="1">
         <v>10.3</v>
@@ -4480,19 +4497,19 @@
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AJ30" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AK30" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AL30" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AM30" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AN30" s="1">
         <v>124.2</v>
@@ -4501,32 +4518,32 @@
         <v>53.2</v>
       </c>
       <c r="AP30" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AQ30" s="2">
         <v>45.3</v>
       </c>
       <c r="AR30" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AX30" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AY30" s="2">
         <v>58.2</v>
       </c>
       <c r="AZ30" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -4541,10 +4558,10 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="K31" s="4">
-        <v>241346.0</v>
+        <v>241346</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4566,32 +4583,32 @@
         <v>3.48</v>
       </c>
       <c r="S31" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="T31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="Z31" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA31" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB31" s="1">
         <v>47.9</v>
       </c>
       <c r="AC31" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AD31" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE31" s="1">
         <v>3.9</v>
@@ -4600,19 +4617,19 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AJ31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK31" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AL31" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AM31" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AN31" s="1">
         <v>100.4</v>
@@ -4621,32 +4638,32 @@
         <v>47.9</v>
       </c>
       <c r="AP31" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AQ31" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AR31" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AY31" s="2">
         <v>117.1</v>
       </c>
       <c r="AZ31" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -4663,13 +4680,13 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="K32" s="4">
-        <v>1715123.0</v>
+        <v>1715123</v>
       </c>
       <c r="L32" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="M32" s="1">
         <v>4.45</v>
@@ -4681,7 +4698,7 @@
         <v>4.22</v>
       </c>
       <c r="P32" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="1">
         <v>3.57</v>
@@ -4690,29 +4707,29 @@
         <v>3.57</v>
       </c>
       <c r="S32" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="T32" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="Z32" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AA32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AB32" s="1">
         <v>58.7</v>
       </c>
       <c r="AC32" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD32" s="2">
         <v>24.9</v>
@@ -4727,22 +4744,22 @@
         <v>3.9</v>
       </c>
       <c r="AH32" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AI32" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AJ32" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AK32" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AL32" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AM32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="1">
         <v>79.3</v>
@@ -4751,28 +4768,28 @@
         <v>58.7</v>
       </c>
       <c r="AP32" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AQ32" s="2">
         <v>24.9</v>
       </c>
       <c r="AR32" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AS32" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT32" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="AU32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AV32" s="2">
         <v>1.8</v>
       </c>
       <c r="AW32" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX32" s="1">
         <v>2.6</v>
@@ -4781,10 +4798,10 @@
         <v>93.2</v>
       </c>
       <c r="AZ32" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4799,13 +4816,13 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="K33" s="4">
-        <v>395286.0</v>
+        <v>395286</v>
       </c>
       <c r="L33" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="M33" s="1">
         <v>5.85</v>
@@ -4820,29 +4837,29 @@
         <v>5.3</v>
       </c>
       <c r="Q33" s="1">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="R33" s="1">
         <v>5.88</v>
       </c>
       <c r="S33" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T33" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z33" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA33" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="1">
         <v>53.1</v>
@@ -4854,29 +4871,29 @@
         <v>252.1</v>
       </c>
       <c r="AE33" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AF33" s="3"/>
       <c r="AG33" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH33" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AI33" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ33" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AK33" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AL33" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AM33" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AN33" s="1">
         <v>202.6</v>
@@ -4891,22 +4908,22 @@
         <v>252.1</v>
       </c>
       <c r="AR33" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS33" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT33" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="AU33" s="2">
         <v>3.3</v>
       </c>
       <c r="AV33" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AW33" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX33" s="1">
         <v>5.7</v>
@@ -4915,10 +4932,10 @@
         <v>96.9</v>
       </c>
       <c r="AZ33" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -4935,10 +4952,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>2350.0</v>
+        <v>2350</v>
       </c>
       <c r="K34" s="4">
-        <v>4001053.0</v>
+        <v>4001053</v>
       </c>
       <c r="L34" s="1">
         <v>22.4</v>
@@ -4962,23 +4979,23 @@
         <v>4.26</v>
       </c>
       <c r="S34" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="Z34" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AA34" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AB34" s="1">
         <v>53.6</v>
@@ -4993,31 +5010,31 @@
         <v>2.9</v>
       </c>
       <c r="AF34" s="1">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AG34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH34" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AI34" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AL34" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AM34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AN34" s="1">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="AO34" s="1">
         <v>53.6</v>
@@ -5029,13 +5046,13 @@
         <v>11.2</v>
       </c>
       <c r="AR34" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS34" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT34" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="AU34" s="2">
         <v>2.7</v>
@@ -5044,19 +5061,19 @@
         <v>1.2</v>
       </c>
       <c r="AW34" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AX34" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AY34" s="2">
         <v>104.7</v>
       </c>
       <c r="AZ34" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -5073,10 +5090,10 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="K35" s="4">
-        <v>2016657.0</v>
+        <v>2016657</v>
       </c>
       <c r="L35" s="1">
         <v>26.7</v>
@@ -5100,29 +5117,29 @@
         <v>6.79</v>
       </c>
       <c r="S35" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="T35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z35" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AA35" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB35" s="1">
         <v>57.6</v>
       </c>
       <c r="AC35" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AD35" s="2">
         <v>44.7</v>
@@ -5138,53 +5155,53 @@
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AK35" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AL35" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AM35" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AN35" s="1">
-        <v>133.7</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="AO35" s="1">
         <v>57.6</v>
       </c>
       <c r="AP35" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AQ35" s="2">
         <v>44.7</v>
       </c>
       <c r="AR35" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX35" s="1">
         <v>0.8</v>
       </c>
       <c r="AY35" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="AZ35" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -5200,7 +5217,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="4">
-        <v>146282.0</v>
+        <v>146282</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5222,26 +5239,26 @@
         <v>4.29</v>
       </c>
       <c r="S36" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T36" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z36" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB36" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AC36" s="1">
         <v>11.7</v>
@@ -5251,41 +5268,41 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AI36" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AJ36" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AK36" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AL36" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM36" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AN36" s="1">
         <v>128.6</v>
       </c>
       <c r="AO36" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AP36" s="1">
         <v>11.7</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS36" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AT36" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="AU36" s="2">
         <v>3.3</v>
@@ -5294,7 +5311,7 @@
         <v>2.5</v>
       </c>
       <c r="AW36" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX36" s="1">
         <v>1.3</v>
@@ -5303,10 +5320,10 @@
         <v>66.3</v>
       </c>
       <c r="AZ36" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -5323,10 +5340,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="K37" s="4">
-        <v>2203285.0</v>
+        <v>2203285</v>
       </c>
       <c r="L37" s="1">
         <v>24.5</v>
@@ -5350,23 +5367,23 @@
         <v>7.11</v>
       </c>
       <c r="S37" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="T37" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z37" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA37" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AB37" s="1">
         <v>57.3</v>
@@ -5388,22 +5405,22 @@
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AJ37" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AK37" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AL37" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AM37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AN37" s="1">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="AO37" s="1">
         <v>57.3</v>
@@ -5415,14 +5432,14 @@
         <v>15.1</v>
       </c>
       <c r="AR37" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX37" s="1">
         <v>0.5</v>
@@ -5431,10 +5448,10 @@
         <v>84.5</v>
       </c>
       <c r="AZ37" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -5452,7 +5469,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="4">
-        <v>768751.0</v>
+        <v>768751</v>
       </c>
       <c r="L38" s="1">
         <v>29.6</v>
@@ -5464,7 +5481,7 @@
         <v>7.09</v>
       </c>
       <c r="O38" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P38" s="1">
         <v>5.9</v>
@@ -5476,23 +5493,23 @@
         <v>6.89</v>
       </c>
       <c r="S38" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="T38" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="Z38" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA38" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AB38" s="1">
         <v>60.4</v>
@@ -5512,22 +5529,22 @@
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AJ38" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AK38" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AL38" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AM38" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AN38" s="1">
-        <v>150.3</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="AO38" s="1">
         <v>60.4</v>
@@ -5537,26 +5554,26 @@
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AX38" s="1">
         <v>0.1</v>
       </c>
       <c r="AY38" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AZ38" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -5564,7 +5581,7 @@
         <v>8.81</v>
       </c>
       <c r="C39" s="1">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5573,13 +5590,13 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="K39" s="4">
-        <v>810399.0</v>
+        <v>810399</v>
       </c>
       <c r="L39" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M39" s="1">
         <v>5.34</v>
@@ -5588,7 +5605,7 @@
         <v>4.22</v>
       </c>
       <c r="O39" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P39" s="1">
         <v>4.22</v>
@@ -5597,26 +5614,26 @@
         <v>3.79</v>
       </c>
       <c r="R39" s="1">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="S39" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T39" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z39" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA39" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AB39" s="1">
         <v>47.3</v>
@@ -5625,32 +5642,32 @@
         <v>10.1</v>
       </c>
       <c r="AD39" s="2">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AE39" s="1">
         <v>3.6</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AH39" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AI39" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AJ39" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AK39" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AL39" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AM39" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AN39" s="1">
         <v>99.7</v>
@@ -5662,16 +5679,16 @@
         <v>10.1</v>
       </c>
       <c r="AQ39" s="2">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AR39" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS39" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AT39" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="AU39" s="2">
         <v>2.4</v>
@@ -5680,7 +5697,7 @@
         <v>0.8</v>
       </c>
       <c r="AW39" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX39" s="1">
         <v>2.8</v>
@@ -5689,10 +5706,10 @@
         <v>106.8</v>
       </c>
       <c r="AZ39" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -5709,10 +5726,10 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="K40" s="4">
-        <v>2383721.0</v>
+        <v>2383721</v>
       </c>
       <c r="L40" s="1">
         <v>17.5</v>
@@ -5736,23 +5753,23 @@
         <v>5.69</v>
       </c>
       <c r="S40" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="T40" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="Z40" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AA40" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AB40" s="1">
         <v>53.3</v>
@@ -5761,34 +5778,34 @@
         <v>10.6</v>
       </c>
       <c r="AD40" s="2">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AE40" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF40" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AG40" s="1">
         <v>5.7</v>
       </c>
       <c r="AH40" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AI40" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AJ40" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AK40" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AL40" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AM40" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AN40" s="1">
         <v>110.6</v>
@@ -5800,37 +5817,37 @@
         <v>10.6</v>
       </c>
       <c r="AQ40" s="2">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AR40" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AS40" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT40" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="AU40" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AV40" s="2">
         <v>4.8</v>
       </c>
       <c r="AW40" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY40" s="2">
         <v>87.6</v>
       </c>
       <c r="AZ40" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -5845,10 +5862,10 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="K41" s="4">
-        <v>209072.0</v>
+        <v>209072</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -5870,29 +5887,29 @@
         <v>3.9</v>
       </c>
       <c r="S41" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="T41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="Z41" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AA41" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AB41" s="1">
         <v>47.5</v>
       </c>
       <c r="AC41" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD41" s="2">
         <v>7.1</v>
@@ -5902,41 +5919,41 @@
       <c r="AG41" s="3"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AJ41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AL41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AM41" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AN41" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="AO41" s="1">
         <v>47.5</v>
       </c>
       <c r="AP41" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AQ41" s="2">
         <v>7.1</v>
       </c>
       <c r="AR41" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AX41" s="1">
         <v>3.7</v>
@@ -5945,10 +5962,10 @@
         <v>117.8</v>
       </c>
       <c r="AZ41" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -5956,7 +5973,7 @@
         <v>11.63</v>
       </c>
       <c r="C42" s="1">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5965,13 +5982,13 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="K42" s="4">
-        <v>965704.0</v>
+        <v>965704</v>
       </c>
       <c r="L42" s="1">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M42" s="1">
         <v>6.52</v>
@@ -5992,26 +6009,26 @@
         <v>6.76</v>
       </c>
       <c r="S42" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="T42" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z42" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA42" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AB42" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AC42" s="1">
         <v>17.3</v>
@@ -6030,25 +6047,25 @@
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AJ42" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AK42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AL42" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AM42" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AN42" s="1">
-        <v>150.7</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="AO42" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AP42" s="1">
         <v>17.3</v>
@@ -6057,14 +6074,14 @@
         <v>82.2</v>
       </c>
       <c r="AR42" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AX42" s="1">
         <v>0.5</v>
@@ -6073,10 +6090,10 @@
         <v>72.3</v>
       </c>
       <c r="AZ42" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -6091,10 +6108,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="K43" s="4">
-        <v>158874.0</v>
+        <v>158874</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6116,81 +6133,81 @@
         <v>7.77</v>
       </c>
       <c r="S43" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="T43" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="Z43" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA43" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AB43" s="1">
         <v>66.5</v>
       </c>
       <c r="AC43" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AI43" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AJ43" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AK43" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AL43" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AM43" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AN43" s="1">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="AO43" s="1">
         <v>66.5</v>
       </c>
       <c r="AP43" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS43" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT43" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU43" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AV43" s="1">
         <v>3.1</v>
       </c>
       <c r="AW43" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AX43" s="1">
         <v>1.2</v>
@@ -6199,10 +6216,10 @@
         <v>74.2</v>
       </c>
       <c r="AZ43" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -6219,10 +6236,10 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="K44" s="4">
-        <v>1312517.0</v>
+        <v>1312517</v>
       </c>
       <c r="L44" s="1">
         <v>41.1</v>
@@ -6246,33 +6263,33 @@
         <v>6.61</v>
       </c>
       <c r="S44" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="Z44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA44" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AB44" s="1">
         <v>59.3</v>
       </c>
       <c r="AC44" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AD44" s="3"/>
       <c r="AE44" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF44" s="1">
         <v>10.3</v>
@@ -6281,22 +6298,22 @@
         <v>5.5</v>
       </c>
       <c r="AH44" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AI44" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AJ44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AK44" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AL44" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AM44" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AN44" s="1">
         <v>159.5</v>
@@ -6305,17 +6322,17 @@
         <v>59.3</v>
       </c>
       <c r="AP44" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AS44" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AT44" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AU44" s="1">
         <v>3.6</v>
@@ -6324,19 +6341,19 @@
         <v>2.7</v>
       </c>
       <c r="AW44" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AX44" s="1">
         <v>0.1</v>
       </c>
       <c r="AY44" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AZ44" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -6344,10 +6361,10 @@
         <v>10.28</v>
       </c>
       <c r="C45" s="1">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D45" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
         <v>17.2</v>
@@ -6356,15 +6373,15 @@
         <v>24.2</v>
       </c>
       <c r="G45" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="K45" s="4">
-        <v>5885855.0</v>
+        <v>5885855</v>
       </c>
       <c r="L45" s="1">
         <v>28.2</v>
@@ -6388,87 +6405,87 @@
         <v>5.72</v>
       </c>
       <c r="S45" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="T45" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="Z45" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA45" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AB45" s="1">
         <v>61.9</v>
       </c>
       <c r="AC45" s="1">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AD45" s="3"/>
       <c r="AE45" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF45" s="1">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AG45" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AJ45" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AK45" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AL45" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AM45" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AN45" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="AO45" s="1">
         <v>61.9</v>
       </c>
       <c r="AP45" s="1">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AX45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="1">
         <v>63.4</v>
       </c>
       <c r="AZ45" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -6485,10 +6502,10 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="K46" s="4">
-        <v>675124.0</v>
+        <v>675124</v>
       </c>
       <c r="L46" s="1">
         <v>15.5</v>
@@ -6509,60 +6526,60 @@
         <v>4.58</v>
       </c>
       <c r="R46" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="S46" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="T46" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="Z46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AB46" s="1">
         <v>61.3</v>
       </c>
       <c r="AC46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AD46" s="2">
         <v>43.4</v>
       </c>
       <c r="AE46" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH46" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AI46" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ46" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AK46" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AL46" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AM46" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AN46" s="1">
         <v>84.3</v>
@@ -6571,28 +6588,28 @@
         <v>61.3</v>
       </c>
       <c r="AP46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AQ46" s="2">
         <v>43.4</v>
       </c>
       <c r="AR46" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS46" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AT46" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="AU46" s="2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AV46" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AW46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AX46" s="1">
         <v>0.8</v>
@@ -6601,10 +6618,10 @@
         <v>62.9</v>
       </c>
       <c r="AZ46" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -6619,44 +6636,44 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K47" s="4">
-        <v>113854.0</v>
+        <v>113854</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="N47" s="1">
         <v>6.44</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z47" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA47" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB47" s="1">
         <v>44.3</v>
@@ -6665,28 +6682,28 @@
         <v>5.8</v>
       </c>
       <c r="AD47" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AI47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AJ47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AM47" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AN47" s="1">
         <v>111.8</v>
@@ -6698,37 +6715,37 @@
         <v>5.8</v>
       </c>
       <c r="AQ47" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AR47" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS47" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AT47" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="AU47" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AV47" s="2">
         <v>0.8</v>
       </c>
       <c r="AW47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX47" s="1">
         <v>7.4</v>
       </c>
       <c r="AY47" s="2">
-        <v>136.8</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="AZ47" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -6745,13 +6762,13 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="K48" s="4">
-        <v>1681168.0</v>
+        <v>1681168</v>
       </c>
       <c r="L48" s="1">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="M48" s="1">
         <v>5.9</v>
@@ -6772,23 +6789,23 @@
         <v>6.21</v>
       </c>
       <c r="S48" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="T48" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z48" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA48" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AB48" s="1">
         <v>55.6</v>
@@ -6809,22 +6826,22 @@
         <v>6.1</v>
       </c>
       <c r="AH48" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI48" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AJ48" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AK48" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AL48" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AM48" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AN48" s="1">
         <v>104.8</v>
@@ -6839,13 +6856,13 @@
         <v>85.2</v>
       </c>
       <c r="AR48" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS48" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AT48" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AU48" s="2">
         <v>1.8</v>
@@ -6854,7 +6871,7 @@
         <v>4.7</v>
       </c>
       <c r="AW48" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AX48" s="1">
         <v>1.5</v>
@@ -6863,10 +6880,10 @@
         <v>81.3</v>
       </c>
       <c r="AZ48" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -6874,7 +6891,7 @@
         <v>8.09</v>
       </c>
       <c r="C49" s="1">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6883,19 +6900,19 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="K49" s="4">
-        <v>1464754.0</v>
+        <v>1464754</v>
       </c>
       <c r="L49" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="M49" s="1">
         <v>3.88</v>
       </c>
       <c r="N49" s="1">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="O49" s="1">
         <v>4.26</v>
@@ -6904,29 +6921,29 @@
         <v>4.51</v>
       </c>
       <c r="Q49" s="1">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="R49" s="1">
         <v>4.34</v>
       </c>
       <c r="S49" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="T49" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Z49" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AA49" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB49" s="1">
         <v>53.3</v>
@@ -6935,10 +6952,10 @@
         <v>9.6</v>
       </c>
       <c r="AD49" s="2">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE49" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF49" s="1">
         <v>6.2</v>
@@ -6947,22 +6964,22 @@
         <v>3.4</v>
       </c>
       <c r="AH49" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AI49" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AJ49" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AK49" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AL49" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AM49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AN49" s="1">
         <v>91.4</v>
@@ -6974,25 +6991,25 @@
         <v>9.6</v>
       </c>
       <c r="AQ49" s="2">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AR49" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AS49" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT49" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AU49" s="2">
         <v>2.6</v>
       </c>
       <c r="AV49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX49" s="1">
         <v>2.6</v>
@@ -7001,10 +7018,10 @@
         <v>74.7</v>
       </c>
       <c r="AZ49" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -7019,10 +7036,10 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K50" s="4">
-        <v>322254.0</v>
+        <v>322254</v>
       </c>
       <c r="L50" s="1">
         <v>23.9</v>
@@ -7046,72 +7063,72 @@
         <v>7.32</v>
       </c>
       <c r="S50" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="T50" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Z50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AB50" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AC50" s="1">
         <v>19.8</v>
       </c>
       <c r="AD50" s="3"/>
       <c r="AE50" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AI50" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AJ50" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AK50" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AL50" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AM50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AN50" s="1">
         <v>203.6</v>
       </c>
       <c r="AO50" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AP50" s="1">
         <v>19.8</v>
       </c>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AS50" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT50" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AU50" s="1">
         <v>3.3</v>
@@ -7120,7 +7137,7 @@
         <v>0.7</v>
       </c>
       <c r="AW50" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AX50" s="1">
         <v>0.3</v>
@@ -7129,10 +7146,10 @@
         <v>78.3</v>
       </c>
       <c r="AZ50" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -7149,10 +7166,10 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="K51" s="4">
-        <v>1083819.0</v>
+        <v>1083819</v>
       </c>
       <c r="L51" s="1">
         <v>13.2</v>
@@ -7176,32 +7193,32 @@
         <v>5.8</v>
       </c>
       <c r="S51" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="T51" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Z51" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA51" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="AB51" s="1">
         <v>54.2</v>
       </c>
       <c r="AC51" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AD51" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AE51" s="1">
         <v>4.2</v>
@@ -7213,43 +7230,43 @@
         <v>5.2</v>
       </c>
       <c r="AH51" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AI51" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AJ51" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AK51" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AL51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM51" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AN51" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="AO51" s="1">
         <v>54.2</v>
       </c>
       <c r="AP51" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AQ51" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AR51" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AS51" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AT51" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU51" s="2">
         <v>3.1</v>
@@ -7258,19 +7275,19 @@
         <v>1.6</v>
       </c>
       <c r="AW51" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AX51" s="1">
         <v>0.4</v>
       </c>
       <c r="AY51" s="2">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AZ51" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -7285,14 +7302,14 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K52" s="4">
-        <v>107740.0</v>
+        <v>107740</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="N52" s="1">
         <v>5.33</v>
@@ -7310,29 +7327,29 @@
         <v>5.62</v>
       </c>
       <c r="S52" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="T52" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="Z52" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA52" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AB52" s="1">
         <v>55.4</v>
       </c>
       <c r="AC52" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AD52" s="2">
         <v>323.5</v>
@@ -7341,26 +7358,26 @@
         <v>5.3</v>
       </c>
       <c r="AF52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="3"/>
       <c r="AH52" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AI52" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AJ52" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AK52" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AL52" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AM52" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AN52" s="1">
         <v>103.9</v>
@@ -7369,50 +7386,50 @@
         <v>55.4</v>
       </c>
       <c r="AP52" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AQ52" s="2">
         <v>323.5</v>
       </c>
       <c r="AR52" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AS52" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AT52" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="AU52" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AV52" s="2">
         <v>5.6</v>
       </c>
       <c r="AW52" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AX52" s="1">
         <v>4.7</v>
       </c>
       <c r="AY52" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="AZ52" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:52" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E53" s="1">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F53" s="1">
         <v>23.8</v>
@@ -7424,11 +7441,11 @@
         <v>22.3</v>
       </c>
       <c r="I53" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="4">
-        <v>6.3958243E7</v>
+        <v>63958243</v>
       </c>
       <c r="L53" s="1">
         <v>23.2</v>
@@ -7442,7 +7459,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1">
-        <v>12.001</v>
+        <v>12.000999999999999</v>
       </c>
       <c r="V53" s="1">
         <v>12.012</v>
@@ -7454,23 +7471,23 @@
         <v>12.009</v>
       </c>
       <c r="Y53" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="Z53" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AA53" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AB53" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="AC53" s="1">
         <v>13.6</v>
       </c>
       <c r="AD53" s="3"/>
       <c r="AE53" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF53" s="1">
         <v>10.6</v>
@@ -7479,7 +7496,7 @@
         <v>4.8</v>
       </c>
       <c r="AH53" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -7491,13 +7508,13 @@
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AS53" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AT53" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="AU53" s="1">
         <v>3.1</v>
@@ -7506,19 +7523,19 @@
         <v>2.6</v>
       </c>
       <c r="AW53" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AX53" s="1">
         <v>1.5</v>
       </c>
       <c r="AY53" s="1">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="AZ53" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw_data/HealthData.xlsx
+++ b/data/raw_data/HealthData.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianaluccioli/Dropbox/DSAN5100/final_project/5100_project/data/raw_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AFB35-62F5-E74B-A3E7-C0AC4823D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Health Data" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Health Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -25,10 +16,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>maternal_mortality_mothers_race_is_black_2017-2022</t>
-  </si>
-  <si>
-    <t>maternal_mortality_mothers_race_is_white_2017-2022</t>
+    <t>maternal_mortality_mothers_race_is_black_2017_2022</t>
+  </si>
+  <si>
+    <t>maternal_mortality_mothers_race_is_white_2017_2022</t>
   </si>
   <si>
     <t>maternal_mortality_rate_2018</t>
@@ -52,10 +43,10 @@
     <t>number_of_obstetricians_and_gynecologists_employed_2023</t>
   </si>
   <si>
-    <t>total_sumber_of_women_aged_15-44_2017</t>
-  </si>
-  <si>
-    <t>maternal_mortality_rates_2018-2022_per_100,000_live births</t>
+    <t>total_sumber_of_women_aged_15_44_2017</t>
+  </si>
+  <si>
+    <t>maternal_mortality_rates_2018_2022_per_100,000_live births</t>
   </si>
   <si>
     <t>infant_mortality_2017</t>
@@ -76,7 +67,7 @@
     <t>infant_mortality_2022</t>
   </si>
   <si>
-    <t>women_18-44_who_went_without_care_because_of_cost</t>
+    <t>women_18_44_who_went_without_care_because_of_cost</t>
   </si>
   <si>
     <t>overall_health_ranking</t>
@@ -94,19 +85,19 @@
     <t>birth_rate_2024</t>
   </si>
   <si>
-    <t>%_of_pregnancies_ending_in birth_2017</t>
-  </si>
-  <si>
-    <t>%_of_pregnancies_ending_in_abortion_2017</t>
+    <t>percent_of_pregnancies_ending_in birth_2017</t>
+  </si>
+  <si>
+    <t>percent_of_pregnancies_ending_in_abortion_2017</t>
   </si>
   <si>
     <t>percent_of_births_financed_by_medicaid</t>
   </si>
   <si>
-    <t>birth_rate_per_1,000_women_ages_15-44</t>
-  </si>
-  <si>
-    <t>teen_birth_rate_per_1,000_population_ages_15-19_2022</t>
+    <t>birth_rate_per_1,000_women_ages_15_44</t>
+  </si>
+  <si>
+    <t>teen_birth_rate_per_1,000_population_ages_15_19_2022</t>
   </si>
   <si>
     <t>increase_in_clinician_provided_abortions_since_2020</t>
@@ -133,40 +124,40 @@
     <t>health_outcomes</t>
   </si>
   <si>
-    <t>all_cause_mortality_rate_per_100,000_women_ages 15–44_2022</t>
-  </si>
-  <si>
-    <t>birth_rate_per_1,000 women_ages_15-44</t>
-  </si>
-  <si>
-    <t>%_increase_in_clinician_provided_abortions_since_2020</t>
-  </si>
-  <si>
-    <t>%_women_ages_18-64_who_report_fair_or_poor_health_2022</t>
-  </si>
-  <si>
-    <t>%_women_with_postpartum_depression_2021</t>
-  </si>
-  <si>
-    <t>%_women_who_received_a_postpartum_depression_screening_2021</t>
-  </si>
-  <si>
-    <t>%_women_experiencing_intimate_partner_violence_2021</t>
-  </si>
-  <si>
-    <t>%_uninsured_women_during_pregnancy_2021</t>
-  </si>
-  <si>
-    <t>%_uninsured_women_ages 19–64</t>
-  </si>
-  <si>
-    <t>abortion_clinics_per_100,000_women_ages_15–44_2022</t>
-  </si>
-  <si>
-    <t>maternity_care_workforce_per_100,000_women_ages_15–44</t>
-  </si>
-  <si>
-    <t>%_women_ages_18–44_without_a_usual_source_of_care</t>
+    <t>all_cause_mortality_rate_per_100,000_women_ages 15_44_2022</t>
+  </si>
+  <si>
+    <t>birth_rate_per_1,000 women_ages_15_44</t>
+  </si>
+  <si>
+    <t>percent_increase_in_clinician_provided_abortions_since_2020</t>
+  </si>
+  <si>
+    <t>percent_women_ages_18-64_who_report_fair_or_poor_health_2022</t>
+  </si>
+  <si>
+    <t>percent_women_with_postpartum_depression_2021</t>
+  </si>
+  <si>
+    <t>percent_women_who_received_a_postpartum_depression_screening_2021</t>
+  </si>
+  <si>
+    <t>percent_women_experiencing_intimate_partner_violence_2021</t>
+  </si>
+  <si>
+    <t>percent_uninsured_women_during_pregnancy_2021</t>
+  </si>
+  <si>
+    <t>percent_uninsured_women_ages 19_64</t>
+  </si>
+  <si>
+    <t>abortion_clinics_per_100,000_women_ages_15_44_2022</t>
+  </si>
+  <si>
+    <t>maternity_care_workforce_per_100,000_women_ages_15_44</t>
+  </si>
+  <si>
+    <t>percent_women_ages_18_44_without_a_usual_source_of_care</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -328,19 +319,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +337,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -358,44 +347,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -585,30 +577,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -632,10 +621,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -656,7 +645,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -674,37 +663,37 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AJ1" s="1" t="s">
@@ -719,47 +708,47 @@
       <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -767,7 +756,7 @@
         <v>12.02</v>
       </c>
       <c r="C2" s="1">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -776,10 +765,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="K2" s="1">
-        <v>949949</v>
+        <v>949949.0</v>
       </c>
       <c r="L2" s="1">
         <v>38.6</v>
@@ -803,23 +792,23 @@
         <v>6.69</v>
       </c>
       <c r="S2" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="T2" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="Z2" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA2" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AB2" s="1">
         <v>58.7</v>
@@ -827,7 +816,7 @@
       <c r="AC2" s="1">
         <v>20.9</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="5"/>
       <c r="AE2" s="1">
         <v>6.1</v>
       </c>
@@ -835,25 +824,25 @@
         <v>11.1</v>
       </c>
       <c r="AG2" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AH2" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AI2" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AK2" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AL2" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AM2" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AN2" s="1">
         <v>149.4</v>
@@ -866,13 +855,13 @@
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AS2" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AT2" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="AU2" s="1">
         <v>4.2</v>
@@ -881,19 +870,19 @@
         <v>2.8</v>
       </c>
       <c r="AW2" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AX2" s="1">
         <v>0.1</v>
       </c>
       <c r="AY2" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -908,10 +897,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>70</v>
-      </c>
-      <c r="K3" s="4">
-        <v>146072</v>
+        <v>70.0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>146072.0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -933,89 +922,89 @@
         <v>6.62</v>
       </c>
       <c r="S3" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="T3" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="Z3" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA3" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AB3" s="1">
-        <v>64.900000000000006</v>
+        <v>64.9</v>
       </c>
       <c r="AC3" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>33</v>
+        <v>16.9</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>33.0</v>
       </c>
       <c r="AE3" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3"/>
+        <v>0.0</v>
+      </c>
+      <c r="AG3" s="5"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AK3" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AL3" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AM3" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AN3" s="1">
         <v>178.9</v>
       </c>
       <c r="AO3" s="1">
-        <v>64.900000000000006</v>
+        <v>64.9</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>33</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>15</v>
+        <v>16.9</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>15.0</v>
       </c>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AW3" s="2">
-        <v>12</v>
+      <c r="AW3" s="3">
+        <v>12.0</v>
       </c>
       <c r="AX3" s="1">
         <v>3.6</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3" s="3">
         <v>122.3</v>
       </c>
-      <c r="AZ3" s="2">
-        <v>24</v>
+      <c r="AZ3" s="3">
+        <v>24.0</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1032,13 +1021,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>310</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1345764</v>
+        <v>310.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1345764.0</v>
       </c>
       <c r="L4" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="M4" s="1">
         <v>5.7</v>
@@ -1059,23 +1048,23 @@
         <v>6.17</v>
       </c>
       <c r="S4" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="T4" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z4" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA4" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AB4" s="1">
         <v>54.9</v>
@@ -1083,8 +1072,8 @@
       <c r="AC4" s="1">
         <v>15.1</v>
       </c>
-      <c r="AD4" s="2">
-        <v>4.5999999999999996</v>
+      <c r="AD4" s="3">
+        <v>4.6</v>
       </c>
       <c r="AE4" s="1">
         <v>4.5</v>
@@ -1097,19 +1086,19 @@
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="AK4" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AL4" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AM4" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AN4" s="1">
         <v>123.5</v>
@@ -1120,30 +1109,30 @@
       <c r="AP4" s="1">
         <v>15.1</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>20</v>
+      <c r="AQ4" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>20.0</v>
       </c>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="2">
-        <v>13</v>
+      <c r="AW4" s="3">
+        <v>13.0</v>
       </c>
       <c r="AX4" s="1">
         <v>0.6</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="3">
         <v>69.8</v>
       </c>
-      <c r="AZ4" s="2">
-        <v>32</v>
+      <c r="AZ4" s="3">
+        <v>32.0</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1160,11 +1149,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="4">
-        <v>577447</v>
+      <c r="K5" s="6">
+        <v>577447.0</v>
       </c>
       <c r="L5" s="1">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="M5" s="1">
         <v>8.1</v>
@@ -1173,7 +1162,7 @@
         <v>7.51</v>
       </c>
       <c r="O5" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="P5" s="1">
         <v>7.38</v>
@@ -1185,23 +1174,23 @@
         <v>7.67</v>
       </c>
       <c r="S5" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="T5" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="Z5" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA5" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AB5" s="1">
         <v>60.2</v>
@@ -1209,36 +1198,36 @@
       <c r="AC5" s="1">
         <v>24.6</v>
       </c>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="1">
         <v>7.4</v>
       </c>
       <c r="AF5" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AG5" s="1">
         <v>5.2</v>
       </c>
       <c r="AH5" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AI5" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AK5" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AL5" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AM5" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AN5" s="1">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="AO5" s="1">
         <v>60.2</v>
@@ -1248,13 +1237,13 @@
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AS5" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="AU5" s="1">
         <v>3.9</v>
@@ -1263,7 +1252,7 @@
         <v>1.4</v>
       </c>
       <c r="AW5" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AX5" s="1">
         <v>0.3</v>
@@ -1272,10 +1261,10 @@
         <v>52.1</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1292,10 +1281,10 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>3120</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8104632</v>
+        <v>3120.0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>8104632.0</v>
       </c>
       <c r="L6" s="1">
         <v>10.5</v>
@@ -1307,7 +1296,7 @@
         <v>4.21</v>
       </c>
       <c r="O6" s="1">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="P6" s="1">
         <v>3.92</v>
@@ -1316,34 +1305,34 @@
         <v>4.07</v>
       </c>
       <c r="R6" s="1">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="S6" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T6" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA6" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AB6" s="1">
         <v>52.8</v>
       </c>
       <c r="AC6" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AD6" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AD6" s="3">
         <v>16.3</v>
       </c>
       <c r="AE6" s="1">
@@ -1357,53 +1346,53 @@
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AK6" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AL6" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AM6" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AN6" s="1">
-        <v>79.099999999999994</v>
+        <v>79.1</v>
       </c>
       <c r="AO6" s="1">
         <v>52.8</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AQ6" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AQ6" s="3">
         <v>16.3</v>
       </c>
-      <c r="AR6" s="2">
-        <v>18</v>
+      <c r="AR6" s="3">
+        <v>18.0</v>
       </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="2">
-        <v>8</v>
+      <c r="AW6" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX6" s="1">
         <v>2.4</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6" s="3">
         <v>74.5</v>
       </c>
-      <c r="AZ6" s="2">
-        <v>26</v>
+      <c r="AZ6" s="3">
+        <v>26.0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1420,13 +1409,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <v>550</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1137745</v>
+        <v>550.0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1137745.0</v>
       </c>
       <c r="L7" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="M7" s="1">
         <v>4.49</v>
@@ -1435,7 +1424,7 @@
         <v>4.75</v>
       </c>
       <c r="O7" s="1">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="P7" s="1">
         <v>4.8</v>
@@ -1447,23 +1436,23 @@
         <v>4.54</v>
       </c>
       <c r="S7" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="T7" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="Z7" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA7" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AB7" s="1">
         <v>51.5</v>
@@ -1471,7 +1460,7 @@
       <c r="AC7" s="1">
         <v>11.1</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="3">
         <v>96.1</v>
       </c>
       <c r="AE7" s="1">
@@ -1484,22 +1473,22 @@
         <v>5.5</v>
       </c>
       <c r="AH7" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AI7" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AK7" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AL7" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AM7" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AN7" s="1">
         <v>103.1</v>
@@ -1510,38 +1499,38 @@
       <c r="AP7" s="1">
         <v>11.1</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="3">
         <v>96.1</v>
       </c>
-      <c r="AR7" s="2">
-        <v>12</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>11</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>93</v>
-      </c>
-      <c r="AU7" s="2">
+      <c r="AR7" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="AU7" s="3">
         <v>3.8</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7" s="3">
         <v>2.4</v>
       </c>
-      <c r="AW7" s="2">
-        <v>8</v>
+      <c r="AW7" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX7" s="1">
         <v>2.7</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7" s="3">
         <v>93.9</v>
       </c>
-      <c r="AZ7" s="2">
-        <v>21</v>
+      <c r="AZ7" s="3">
+        <v>21.0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1558,10 +1547,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <v>250</v>
-      </c>
-      <c r="K8" s="4">
-        <v>672949</v>
+        <v>250.0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>672949.0</v>
       </c>
       <c r="L8" s="1">
         <v>15.6</v>
@@ -1579,29 +1568,29 @@
         <v>4.33</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="R8" s="1">
         <v>4.25</v>
       </c>
       <c r="S8" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AA8" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AB8" s="1">
         <v>50.7</v>
@@ -1609,7 +1598,7 @@
       <c r="AC8" s="1">
         <v>6.4</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="3">
         <v>32.6</v>
       </c>
       <c r="AE8" s="1">
@@ -1623,19 +1612,19 @@
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AK8" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AL8" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AM8" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AN8" s="1">
         <v>93.6</v>
@@ -1646,30 +1635,30 @@
       <c r="AP8" s="1">
         <v>6.4</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8" s="3">
         <v>32.6</v>
       </c>
-      <c r="AR8" s="2">
-        <v>4</v>
+      <c r="AR8" s="3">
+        <v>4.0</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
-      <c r="AW8" s="2">
-        <v>6</v>
+      <c r="AW8" s="3">
+        <v>6.0</v>
       </c>
       <c r="AX8" s="1">
         <v>3.9</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8" s="3">
         <v>127.8</v>
       </c>
-      <c r="AZ8" s="2">
-        <v>17</v>
+      <c r="AZ8" s="3">
+        <v>17.0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1686,10 +1675,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <v>100</v>
-      </c>
-      <c r="K9" s="4">
-        <v>180343</v>
+        <v>100.0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>180343.0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1702,32 +1691,32 @@
         <v>6.44</v>
       </c>
       <c r="P9" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="R9" s="1">
         <v>7.49</v>
       </c>
       <c r="S9" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T9" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Z9" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AA9" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AB9" s="1">
         <v>57.3</v>
@@ -1735,34 +1724,34 @@
       <c r="AC9" s="1">
         <v>14.7</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="3">
         <v>92.2</v>
       </c>
-      <c r="AE9" s="3"/>
+      <c r="AE9" s="5"/>
       <c r="AF9" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG9" s="3"/>
+        <v>9.2</v>
+      </c>
+      <c r="AG9" s="5"/>
       <c r="AH9" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI9" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AK9" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AL9" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AM9" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AN9" s="1">
-        <v>130.80000000000001</v>
+        <v>130.8</v>
       </c>
       <c r="AO9" s="1">
         <v>57.3</v>
@@ -1770,43 +1759,43 @@
       <c r="AP9" s="1">
         <v>14.7</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="3">
         <v>92.2</v>
       </c>
-      <c r="AR9" s="2">
-        <v>18</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>10</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>90</v>
-      </c>
-      <c r="AU9" s="2">
+      <c r="AR9" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="AU9" s="3">
         <v>5.2</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9" s="3">
         <v>2.1</v>
       </c>
-      <c r="AW9" s="2">
-        <v>7</v>
+      <c r="AW9" s="3">
+        <v>7.0</v>
       </c>
       <c r="AX9" s="1">
         <v>4.8</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="AY9" s="3">
         <v>86.7</v>
       </c>
-      <c r="AZ9" s="2">
-        <v>19</v>
+      <c r="AZ9" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="1">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1816,10 +1805,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <v>30</v>
-      </c>
-      <c r="K10" s="4">
-        <v>186464</v>
+        <v>30.0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>186464.0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1831,23 +1820,23 @@
         <v>5.54</v>
       </c>
       <c r="S10" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T10" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="Z10" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AA10" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AB10" s="1">
         <v>44.9</v>
@@ -1855,31 +1844,31 @@
       <c r="AC10" s="1">
         <v>12.5</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="3">
         <v>2.7</v>
       </c>
-      <c r="AE10" s="3"/>
+      <c r="AE10" s="5"/>
       <c r="AF10" s="1">
         <v>11.7</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI10" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AK10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AL10" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AM10" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AN10" s="1">
         <v>94.1</v>
@@ -1890,38 +1879,38 @@
       <c r="AP10" s="1">
         <v>12.5</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10" s="3">
         <v>2.7</v>
       </c>
-      <c r="AR10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>15</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>92</v>
-      </c>
-      <c r="AU10" s="2">
+      <c r="AR10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="AU10" s="3">
         <v>4.2</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AV10" s="3">
         <v>0.6</v>
       </c>
-      <c r="AW10" s="2">
-        <v>3</v>
+      <c r="AW10" s="3">
+        <v>3.0</v>
       </c>
       <c r="AX10" s="1">
         <v>5.6</v>
       </c>
-      <c r="AY10" s="2">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="AZ10" s="2">
-        <v>16</v>
+      <c r="AY10" s="3">
+        <v>159.7</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>16.0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1929,7 +1918,7 @@
         <v>10.65</v>
       </c>
       <c r="C11" s="1">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1938,10 +1927,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <v>1470</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3828199</v>
+        <v>1470.0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3828199.0</v>
       </c>
       <c r="L11" s="1">
         <v>24.1</v>
@@ -1965,23 +1954,23 @@
         <v>5.98</v>
       </c>
       <c r="S11" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="T11" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="Z11" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AA11" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="AB11" s="1">
         <v>55.6</v>
@@ -1989,36 +1978,36 @@
       <c r="AC11" s="1">
         <v>13.1</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="3">
         <v>10.6</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AF11" s="1">
         <v>10.9</v>
       </c>
       <c r="AG11" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AK11" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AL11" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AM11" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AN11" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="AO11" s="1">
         <v>55.6</v>
@@ -2026,30 +2015,30 @@
       <c r="AP11" s="1">
         <v>13.1</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="3">
         <v>10.6</v>
       </c>
-      <c r="AR11" s="2">
-        <v>15</v>
+      <c r="AR11" s="3">
+        <v>15.0</v>
       </c>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="2">
-        <v>14</v>
+      <c r="AW11" s="3">
+        <v>14.0</v>
       </c>
       <c r="AX11" s="1">
         <v>1.4</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11" s="3">
         <v>78.2</v>
       </c>
-      <c r="AZ11" s="2">
-        <v>29</v>
+      <c r="AZ11" s="3">
+        <v>29.0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2066,10 +2055,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <v>980</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2147399</v>
+        <v>980.0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2147399.0</v>
       </c>
       <c r="L12" s="1">
         <v>32.1</v>
@@ -2093,101 +2082,101 @@
         <v>7.08</v>
       </c>
       <c r="S12" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="T12" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Z12" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AA12" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AD12" s="2">
+        <v>16.6</v>
+      </c>
+      <c r="AD12" s="3">
         <v>24.3</v>
       </c>
       <c r="AE12" s="1">
         <v>4.8</v>
       </c>
       <c r="AF12" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AG12" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AH12" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AI12" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AK12" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AL12" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AM12" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AN12" s="1">
         <v>124.4</v>
       </c>
       <c r="AO12" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AQ12" s="2">
+        <v>16.6</v>
+      </c>
+      <c r="AQ12" s="3">
         <v>24.3</v>
       </c>
-      <c r="AR12" s="2">
-        <v>18</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>11</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>87</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>15</v>
+      <c r="AR12" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>15.0</v>
       </c>
       <c r="AX12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AY12" s="3">
         <v>82.5</v>
       </c>
-      <c r="AZ12" s="2">
-        <v>28</v>
+      <c r="AZ12" s="3">
+        <v>28.0</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2200,10 +2189,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <v>220</v>
-      </c>
-      <c r="K13" s="4">
-        <v>265924</v>
+        <v>220.0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>265924.0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2225,23 +2214,23 @@
         <v>5.79</v>
       </c>
       <c r="S13" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="T13" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="Z13" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AA13" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AB13" s="1">
         <v>59.3</v>
@@ -2249,29 +2238,29 @@
       <c r="AC13" s="1">
         <v>11.7</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="3">
         <v>27.3</v>
       </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
       <c r="AH13" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AI13" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AK13" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AL13" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AM13" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AN13" s="1">
         <v>70.5</v>
@@ -2282,38 +2271,38 @@
       <c r="AP13" s="1">
         <v>11.7</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ13" s="3">
         <v>27.3</v>
       </c>
-      <c r="AR13" s="2">
-        <v>12</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>14</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>91</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="2">
+      <c r="AR13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AV13" s="3">
         <v>0.4</v>
       </c>
-      <c r="AW13" s="2">
-        <v>4</v>
+      <c r="AW13" s="3">
+        <v>4.0</v>
       </c>
       <c r="AX13" s="1">
         <v>3.2</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="AY13" s="3">
         <v>113.6</v>
       </c>
-      <c r="AZ13" s="2">
-        <v>13</v>
+      <c r="AZ13" s="3">
+        <v>13.0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,11 +2317,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="4">
-        <v>328941</v>
+      <c r="K14" s="6">
+        <v>328941.0</v>
       </c>
       <c r="L14" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="M14" s="1">
         <v>4.55</v>
@@ -2341,10 +2330,10 @@
         <v>5.05</v>
       </c>
       <c r="O14" s="1">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="P14" s="1">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="Q14" s="1">
         <v>5.13</v>
@@ -2353,23 +2342,23 @@
         <v>5.27</v>
       </c>
       <c r="S14" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="T14" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="Z14" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA14" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AB14" s="1">
         <v>58.4</v>
@@ -2377,32 +2366,32 @@
       <c r="AC14" s="1">
         <v>10.9</v>
       </c>
-      <c r="AD14" s="3"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AF14" s="3"/>
+        <v>4.4</v>
+      </c>
+      <c r="AF14" s="5"/>
       <c r="AG14" s="1">
         <v>6.7</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AK14" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AL14" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AM14" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AN14" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="AO14" s="1">
         <v>58.4</v>
@@ -2412,14 +2401,14 @@
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AX14" s="1">
         <v>0.5</v>
@@ -2428,10 +2417,10 @@
         <v>56.1</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,13 +2437,13 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <v>690</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2532027</v>
+        <v>690.0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2532027.0</v>
       </c>
       <c r="L15" s="1">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="M15" s="1">
         <v>6.12</v>
@@ -2475,23 +2464,23 @@
         <v>5.59</v>
       </c>
       <c r="S15" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="T15" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Z15" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AA15" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AB15" s="1">
         <v>51.8</v>
@@ -2499,8 +2488,8 @@
       <c r="AC15" s="1">
         <v>11.3</v>
       </c>
-      <c r="AD15" s="2">
-        <v>71.599999999999994</v>
+      <c r="AD15" s="3">
+        <v>71.6</v>
       </c>
       <c r="AE15" s="1">
         <v>3.9</v>
@@ -2512,25 +2501,25 @@
         <v>5.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AI15" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AK15" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AL15" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AM15" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AN15" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="AO15" s="1">
         <v>51.8</v>
@@ -2538,43 +2527,43 @@
       <c r="AP15" s="1">
         <v>11.3</v>
       </c>
-      <c r="AQ15" s="2">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>16</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>93</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="2">
+      <c r="AQ15" s="3">
+        <v>71.6</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AV15" s="3">
         <v>1.4</v>
       </c>
-      <c r="AW15" s="2">
-        <v>8</v>
+      <c r="AW15" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>89</v>
-      </c>
-      <c r="AZ15" s="2">
-        <v>22</v>
+        <v>2.0</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>22.0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C16" s="1">
         <v>6.13</v>
@@ -2586,10 +2575,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <v>470</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1295622</v>
+        <v>470.0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1295622.0</v>
       </c>
       <c r="L16" s="1">
         <v>30.9</v>
@@ -2613,23 +2602,23 @@
         <v>7.16</v>
       </c>
       <c r="S16" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T16" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA16" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AB16" s="1">
         <v>59.7</v>
@@ -2637,7 +2626,7 @@
       <c r="AC16" s="1">
         <v>16.7</v>
       </c>
-      <c r="AD16" s="3"/>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="1">
         <v>5.9</v>
       </c>
@@ -2649,22 +2638,22 @@
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AK16" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AL16" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AM16" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AN16" s="1">
-        <v>136.69999999999999</v>
+        <v>136.7</v>
       </c>
       <c r="AO16" s="1">
         <v>59.7</v>
@@ -2674,14 +2663,14 @@
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AX16" s="1">
         <v>0.1</v>
@@ -2690,10 +2679,10 @@
         <v>68.5</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2710,10 +2699,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <v>120</v>
-      </c>
-      <c r="K17" s="4">
-        <v>592278</v>
+        <v>120.0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>592278.0</v>
       </c>
       <c r="L17" s="1">
         <v>19.5</v>
@@ -2722,10 +2711,10 @@
         <v>5.31</v>
       </c>
       <c r="N17" s="1">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="O17" s="1">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="P17" s="1">
         <v>4.43</v>
@@ -2737,23 +2726,23 @@
         <v>5.2</v>
       </c>
       <c r="S17" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T17" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z17" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA17" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AB17" s="1">
         <v>59.9</v>
@@ -2761,7 +2750,7 @@
       <c r="AC17" s="1">
         <v>12.4</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17" s="3">
         <v>16.2</v>
       </c>
       <c r="AE17" s="1">
@@ -2770,22 +2759,22 @@
       <c r="AF17" s="1">
         <v>13.6</v>
       </c>
-      <c r="AG17" s="3"/>
+      <c r="AG17" s="5"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AK17" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AL17" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AM17" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AN17" s="1">
         <v>85.4</v>
@@ -2796,35 +2785,35 @@
       <c r="AP17" s="1">
         <v>12.4</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AQ17" s="3">
         <v>16.2</v>
       </c>
-      <c r="AR17" s="2">
-        <v>7</v>
+      <c r="AR17" s="3">
+        <v>7.0</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
-      <c r="AW17" s="2">
-        <v>5</v>
+      <c r="AW17" s="3">
+        <v>5.0</v>
       </c>
       <c r="AX17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY17" s="2">
+      <c r="AY17" s="3">
         <v>63.5</v>
       </c>
-      <c r="AZ17" s="2">
-        <v>20</v>
+      <c r="AZ17" s="3">
+        <v>20.0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C18" s="1">
         <v>5.56</v>
@@ -2836,8 +2825,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="4">
-        <v>558606</v>
+      <c r="K18" s="6">
+        <v>558606.0</v>
       </c>
       <c r="L18" s="1">
         <v>22.8</v>
@@ -2861,23 +2850,23 @@
         <v>5.81</v>
       </c>
       <c r="S18" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="T18" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z18" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA18" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AB18" s="1">
         <v>60.3</v>
@@ -2885,35 +2874,35 @@
       <c r="AC18" s="1">
         <v>16.2</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="3">
         <v>135.6</v>
       </c>
       <c r="AE18" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AF18" s="1">
         <v>10.8</v>
       </c>
       <c r="AG18" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AH18" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AI18" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AK18" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AL18" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AM18" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AN18" s="1">
         <v>121.7</v>
@@ -2924,43 +2913,43 @@
       <c r="AP18" s="1">
         <v>16.2</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AQ18" s="3">
         <v>135.6</v>
       </c>
-      <c r="AR18" s="2">
-        <v>16</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>15</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>88</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AW18" s="2">
-        <v>12</v>
+      <c r="AR18" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>12.0</v>
       </c>
       <c r="AX18" s="1">
         <v>1.8</v>
       </c>
-      <c r="AY18" s="2">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="AZ18" s="2">
-        <v>16</v>
+      <c r="AY18" s="3">
+        <v>67.6</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>16.0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="1">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="C19" s="1">
         <v>5.53</v>
@@ -2972,10 +2961,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>320</v>
-      </c>
-      <c r="K19" s="4">
-        <v>848472</v>
+        <v>320.0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>848472.0</v>
       </c>
       <c r="L19" s="1">
         <v>34.6</v>
@@ -2987,7 +2976,7 @@
         <v>6.05</v>
       </c>
       <c r="O19" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="P19" s="1">
         <v>6.43</v>
@@ -2999,23 +2988,23 @@
         <v>5.77</v>
       </c>
       <c r="S19" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T19" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z19" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA19" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AB19" s="1">
         <v>61.1</v>
@@ -3023,7 +3012,7 @@
       <c r="AC19" s="1">
         <v>21.8</v>
       </c>
-      <c r="AD19" s="3"/>
+      <c r="AD19" s="5"/>
       <c r="AE19" s="1">
         <v>5.6</v>
       </c>
@@ -3035,19 +3024,19 @@
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AK19" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AL19" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AM19" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AN19" s="1">
         <v>176.3</v>
@@ -3060,26 +3049,26 @@
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AX19" s="1">
         <v>0.2</v>
       </c>
       <c r="AY19" s="1">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3087,7 +3076,7 @@
         <v>10.97</v>
       </c>
       <c r="C20" s="1">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3096,13 +3085,13 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>60</v>
-      </c>
-      <c r="K20" s="4">
-        <v>936106</v>
+        <v>60.0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>936106.0</v>
       </c>
       <c r="L20" s="1">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="M20" s="1">
         <v>7.06</v>
@@ -3123,23 +3112,23 @@
         <v>7.37</v>
       </c>
       <c r="S20" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="T20" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z20" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA20" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="AB20" s="1">
         <v>61.8</v>
@@ -3147,7 +3136,7 @@
       <c r="AC20" s="1">
         <v>23.7</v>
       </c>
-      <c r="AD20" s="3"/>
+      <c r="AD20" s="5"/>
       <c r="AE20" s="1">
         <v>5.2</v>
       </c>
@@ -3155,25 +3144,25 @@
         <v>10.9</v>
       </c>
       <c r="AG20" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AH20" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI20" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AK20" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AL20" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AM20" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AN20" s="1">
         <v>168.4</v>
@@ -3186,13 +3175,13 @@
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AS20" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="AU20" s="1">
         <v>2.4</v>
@@ -3201,19 +3190,19 @@
         <v>0.8</v>
       </c>
       <c r="AW20" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AX20" s="1">
         <v>0.1</v>
       </c>
       <c r="AY20" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -3228,10 +3217,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>100</v>
-      </c>
-      <c r="K21" s="4">
-        <v>231535</v>
+        <v>100.0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>231535.0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3247,29 +3236,29 @@
         <v>6.33</v>
       </c>
       <c r="Q21" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R21" s="1">
         <v>6.37</v>
       </c>
       <c r="S21" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T21" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="Z21" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA21" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AB21" s="1">
         <v>49.7</v>
@@ -3277,31 +3266,31 @@
       <c r="AC21" s="1">
         <v>8.4</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="3">
         <v>1.9</v>
       </c>
       <c r="AE21" s="1">
         <v>4.7</v>
       </c>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
       <c r="AH21" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AI21" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AK21" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AL21" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AM21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AN21" s="1">
         <v>126.2</v>
@@ -3312,43 +3301,43 @@
       <c r="AP21" s="1">
         <v>8.4</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ21" s="3">
         <v>1.9</v>
       </c>
-      <c r="AR21" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>93</v>
-      </c>
-      <c r="AU21" s="2">
+      <c r="AR21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="AU21" s="3">
         <v>2.8</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV21" s="3">
         <v>1.7</v>
       </c>
-      <c r="AW21" s="2">
-        <v>8</v>
+      <c r="AW21" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX21" s="1">
         <v>12.9</v>
       </c>
-      <c r="AY21" s="2">
+      <c r="AY21" s="3">
         <v>110.5</v>
       </c>
-      <c r="AZ21" s="2">
-        <v>8</v>
+      <c r="AZ21" s="3">
+        <v>8.0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="1">
-        <v>9.7200000000000006</v>
+        <v>9.72</v>
       </c>
       <c r="C22" s="1">
         <v>3.89</v>
@@ -3360,10 +3349,10 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>210</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1193286</v>
+        <v>210.0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1193286.0</v>
       </c>
       <c r="L22" s="1">
         <v>21.3</v>
@@ -3387,23 +3376,23 @@
         <v>6.03</v>
       </c>
       <c r="S22" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="T22" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="Z22" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AA22" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AB22" s="1">
         <v>56.9</v>
@@ -3411,33 +3400,33 @@
       <c r="AC22" s="1">
         <v>10.9</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="3">
         <v>26.7</v>
       </c>
       <c r="AE22" s="1">
         <v>4.5</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="AG22" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AK22" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AL22" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AM22" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AN22" s="1">
         <v>103.1</v>
@@ -3448,30 +3437,30 @@
       <c r="AP22" s="1">
         <v>10.9</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AQ22" s="3">
         <v>26.7</v>
       </c>
-      <c r="AR22" s="2">
-        <v>15</v>
+      <c r="AR22" s="3">
+        <v>15.0</v>
       </c>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="2">
-        <v>7</v>
+      <c r="AW22" s="3">
+        <v>7.0</v>
       </c>
       <c r="AX22" s="1">
         <v>2.8</v>
       </c>
-      <c r="AY22" s="2">
+      <c r="AY22" s="3">
         <v>107.2</v>
       </c>
-      <c r="AZ22" s="2">
-        <v>17</v>
+      <c r="AZ22" s="3">
+        <v>17.0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -3488,13 +3477,13 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>740</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1381812</v>
+        <v>740.0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1381812.0</v>
       </c>
       <c r="L23" s="1">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="M23" s="1">
         <v>3.66</v>
@@ -3515,23 +3504,23 @@
         <v>3.32</v>
       </c>
       <c r="S23" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA23" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AB23" s="1">
         <v>48.7</v>
@@ -3539,38 +3528,38 @@
       <c r="AC23" s="1">
         <v>5.8</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="3">
         <v>26.6</v>
       </c>
       <c r="AE23" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AF23" s="1">
         <v>6.4</v>
       </c>
       <c r="AG23" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AH23" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AI23" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="AK23" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="AN23" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="AO23" s="1">
         <v>48.7</v>
@@ -3578,38 +3567,38 @@
       <c r="AP23" s="1">
         <v>5.8</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AQ23" s="3">
         <v>26.6</v>
       </c>
-      <c r="AR23" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>10</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>95</v>
-      </c>
-      <c r="AU23" s="2">
+      <c r="AR23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="AU23" s="3">
         <v>2.4</v>
       </c>
-      <c r="AV23" s="2">
+      <c r="AV23" s="3">
         <v>0.5</v>
       </c>
-      <c r="AW23" s="2">
-        <v>3</v>
+      <c r="AW23" s="3">
+        <v>3.0</v>
       </c>
       <c r="AX23" s="1">
         <v>1.6</v>
       </c>
-      <c r="AY23" s="2">
+      <c r="AY23" s="3">
         <v>105.3</v>
       </c>
-      <c r="AZ23" s="2">
-        <v>12</v>
+      <c r="AZ23" s="3">
+        <v>12.0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,13 +3615,13 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>640</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1874298</v>
+        <v>640.0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1874298.0</v>
       </c>
       <c r="L24" s="1">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="M24" s="1">
         <v>6.78</v>
@@ -3653,31 +3642,31 @@
         <v>6.42</v>
       </c>
       <c r="S24" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T24" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="Z24" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AA24" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="AC24" s="1">
         <v>11.6</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="3">
         <v>19.3</v>
       </c>
       <c r="AE24" s="1">
@@ -3690,64 +3679,64 @@
         <v>6.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AI24" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AK24" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AL24" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AM24" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AN24" s="1">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="AO24" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="AP24" s="1">
         <v>11.6</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AQ24" s="3">
         <v>19.3</v>
       </c>
-      <c r="AR24" s="2">
-        <v>18</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>17</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>92</v>
-      </c>
-      <c r="AU24" s="2">
+      <c r="AR24" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="AU24" s="3">
         <v>3.4</v>
       </c>
-      <c r="AV24" s="2">
+      <c r="AV24" s="3">
         <v>0.7</v>
       </c>
-      <c r="AW24" s="2">
-        <v>5</v>
+      <c r="AW24" s="3">
+        <v>5.0</v>
       </c>
       <c r="AX24" s="1">
         <v>1.7</v>
       </c>
-      <c r="AY24" s="2">
+      <c r="AY24" s="3">
         <v>95.9</v>
       </c>
-      <c r="AZ24" s="2">
-        <v>11</v>
+      <c r="AZ24" s="3">
+        <v>11.0</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -3764,10 +3753,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>440</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1066806</v>
+        <v>440.0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1066806.0</v>
       </c>
       <c r="L25" s="1">
         <v>12.3</v>
@@ -3776,7 +3765,7 @@
         <v>4.8</v>
       </c>
       <c r="N25" s="1">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="O25" s="1">
         <v>4.53</v>
@@ -3791,101 +3780,101 @@
         <v>4.5</v>
       </c>
       <c r="S25" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T25" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z25" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA25" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AB25" s="1">
         <v>58.2</v>
       </c>
       <c r="AC25" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AD25" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="AD25" s="3">
         <v>30.8</v>
       </c>
       <c r="AE25" s="1">
         <v>3.8</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="AG25" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AH25" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AI25" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AK25" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AL25" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AM25" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AN25" s="1">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="AO25" s="1">
         <v>58.2</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AQ25" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="AQ25" s="3">
         <v>30.8</v>
       </c>
-      <c r="AR25" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS25" s="2">
-        <v>11</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>96</v>
-      </c>
-      <c r="AU25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV25" s="2">
+      <c r="AR25" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AV25" s="3">
         <v>1.4</v>
       </c>
-      <c r="AW25" s="2">
-        <v>5</v>
+      <c r="AW25" s="3">
+        <v>5.0</v>
       </c>
       <c r="AX25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY25" s="2">
+      <c r="AY25" s="3">
         <v>93.6</v>
       </c>
-      <c r="AZ25" s="2">
-        <v>19</v>
+      <c r="AZ25" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -3902,8 +3891,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="4">
-        <v>591744</v>
+      <c r="K26" s="6">
+        <v>591744.0</v>
       </c>
       <c r="L26" s="1">
         <v>39.1</v>
@@ -3915,10 +3904,10 @@
         <v>8.41</v>
       </c>
       <c r="O26" s="1">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="P26" s="1">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="Q26" s="1">
         <v>9.39</v>
@@ -3927,23 +3916,23 @@
         <v>9.11</v>
       </c>
       <c r="S26" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="T26" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="Z26" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA26" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="AB26" s="1">
         <v>59.7</v>
@@ -3951,31 +3940,31 @@
       <c r="AC26" s="1">
         <v>26.4</v>
       </c>
-      <c r="AD26" s="3"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="1">
         <v>6.9</v>
       </c>
       <c r="AF26" s="1">
-        <v>13</v>
-      </c>
-      <c r="AG26" s="3"/>
+        <v>13.0</v>
+      </c>
+      <c r="AG26" s="5"/>
       <c r="AH26" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AI26" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AK26" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AL26" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AM26" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AN26" s="1">
         <v>173.7</v>
@@ -3988,22 +3977,22 @@
       </c>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AS26" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AT26" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AV26" s="1">
         <v>1.6</v>
       </c>
       <c r="AW26" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AX26" s="1">
         <v>0.2</v>
@@ -4012,10 +4001,10 @@
         <v>60.4</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -4032,10 +4021,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>50</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1171775</v>
+        <v>50.0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1171775.0</v>
       </c>
       <c r="L27" s="1">
         <v>23.8</v>
@@ -4059,74 +4048,74 @@
         <v>6.77</v>
       </c>
       <c r="S27" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="T27" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="Z27" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA27" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AB27" s="1">
         <v>57.7</v>
       </c>
       <c r="AC27" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="AD27" s="3"/>
+        <v>16.9</v>
+      </c>
+      <c r="AD27" s="5"/>
       <c r="AE27" s="1">
         <v>4.8</v>
       </c>
       <c r="AF27" s="1">
         <v>11.9</v>
       </c>
-      <c r="AG27" s="3"/>
+      <c r="AG27" s="5"/>
       <c r="AH27" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AI27" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AK27" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AL27" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AM27" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AN27" s="1">
-        <v>141.80000000000001</v>
+        <v>141.8</v>
       </c>
       <c r="AO27" s="1">
         <v>57.7</v>
       </c>
       <c r="AP27" s="1">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AS27" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AT27" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="AU27" s="1">
         <v>5.6</v>
@@ -4135,19 +4124,19 @@
         <v>3.3</v>
       </c>
       <c r="AW27" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AX27" s="1">
         <v>0.2</v>
       </c>
       <c r="AY27" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="AZ27" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -4162,10 +4151,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>30</v>
-      </c>
-      <c r="K28" s="4">
-        <v>190089</v>
+        <v>30.0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>190089.0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4178,32 +4167,32 @@
         <v>4.78</v>
       </c>
       <c r="P28" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="Q28" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="R28" s="1">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="S28" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="T28" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="Z28" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA28" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AB28" s="1">
         <v>53.2</v>
@@ -4211,33 +4200,33 @@
       <c r="AC28" s="1">
         <v>12.2</v>
       </c>
-      <c r="AD28" s="2">
-        <v>36.299999999999997</v>
+      <c r="AD28" s="3">
+        <v>36.3</v>
       </c>
       <c r="AE28" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AF28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="3"/>
+        <v>0.0</v>
+      </c>
+      <c r="AG28" s="5"/>
       <c r="AH28" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AI28" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AK28" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AL28" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AM28" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AN28" s="1">
         <v>131.6</v>
@@ -4248,38 +4237,38 @@
       <c r="AP28" s="1">
         <v>12.2</v>
       </c>
-      <c r="AQ28" s="2">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>7</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>13</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>95</v>
-      </c>
-      <c r="AU28" s="2">
+      <c r="AQ28" s="3">
+        <v>36.3</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="AU28" s="3">
         <v>2.8</v>
       </c>
-      <c r="AV28" s="2">
+      <c r="AV28" s="3">
         <v>2.1</v>
       </c>
-      <c r="AW28" s="2">
-        <v>10</v>
+      <c r="AW28" s="3">
+        <v>10.0</v>
       </c>
       <c r="AX28" s="1">
         <v>5.3</v>
       </c>
-      <c r="AY28" s="2">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>19</v>
+      <c r="AY28" s="3">
+        <v>78.9</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -4296,10 +4285,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>90</v>
-      </c>
-      <c r="K29" s="4">
-        <v>370172</v>
+        <v>90.0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>370172.0</v>
       </c>
       <c r="L29" s="1">
         <v>25.1</v>
@@ -4323,23 +4312,23 @@
         <v>5.83</v>
       </c>
       <c r="S29" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="T29" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z29" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA29" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AB29" s="1">
         <v>63.6</v>
@@ -4347,11 +4336,11 @@
       <c r="AC29" s="1">
         <v>14.1</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="3">
         <v>15.5</v>
       </c>
       <c r="AE29" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AF29" s="1">
         <v>12.39</v>
@@ -4360,22 +4349,22 @@
         <v>4.7</v>
       </c>
       <c r="AH29" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI29" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AK29" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AL29" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AM29" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AN29" s="1">
         <v>89.4</v>
@@ -4386,38 +4375,38 @@
       <c r="AP29" s="1">
         <v>14.1</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AQ29" s="3">
         <v>15.5</v>
       </c>
-      <c r="AR29" s="2">
-        <v>15</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>92</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AV29" s="2">
+      <c r="AR29" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="AV29" s="3">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="2">
-        <v>8</v>
+      <c r="AW29" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX29" s="1">
         <v>1.3</v>
       </c>
-      <c r="AY29" s="2">
-        <v>70</v>
-      </c>
-      <c r="AZ29" s="2">
-        <v>21</v>
+      <c r="AY29" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>21.0</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -4434,11 +4423,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="4">
-        <v>589149</v>
+      <c r="K30" s="6">
+        <v>589149.0</v>
       </c>
       <c r="L30" s="1">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="M30" s="1">
         <v>5.85</v>
@@ -4450,7 +4439,7 @@
         <v>5.67</v>
       </c>
       <c r="P30" s="1">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="Q30" s="1">
         <v>5.76</v>
@@ -4459,35 +4448,35 @@
         <v>4.49</v>
       </c>
       <c r="S30" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="T30" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="Z30" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA30" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AB30" s="1">
         <v>53.2</v>
       </c>
       <c r="AC30" s="1">
-        <v>14</v>
-      </c>
-      <c r="AD30" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AD30" s="3">
         <v>45.3</v>
       </c>
       <c r="AE30" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AF30" s="1">
         <v>10.3</v>
@@ -4497,19 +4486,19 @@
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AK30" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AL30" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AM30" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AN30" s="1">
         <v>124.2</v>
@@ -4518,32 +4507,32 @@
         <v>53.2</v>
       </c>
       <c r="AP30" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ30" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AQ30" s="3">
         <v>45.3</v>
       </c>
-      <c r="AR30" s="2">
-        <v>22</v>
+      <c r="AR30" s="3">
+        <v>22.0</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AX30" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AY30" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="AY30" s="3">
         <v>58.2</v>
       </c>
-      <c r="AZ30" s="2">
-        <v>32</v>
+      <c r="AZ30" s="3">
+        <v>32.0</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -4558,10 +4547,10 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>130</v>
-      </c>
-      <c r="K31" s="4">
-        <v>241346</v>
+        <v>130.0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>241346.0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -4583,53 +4572,53 @@
         <v>3.48</v>
       </c>
       <c r="S31" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="T31" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="Z31" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA31" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AB31" s="1">
         <v>47.9</v>
       </c>
       <c r="AC31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>19.600000000000001</v>
+        <v>4.6</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>19.6</v>
       </c>
       <c r="AE31" s="1">
         <v>3.9</v>
       </c>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AK31" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AL31" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AM31" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AN31" s="1">
         <v>100.4</v>
@@ -4638,32 +4627,32 @@
         <v>47.9</v>
       </c>
       <c r="AP31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>15</v>
+        <v>4.6</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>19.6</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>15.0</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AX31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY31" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AY31" s="3">
         <v>117.1</v>
       </c>
-      <c r="AZ31" s="2">
-        <v>11</v>
+      <c r="AZ31" s="3">
+        <v>11.0</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -4680,13 +4669,13 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>670</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1715123</v>
+        <v>670.0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1715123.0</v>
       </c>
       <c r="L32" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="M32" s="1">
         <v>4.45</v>
@@ -4698,7 +4687,7 @@
         <v>4.22</v>
       </c>
       <c r="P32" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q32" s="1">
         <v>3.57</v>
@@ -4707,31 +4696,31 @@
         <v>3.57</v>
       </c>
       <c r="S32" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="T32" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="Z32" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AA32" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AB32" s="1">
         <v>58.7</v>
       </c>
       <c r="AC32" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AD32" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="AD32" s="3">
         <v>24.9</v>
       </c>
       <c r="AE32" s="1">
@@ -4744,22 +4733,22 @@
         <v>3.9</v>
       </c>
       <c r="AH32" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AI32" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AK32" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AL32" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AM32" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AN32" s="1">
         <v>79.3</v>
@@ -4768,40 +4757,40 @@
         <v>58.7</v>
       </c>
       <c r="AP32" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AQ32" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="AQ32" s="3">
         <v>24.9</v>
       </c>
-      <c r="AR32" s="2">
-        <v>8</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>11</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>85</v>
-      </c>
-      <c r="AU32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV32" s="2">
+      <c r="AR32" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AV32" s="3">
         <v>1.8</v>
       </c>
       <c r="AW32" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AX32" s="1">
         <v>2.6</v>
       </c>
-      <c r="AY32" s="2">
+      <c r="AY32" s="3">
         <v>93.2</v>
       </c>
-      <c r="AZ32" s="2">
-        <v>18</v>
+      <c r="AZ32" s="3">
+        <v>18.0</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4816,13 +4805,13 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>120</v>
-      </c>
-      <c r="K33" s="4">
-        <v>395286</v>
+        <v>120.0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>395286.0</v>
       </c>
       <c r="L33" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="M33" s="1">
         <v>5.85</v>
@@ -4837,29 +4826,29 @@
         <v>5.3</v>
       </c>
       <c r="Q33" s="1">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="R33" s="1">
         <v>5.88</v>
       </c>
       <c r="S33" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T33" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z33" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA33" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="AB33" s="1">
         <v>53.1</v>
@@ -4867,33 +4856,33 @@
       <c r="AC33" s="1">
         <v>19.7</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33" s="3">
         <v>252.1</v>
       </c>
       <c r="AE33" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AF33" s="3"/>
+        <v>4.9</v>
+      </c>
+      <c r="AF33" s="5"/>
       <c r="AG33" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AH33" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AI33" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AK33" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AL33" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="AM33" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AN33" s="1">
         <v>202.6</v>
@@ -4904,38 +4893,38 @@
       <c r="AP33" s="1">
         <v>19.7</v>
       </c>
-      <c r="AQ33" s="2">
+      <c r="AQ33" s="3">
         <v>252.1</v>
       </c>
-      <c r="AR33" s="2">
-        <v>18</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>94</v>
-      </c>
-      <c r="AU33" s="2">
+      <c r="AR33" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT33" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="AU33" s="3">
         <v>3.3</v>
       </c>
-      <c r="AV33" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AW33" s="2">
-        <v>12</v>
+      <c r="AV33" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>12.0</v>
       </c>
       <c r="AX33" s="1">
         <v>5.7</v>
       </c>
-      <c r="AY33" s="2">
+      <c r="AY33" s="3">
         <v>96.9</v>
       </c>
-      <c r="AZ33" s="2">
-        <v>35</v>
+      <c r="AZ33" s="3">
+        <v>35.0</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,10 +4941,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>2350</v>
-      </c>
-      <c r="K34" s="4">
-        <v>4001053</v>
+        <v>2350.0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>4001053.0</v>
       </c>
       <c r="L34" s="1">
         <v>22.4</v>
@@ -4979,23 +4968,23 @@
         <v>4.26</v>
       </c>
       <c r="S34" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T34" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="Z34" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AA34" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AB34" s="1">
         <v>53.6</v>
@@ -5003,38 +4992,38 @@
       <c r="AC34" s="1">
         <v>8.6</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34" s="3">
         <v>11.2</v>
       </c>
       <c r="AE34" s="1">
         <v>2.9</v>
       </c>
       <c r="AF34" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AG34" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AH34" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AI34" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AK34" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AL34" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AM34" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AN34" s="1">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="AO34" s="1">
         <v>53.6</v>
@@ -5042,38 +5031,38 @@
       <c r="AP34" s="1">
         <v>8.6</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AQ34" s="3">
         <v>11.2</v>
       </c>
-      <c r="AR34" s="2">
-        <v>15</v>
+      <c r="AR34" s="3">
+        <v>15.0</v>
       </c>
       <c r="AS34" s="1">
-        <v>12</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>84</v>
-      </c>
-      <c r="AU34" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="AU34" s="3">
         <v>2.7</v>
       </c>
-      <c r="AV34" s="2">
+      <c r="AV34" s="3">
         <v>1.2</v>
       </c>
-      <c r="AW34" s="2">
-        <v>5</v>
+      <c r="AW34" s="3">
+        <v>5.0</v>
       </c>
       <c r="AX34" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AY34" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="AY34" s="3">
         <v>104.7</v>
       </c>
-      <c r="AZ34" s="2">
-        <v>21</v>
+      <c r="AZ34" s="3">
+        <v>21.0</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -5090,10 +5079,10 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>480</v>
-      </c>
-      <c r="K35" s="4">
-        <v>2016657</v>
+        <v>480.0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>2016657.0</v>
       </c>
       <c r="L35" s="1">
         <v>26.7</v>
@@ -5117,31 +5106,31 @@
         <v>6.79</v>
       </c>
       <c r="S35" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="T35" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z35" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AA35" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AB35" s="1">
         <v>57.6</v>
       </c>
       <c r="AC35" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD35" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>44.7</v>
       </c>
       <c r="AE35" s="1">
@@ -5155,53 +5144,53 @@
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AK35" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AL35" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AM35" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AN35" s="1">
-        <v>133.69999999999999</v>
+        <v>133.7</v>
       </c>
       <c r="AO35" s="1">
         <v>57.6</v>
       </c>
       <c r="AP35" s="1">
-        <v>15</v>
-      </c>
-      <c r="AQ35" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AQ35" s="3">
         <v>44.7</v>
       </c>
-      <c r="AR35" s="2">
-        <v>18</v>
+      <c r="AR35" s="3">
+        <v>18.0</v>
       </c>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="2">
-        <v>12</v>
+      <c r="AW35" s="3">
+        <v>12.0</v>
       </c>
       <c r="AX35" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY35" s="2">
-        <v>84</v>
-      </c>
-      <c r="AZ35" s="2">
-        <v>20</v>
+      <c r="AY35" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>20.0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -5216,8 +5205,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="4">
-        <v>146282</v>
+      <c r="K36" s="6">
+        <v>146282.0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -5239,91 +5228,91 @@
         <v>4.29</v>
       </c>
       <c r="S36" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="T36" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z36" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA36" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="AC36" s="1">
         <v>11.7</v>
       </c>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
       <c r="AH36" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AI36" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AK36" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AL36" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AM36" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AN36" s="1">
         <v>128.6</v>
       </c>
       <c r="AO36" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="AP36" s="1">
         <v>11.7</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AS36" s="1">
-        <v>13</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>94</v>
-      </c>
-      <c r="AU36" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="AU36" s="3">
         <v>3.3</v>
       </c>
-      <c r="AV36" s="2">
+      <c r="AV36" s="3">
         <v>2.5</v>
       </c>
-      <c r="AW36" s="2">
-        <v>8</v>
+      <c r="AW36" s="3">
+        <v>8.0</v>
       </c>
       <c r="AX36" s="1">
         <v>1.3</v>
       </c>
-      <c r="AY36" s="2">
+      <c r="AY36" s="3">
         <v>66.3</v>
       </c>
-      <c r="AZ36" s="2">
-        <v>19</v>
+      <c r="AZ36" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -5340,10 +5329,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>430</v>
-      </c>
-      <c r="K37" s="4">
-        <v>2203285</v>
+        <v>430.0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2203285.0</v>
       </c>
       <c r="L37" s="1">
         <v>24.5</v>
@@ -5367,23 +5356,23 @@
         <v>7.11</v>
       </c>
       <c r="S37" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="T37" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z37" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA37" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AB37" s="1">
         <v>57.3</v>
@@ -5391,7 +5380,7 @@
       <c r="AC37" s="1">
         <v>15.4</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37" s="3">
         <v>15.1</v>
       </c>
       <c r="AE37" s="1">
@@ -5405,22 +5394,22 @@
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AK37" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AL37" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AM37" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AN37" s="1">
-        <v>136.19999999999999</v>
+        <v>136.2</v>
       </c>
       <c r="AO37" s="1">
         <v>57.3</v>
@@ -5428,30 +5417,30 @@
       <c r="AP37" s="1">
         <v>15.4</v>
       </c>
-      <c r="AQ37" s="2">
+      <c r="AQ37" s="3">
         <v>15.1</v>
       </c>
-      <c r="AR37" s="2">
-        <v>18</v>
+      <c r="AR37" s="3">
+        <v>18.0</v>
       </c>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="2">
-        <v>6</v>
+      <c r="AW37" s="3">
+        <v>6.0</v>
       </c>
       <c r="AX37" s="1">
         <v>0.5</v>
       </c>
-      <c r="AY37" s="2">
+      <c r="AY37" s="3">
         <v>84.5</v>
       </c>
-      <c r="AZ37" s="2">
-        <v>19</v>
+      <c r="AZ37" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -5468,8 +5457,8 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="4">
-        <v>768751</v>
+      <c r="K38" s="6">
+        <v>768751.0</v>
       </c>
       <c r="L38" s="1">
         <v>29.6</v>
@@ -5481,7 +5470,7 @@
         <v>7.09</v>
       </c>
       <c r="O38" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="P38" s="1">
         <v>5.9</v>
@@ -5493,23 +5482,23 @@
         <v>6.89</v>
       </c>
       <c r="S38" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="T38" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="Z38" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA38" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AB38" s="1">
         <v>60.4</v>
@@ -5517,7 +5506,7 @@
       <c r="AC38" s="1">
         <v>21.2</v>
       </c>
-      <c r="AD38" s="3"/>
+      <c r="AD38" s="5"/>
       <c r="AE38" s="1">
         <v>6.4</v>
       </c>
@@ -5529,22 +5518,22 @@
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AK38" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AL38" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AM38" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AN38" s="1">
-        <v>150.30000000000001</v>
+        <v>150.3</v>
       </c>
       <c r="AO38" s="1">
         <v>60.4</v>
@@ -5554,26 +5543,26 @@
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="2">
-        <v>15</v>
+      <c r="AW38" s="3">
+        <v>15.0</v>
       </c>
       <c r="AX38" s="1">
         <v>0.1</v>
       </c>
       <c r="AY38" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -5581,7 +5570,7 @@
         <v>8.81</v>
       </c>
       <c r="C39" s="1">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5590,13 +5579,13 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <v>310</v>
-      </c>
-      <c r="K39" s="4">
-        <v>810399</v>
+        <v>310.0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>810399.0</v>
       </c>
       <c r="L39" s="1">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="M39" s="1">
         <v>5.34</v>
@@ -5605,7 +5594,7 @@
         <v>4.22</v>
       </c>
       <c r="O39" s="1">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="P39" s="1">
         <v>4.22</v>
@@ -5614,26 +5603,26 @@
         <v>3.79</v>
       </c>
       <c r="R39" s="1">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="S39" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="T39" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z39" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA39" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="AB39" s="1">
         <v>47.3</v>
@@ -5641,33 +5630,33 @@
       <c r="AC39" s="1">
         <v>10.1</v>
       </c>
-      <c r="AD39" s="2">
-        <v>39.299999999999997</v>
+      <c r="AD39" s="3">
+        <v>39.3</v>
       </c>
       <c r="AE39" s="1">
         <v>3.6</v>
       </c>
-      <c r="AF39" s="3"/>
+      <c r="AF39" s="5"/>
       <c r="AG39" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AH39" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AI39" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AK39" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AL39" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AM39" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AN39" s="1">
         <v>99.7</v>
@@ -5678,38 +5667,38 @@
       <c r="AP39" s="1">
         <v>10.1</v>
       </c>
-      <c r="AQ39" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AR39" s="2">
-        <v>7</v>
-      </c>
-      <c r="AS39" s="2">
-        <v>13</v>
-      </c>
-      <c r="AT39" s="2">
-        <v>95</v>
-      </c>
-      <c r="AU39" s="2">
+      <c r="AQ39" s="3">
+        <v>39.3</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="AT39" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="AU39" s="3">
         <v>2.4</v>
       </c>
-      <c r="AV39" s="2">
+      <c r="AV39" s="3">
         <v>0.8</v>
       </c>
-      <c r="AW39" s="2">
-        <v>7</v>
+      <c r="AW39" s="3">
+        <v>7.0</v>
       </c>
       <c r="AX39" s="1">
         <v>2.8</v>
       </c>
-      <c r="AY39" s="2">
+      <c r="AY39" s="3">
         <v>106.8</v>
       </c>
-      <c r="AZ39" s="2">
-        <v>17</v>
+      <c r="AZ39" s="3">
+        <v>17.0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -5726,10 +5715,10 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <v>460</v>
-      </c>
-      <c r="K40" s="4">
-        <v>2383721</v>
+        <v>460.0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>2383721.0</v>
       </c>
       <c r="L40" s="1">
         <v>17.5</v>
@@ -5753,23 +5742,23 @@
         <v>5.69</v>
       </c>
       <c r="S40" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="T40" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Z40" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AA40" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AB40" s="1">
         <v>53.3</v>
@@ -5777,35 +5766,35 @@
       <c r="AC40" s="1">
         <v>10.6</v>
       </c>
-      <c r="AD40" s="2">
-        <v>17.399999999999999</v>
+      <c r="AD40" s="3">
+        <v>17.4</v>
       </c>
       <c r="AE40" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AF40" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AG40" s="1">
         <v>5.7</v>
       </c>
       <c r="AH40" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AI40" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AK40" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AL40" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AM40" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AN40" s="1">
         <v>110.6</v>
@@ -5816,38 +5805,38 @@
       <c r="AP40" s="1">
         <v>10.6</v>
       </c>
-      <c r="AQ40" s="2">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>7</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>91</v>
-      </c>
-      <c r="AU40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV40" s="2">
+      <c r="AQ40" s="3">
+        <v>17.4</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="AU40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AV40" s="3">
         <v>4.8</v>
       </c>
-      <c r="AW40" s="2">
-        <v>6</v>
+      <c r="AW40" s="3">
+        <v>6.0</v>
       </c>
       <c r="AX40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AY40" s="3">
         <v>87.6</v>
       </c>
-      <c r="AZ40" s="2">
-        <v>14</v>
+      <c r="AZ40" s="3">
+        <v>14.0</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -5862,10 +5851,10 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <v>80</v>
-      </c>
-      <c r="K41" s="4">
-        <v>209072</v>
+        <v>80.0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>209072.0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -5887,85 +5876,85 @@
         <v>3.9</v>
       </c>
       <c r="S41" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="T41" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="Z41" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AA41" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AB41" s="1">
         <v>47.5</v>
       </c>
       <c r="AC41" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD41" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="AD41" s="3">
         <v>7.1</v>
       </c>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AK41" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AL41" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AM41" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AN41" s="1">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="AO41" s="1">
         <v>47.5</v>
       </c>
       <c r="AP41" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AQ41" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="AQ41" s="3">
         <v>7.1</v>
       </c>
-      <c r="AR41" s="2">
-        <v>16</v>
+      <c r="AR41" s="3">
+        <v>16.0</v>
       </c>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AX41" s="1">
         <v>3.7</v>
       </c>
-      <c r="AY41" s="2">
+      <c r="AY41" s="3">
         <v>117.8</v>
       </c>
-      <c r="AZ41" s="2">
-        <v>14</v>
+      <c r="AZ41" s="3">
+        <v>14.0</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -5973,7 +5962,7 @@
         <v>11.63</v>
       </c>
       <c r="C42" s="1">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5982,13 +5971,13 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <v>130</v>
-      </c>
-      <c r="K42" s="4">
-        <v>965704</v>
+        <v>130.0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>965704.0</v>
       </c>
       <c r="L42" s="1">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="M42" s="1">
         <v>6.52</v>
@@ -6009,31 +5998,31 @@
         <v>6.76</v>
       </c>
       <c r="S42" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="T42" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA42" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="AC42" s="1">
         <v>17.3</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42" s="3">
         <v>82.2</v>
       </c>
       <c r="AE42" s="1">
@@ -6047,53 +6036,53 @@
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AK42" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AL42" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AM42" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AN42" s="1">
-        <v>150.69999999999999</v>
+        <v>150.7</v>
       </c>
       <c r="AO42" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="AP42" s="1">
         <v>17.3</v>
       </c>
-      <c r="AQ42" s="2">
+      <c r="AQ42" s="3">
         <v>82.2</v>
       </c>
-      <c r="AR42" s="2">
-        <v>16</v>
+      <c r="AR42" s="3">
+        <v>16.0</v>
       </c>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="2">
-        <v>12</v>
+      <c r="AW42" s="3">
+        <v>12.0</v>
       </c>
       <c r="AX42" s="1">
         <v>0.5</v>
       </c>
-      <c r="AY42" s="2">
+      <c r="AY42" s="3">
         <v>72.3</v>
       </c>
-      <c r="AZ42" s="2">
-        <v>27</v>
+      <c r="AZ42" s="3">
+        <v>27.0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -6108,10 +6097,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <v>80</v>
-      </c>
-      <c r="K43" s="4">
-        <v>158874</v>
+        <v>80.0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>158874.0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -6133,81 +6122,81 @@
         <v>7.77</v>
       </c>
       <c r="S43" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="T43" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="Z43" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA43" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AB43" s="1">
         <v>66.5</v>
       </c>
       <c r="AC43" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AD43" s="3"/>
+        <v>17.4</v>
+      </c>
+      <c r="AD43" s="5"/>
       <c r="AE43" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
+        <v>4.1</v>
+      </c>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
       <c r="AH43" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="AI43" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="AK43" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AL43" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AM43" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AN43" s="1">
-        <v>155.80000000000001</v>
+        <v>155.8</v>
       </c>
       <c r="AO43" s="1">
         <v>66.5</v>
       </c>
       <c r="AP43" s="1">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AS43" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AT43" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="AU43" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AV43" s="1">
         <v>3.1</v>
       </c>
-      <c r="AW43" s="2">
-        <v>9</v>
+      <c r="AW43" s="3">
+        <v>9.0</v>
       </c>
       <c r="AX43" s="1">
         <v>1.2</v>
@@ -6216,10 +6205,10 @@
         <v>74.2</v>
       </c>
       <c r="AZ43" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -6236,10 +6225,10 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <v>380</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1312517</v>
+        <v>380.0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1312517.0</v>
       </c>
       <c r="L44" s="1">
         <v>41.1</v>
@@ -6263,33 +6252,33 @@
         <v>6.61</v>
       </c>
       <c r="S44" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="T44" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="Z44" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA44" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="AB44" s="1">
         <v>59.3</v>
       </c>
       <c r="AC44" s="1">
-        <v>21</v>
-      </c>
-      <c r="AD44" s="3"/>
+        <v>21.0</v>
+      </c>
+      <c r="AD44" s="5"/>
       <c r="AE44" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AF44" s="1">
         <v>10.3</v>
@@ -6298,22 +6287,22 @@
         <v>5.5</v>
       </c>
       <c r="AH44" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AI44" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AK44" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AL44" s="1">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AM44" s="1">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="AN44" s="1">
         <v>159.5</v>
@@ -6322,17 +6311,17 @@
         <v>59.3</v>
       </c>
       <c r="AP44" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AS44" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AT44" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="AU44" s="1">
         <v>3.6</v>
@@ -6340,20 +6329,20 @@
       <c r="AV44" s="1">
         <v>2.7</v>
       </c>
-      <c r="AW44" s="2">
-        <v>11</v>
+      <c r="AW44" s="3">
+        <v>11.0</v>
       </c>
       <c r="AX44" s="1">
         <v>0.1</v>
       </c>
       <c r="AY44" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AZ44" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -6361,10 +6350,10 @@
         <v>10.28</v>
       </c>
       <c r="C45" s="1">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="D45" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="E45" s="1">
         <v>17.2</v>
@@ -6373,15 +6362,15 @@
         <v>24.2</v>
       </c>
       <c r="G45" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <v>910</v>
-      </c>
-      <c r="K45" s="4">
-        <v>5885855</v>
+        <v>910.0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>5885855.0</v>
       </c>
       <c r="L45" s="1">
         <v>28.2</v>
@@ -6405,87 +6394,87 @@
         <v>5.72</v>
       </c>
       <c r="S45" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="T45" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="Z45" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA45" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AB45" s="1">
         <v>61.9</v>
       </c>
       <c r="AC45" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="AD45" s="3"/>
+        <v>20.4</v>
+      </c>
+      <c r="AD45" s="5"/>
       <c r="AE45" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AF45" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="AG45" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AK45" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AL45" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AM45" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AN45" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="AO45" s="1">
         <v>61.9</v>
       </c>
       <c r="AP45" s="1">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="2">
-        <v>21</v>
+      <c r="AW45" s="3">
+        <v>21.0</v>
       </c>
       <c r="AX45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY45" s="1">
         <v>63.4</v>
       </c>
       <c r="AZ45" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -6502,10 +6491,10 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <v>230</v>
-      </c>
-      <c r="K46" s="4">
-        <v>675124</v>
+        <v>230.0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>675124.0</v>
       </c>
       <c r="L46" s="1">
         <v>15.5</v>
@@ -6526,60 +6515,60 @@
         <v>4.58</v>
       </c>
       <c r="R46" s="1">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="S46" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="T46" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="Z46" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA46" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AB46" s="1">
         <v>61.3</v>
       </c>
       <c r="AC46" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD46" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AD46" s="3">
         <v>43.4</v>
       </c>
       <c r="AE46" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AF46" s="3"/>
+        <v>4.1</v>
+      </c>
+      <c r="AF46" s="5"/>
       <c r="AG46" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AH46" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AI46" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AK46" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AL46" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AM46" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="AN46" s="1">
         <v>84.3</v>
@@ -6588,40 +6577,40 @@
         <v>61.3</v>
       </c>
       <c r="AP46" s="1">
-        <v>9</v>
-      </c>
-      <c r="AQ46" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AQ46" s="3">
         <v>43.4</v>
       </c>
-      <c r="AR46" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS46" s="2">
-        <v>17</v>
-      </c>
-      <c r="AT46" s="2">
-        <v>90</v>
-      </c>
-      <c r="AU46" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AV46" s="2">
-        <v>6</v>
+      <c r="AR46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="AU46" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="AV46" s="3">
+        <v>6.0</v>
       </c>
       <c r="AW46" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AX46" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY46" s="2">
+      <c r="AY46" s="3">
         <v>62.9</v>
       </c>
-      <c r="AZ46" s="2">
-        <v>21</v>
+      <c r="AZ46" s="3">
+        <v>21.0</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -6636,44 +6625,44 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <v>40</v>
-      </c>
-      <c r="K47" s="4">
-        <v>113854</v>
+        <v>40.0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>113854.0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="N47" s="1">
         <v>6.44</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="S47" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="T47" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z47" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA47" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="AB47" s="1">
         <v>44.3</v>
@@ -6681,29 +6670,29 @@
       <c r="AC47" s="1">
         <v>5.8</v>
       </c>
-      <c r="AD47" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
+      <c r="AD47" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
       <c r="AH47" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AI47" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="AL47" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AM47" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AN47" s="1">
         <v>111.8</v>
@@ -6714,38 +6703,38 @@
       <c r="AP47" s="1">
         <v>5.8</v>
       </c>
-      <c r="AQ47" s="2">
-        <v>21</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>12</v>
-      </c>
-      <c r="AS47" s="2">
-        <v>9</v>
-      </c>
-      <c r="AT47" s="2">
-        <v>94</v>
-      </c>
-      <c r="AU47" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV47" s="2">
+      <c r="AQ47" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="AR47" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AS47" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="AT47" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="AU47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AV47" s="3">
         <v>0.8</v>
       </c>
       <c r="AW47" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AX47" s="1">
         <v>7.4</v>
       </c>
-      <c r="AY47" s="2">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="AZ47" s="2">
-        <v>11</v>
+      <c r="AY47" s="3">
+        <v>136.8</v>
+      </c>
+      <c r="AZ47" s="3">
+        <v>11.0</v>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -6762,13 +6751,13 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <v>390</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1681168</v>
+        <v>390.0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1681168.0</v>
       </c>
       <c r="L48" s="1">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="M48" s="1">
         <v>5.9</v>
@@ -6789,23 +6778,23 @@
         <v>6.21</v>
       </c>
       <c r="S48" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="T48" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z48" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA48" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AB48" s="1">
         <v>55.6</v>
@@ -6813,7 +6802,7 @@
       <c r="AC48" s="1">
         <v>11.2</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48" s="3">
         <v>85.2</v>
       </c>
       <c r="AE48" s="1">
@@ -6826,22 +6815,22 @@
         <v>6.1</v>
       </c>
       <c r="AH48" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI48" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AK48" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AL48" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AM48" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AN48" s="1">
         <v>104.8</v>
@@ -6852,38 +6841,38 @@
       <c r="AP48" s="1">
         <v>11.2</v>
       </c>
-      <c r="AQ48" s="2">
+      <c r="AQ48" s="3">
         <v>85.2</v>
       </c>
-      <c r="AR48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS48" s="2">
-        <v>11</v>
-      </c>
-      <c r="AT48" s="2">
-        <v>92</v>
-      </c>
-      <c r="AU48" s="2">
+      <c r="AR48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="AU48" s="3">
         <v>1.8</v>
       </c>
-      <c r="AV48" s="2">
+      <c r="AV48" s="3">
         <v>4.7</v>
       </c>
       <c r="AW48" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AX48" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY48" s="2">
+      <c r="AY48" s="3">
         <v>81.3</v>
       </c>
-      <c r="AZ48" s="2">
-        <v>21</v>
+      <c r="AZ48" s="3">
+        <v>21.0</v>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -6891,7 +6880,7 @@
         <v>8.09</v>
       </c>
       <c r="C49" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6900,19 +6889,19 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>490</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1464754</v>
+        <v>490.0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1464754.0</v>
       </c>
       <c r="L49" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="M49" s="1">
         <v>3.88</v>
       </c>
       <c r="N49" s="1">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="O49" s="1">
         <v>4.26</v>
@@ -6921,29 +6910,29 @@
         <v>4.51</v>
       </c>
       <c r="Q49" s="1">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="R49" s="1">
         <v>4.34</v>
       </c>
       <c r="S49" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="T49" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="Z49" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AA49" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="AB49" s="1">
         <v>53.3</v>
@@ -6951,11 +6940,11 @@
       <c r="AC49" s="1">
         <v>9.6</v>
       </c>
-      <c r="AD49" s="2">
-        <v>34.700000000000003</v>
+      <c r="AD49" s="3">
+        <v>34.7</v>
       </c>
       <c r="AE49" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AF49" s="1">
         <v>6.2</v>
@@ -6964,22 +6953,22 @@
         <v>3.4</v>
       </c>
       <c r="AH49" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AI49" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AK49" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AL49" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AM49" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AN49" s="1">
         <v>91.4</v>
@@ -6990,38 +6979,38 @@
       <c r="AP49" s="1">
         <v>9.6</v>
       </c>
-      <c r="AQ49" s="2">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="AR49" s="2">
-        <v>15</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT49" s="2">
-        <v>92</v>
-      </c>
-      <c r="AU49" s="2">
+      <c r="AQ49" s="3">
+        <v>34.7</v>
+      </c>
+      <c r="AR49" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="AS49" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT49" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="AU49" s="3">
         <v>2.6</v>
       </c>
-      <c r="AV49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="2">
-        <v>7</v>
+      <c r="AV49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>7.0</v>
       </c>
       <c r="AX49" s="1">
         <v>2.6</v>
       </c>
-      <c r="AY49" s="2">
+      <c r="AY49" s="3">
         <v>74.7</v>
       </c>
-      <c r="AZ49" s="2">
-        <v>19</v>
+      <c r="AZ49" s="3">
+        <v>19.0</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -7036,10 +7025,10 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>30</v>
-      </c>
-      <c r="K50" s="4">
-        <v>322254</v>
+        <v>30.0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>322254.0</v>
       </c>
       <c r="L50" s="1">
         <v>23.9</v>
@@ -7063,72 +7052,72 @@
         <v>7.32</v>
       </c>
       <c r="S50" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="T50" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="Z50" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA50" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="AC50" s="1">
         <v>19.8</v>
       </c>
-      <c r="AD50" s="3"/>
+      <c r="AD50" s="5"/>
       <c r="AE50" s="1">
-        <v>7</v>
-      </c>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
+        <v>7.0</v>
+      </c>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
       <c r="AH50" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AI50" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AK50" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="AL50" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AM50" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AN50" s="1">
         <v>203.6</v>
       </c>
       <c r="AO50" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="AP50" s="1">
         <v>19.8</v>
       </c>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AS50" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AT50" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="AU50" s="1">
         <v>3.3</v>
@@ -7136,8 +7125,8 @@
       <c r="AV50" s="1">
         <v>0.7</v>
       </c>
-      <c r="AW50" s="2">
-        <v>7</v>
+      <c r="AW50" s="3">
+        <v>7.0</v>
       </c>
       <c r="AX50" s="1">
         <v>0.3</v>
@@ -7146,10 +7135,10 @@
         <v>78.3</v>
       </c>
       <c r="AZ50" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -7166,10 +7155,10 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>480</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1083819</v>
+        <v>480.0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1083819.0</v>
       </c>
       <c r="L51" s="1">
         <v>13.2</v>
@@ -7193,32 +7182,32 @@
         <v>5.8</v>
       </c>
       <c r="S51" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="T51" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="Z51" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA51" s="1">
-        <v>334</v>
+        <v>334.0</v>
       </c>
       <c r="AB51" s="1">
         <v>54.2</v>
       </c>
       <c r="AC51" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>82</v>
+        <v>9.8</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>82.0</v>
       </c>
       <c r="AE51" s="1">
         <v>4.2</v>
@@ -7230,64 +7219,64 @@
         <v>5.2</v>
       </c>
       <c r="AH51" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="AI51" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AK51" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AL51" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AM51" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AN51" s="1">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="AO51" s="1">
         <v>54.2</v>
       </c>
       <c r="AP51" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AQ51" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR51" s="2">
-        <v>16</v>
-      </c>
-      <c r="AS51" s="2">
-        <v>12</v>
-      </c>
-      <c r="AT51" s="2">
-        <v>93</v>
-      </c>
-      <c r="AU51" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="AS51" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="AU51" s="3">
         <v>3.1</v>
       </c>
-      <c r="AV51" s="2">
+      <c r="AV51" s="3">
         <v>1.6</v>
       </c>
-      <c r="AW51" s="2">
-        <v>6</v>
+      <c r="AW51" s="3">
+        <v>6.0</v>
       </c>
       <c r="AX51" s="1">
         <v>0.4</v>
       </c>
-      <c r="AY51" s="2">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AZ51" s="2">
-        <v>16</v>
+      <c r="AY51" s="3">
+        <v>76.9</v>
+      </c>
+      <c r="AZ51" s="3">
+        <v>16.0</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -7302,14 +7291,14 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <v>40</v>
-      </c>
-      <c r="K52" s="4">
-        <v>107740</v>
+        <v>40.0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>107740.0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="N52" s="1">
         <v>5.33</v>
@@ -7327,57 +7316,57 @@
         <v>5.62</v>
       </c>
       <c r="S52" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="T52" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="Z52" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA52" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AB52" s="1">
         <v>55.4</v>
       </c>
       <c r="AC52" s="1">
-        <v>16</v>
-      </c>
-      <c r="AD52" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AD52" s="3">
         <v>323.5</v>
       </c>
       <c r="AE52" s="1">
         <v>5.3</v>
       </c>
       <c r="AF52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="3"/>
+        <v>0.0</v>
+      </c>
+      <c r="AG52" s="5"/>
       <c r="AH52" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AI52" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AK52" s="1">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AL52" s="1">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="AM52" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AN52" s="1">
         <v>103.9</v>
@@ -7386,50 +7375,50 @@
         <v>55.4</v>
       </c>
       <c r="AP52" s="1">
-        <v>16</v>
-      </c>
-      <c r="AQ52" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AQ52" s="3">
         <v>323.5</v>
       </c>
-      <c r="AR52" s="2">
-        <v>12</v>
-      </c>
-      <c r="AS52" s="2">
-        <v>17</v>
-      </c>
-      <c r="AT52" s="2">
-        <v>91</v>
-      </c>
-      <c r="AU52" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AV52" s="2">
+      <c r="AR52" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="AS52" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="AT52" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="AU52" s="3">
+        <v>4.4</v>
+      </c>
+      <c r="AV52" s="3">
         <v>5.6</v>
       </c>
-      <c r="AW52" s="2">
-        <v>14</v>
+      <c r="AW52" s="3">
+        <v>14.0</v>
       </c>
       <c r="AX52" s="1">
         <v>4.7</v>
       </c>
-      <c r="AY52" s="2">
-        <v>74</v>
-      </c>
-      <c r="AZ52" s="2">
-        <v>30</v>
+      <c r="AY52" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="AZ52" s="3">
+        <v>30.0</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="E53" s="1">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F53" s="1">
         <v>23.8</v>
@@ -7441,11 +7430,11 @@
         <v>22.3</v>
       </c>
       <c r="I53" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="4">
-        <v>63958243</v>
+      <c r="K53" s="6">
+        <v>6.3958243E7</v>
       </c>
       <c r="L53" s="1">
         <v>23.2</v>
@@ -7459,7 +7448,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1">
-        <v>12.000999999999999</v>
+        <v>12.001</v>
       </c>
       <c r="V53" s="1">
         <v>12.012</v>
@@ -7471,23 +7460,23 @@
         <v>12.009</v>
       </c>
       <c r="Y53" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="Z53" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="AA53" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="AB53" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AC53" s="1">
         <v>13.6</v>
       </c>
-      <c r="AD53" s="3"/>
+      <c r="AD53" s="5"/>
       <c r="AE53" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AF53" s="1">
         <v>10.6</v>
@@ -7496,7 +7485,7 @@
         <v>4.8</v>
       </c>
       <c r="AH53" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -7508,13 +7497,13 @@
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AS53" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AT53" s="1">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="AU53" s="1">
         <v>3.1</v>
@@ -7523,19 +7512,19 @@
         <v>2.6</v>
       </c>
       <c r="AW53" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AX53" s="1">
         <v>1.5</v>
       </c>
       <c r="AY53" s="1">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="AZ53" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/raw_data/HealthData.xlsx
+++ b/data/raw_data/HealthData.xlsx
@@ -133,7 +133,7 @@
     <t>percent_increase_in_clinician_provided_abortions_since_2020</t>
   </si>
   <si>
-    <t>percent_women_ages_18-64_who_report_fair_or_poor_health_2022</t>
+    <t>percent_women_ages_18_64_who_report_fair_or_poor_health_2022</t>
   </si>
   <si>
     <t>percent_women_with_postpartum_depression_2021</t>

--- a/data/raw_data/HealthData.xlsx
+++ b/data/raw_data/HealthData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>State</t>
   </si>
@@ -46,7 +46,10 @@
     <t>total_sumber_of_women_aged_15_44_2017</t>
   </si>
   <si>
-    <t>maternal_mortality_rates_2018_2022_per_100,000_live births</t>
+    <t>maternal_mortality_rates_2020_2022_per_100,000_live births</t>
+  </si>
+  <si>
+    <t>infant_mortality_2021</t>
   </si>
   <si>
     <t>infant_mortality_2017</t>
@@ -61,7 +64,7 @@
     <t>infant_mortality_2020</t>
   </si>
   <si>
-    <t>infant_mortality_2021</t>
+    <t>infant_mortality_2021_old</t>
   </si>
   <si>
     <t>infant_mortality_2022</t>
@@ -320,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -331,13 +334,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -352,11 +366,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -365,10 +391,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -618,7 +647,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -627,31 +656,31 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -663,67 +692,67 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AT1" s="2" t="s">
@@ -741,16 +770,19 @@
       <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>12.02</v>
@@ -770,121 +802,124 @@
       <c r="K2" s="1">
         <v>949949.0</v>
       </c>
-      <c r="L2" s="1">
-        <v>38.6</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="6">
+        <v>40.3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="N2" s="1">
         <v>7.38</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>6.94</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>7.71</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>6.99</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>7.56</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>6.69</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>23.0</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>45.0</v>
       </c>
-      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1">
         <v>74.0</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>45.0</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>58.7</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>20.9</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="1">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="1">
         <v>6.1</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>11.1</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>5.1</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>26.0</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>23.0</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>45.0</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>42.0</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>37.0</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AN2" s="1">
         <v>47.0</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
         <v>149.4</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AP2" s="1">
         <v>58.7</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>20.9</v>
       </c>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1">
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1">
         <v>20.0</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <v>19.0</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>84.0</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AV2" s="1">
         <v>4.2</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AW2" s="1">
         <v>2.8</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AX2" s="1">
         <v>12.0</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AY2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AZ2" s="1">
         <v>56.0</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BA2" s="1">
         <v>24.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -899,114 +934,117 @@
       <c r="J3" s="1">
         <v>70.0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="11">
         <v>146072.0</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
+      <c r="M3" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="N3" s="1">
         <v>5.74</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>6.25</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>4.99</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>5.07</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>7.37</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>6.62</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>16.0</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>33.0</v>
       </c>
-      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1">
         <v>74.0</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>38.0</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>64.9</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>16.9</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="7">
         <v>33.0</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>5.1</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1">
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1">
         <v>16.0</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <v>33.0</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>22.0</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>41.0</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN3" s="1">
         <v>34.0</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="1">
         <v>178.9</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="1">
         <v>64.9</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="1">
         <v>16.9</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AR3" s="7">
         <v>33.0</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AS3" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AW3" s="3">
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="7">
         <v>12.0</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AY3" s="1">
         <v>3.6</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AZ3" s="7">
         <v>122.3</v>
       </c>
-      <c r="AZ3" s="3">
+      <c r="BA3" s="7">
         <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>10.15</v>
@@ -1023,118 +1061,121 @@
       <c r="J4" s="1">
         <v>310.0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="11">
         <v>1345764.0</v>
       </c>
-      <c r="L4" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="6">
+        <v>34.3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="N4" s="1">
         <v>5.7</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>5.71</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>5.43</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>5.19</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>5.47</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>6.17</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>19.0</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>44.0</v>
       </c>
-      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>12.0</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>46.0</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>54.9</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>15.1</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="7">
         <v>4.6</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>4.5</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>11.4</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>5.5</v>
       </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1">
         <v>19.0</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>44.0</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>46.0</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>42.0</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AN4" s="1">
         <v>40.0</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="1">
         <v>123.5</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="1">
         <v>54.9</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>15.1</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AR4" s="7">
         <v>4.6</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AS4" s="7">
         <v>20.0</v>
       </c>
-      <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="3">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="7">
         <v>13.0</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AY4" s="1">
         <v>0.6</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AZ4" s="7">
         <v>69.8</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="BA4" s="7">
         <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>12.44</v>
@@ -1149,124 +1190,127 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="6">
+      <c r="K5" s="11">
         <v>577447.0</v>
       </c>
-      <c r="L5" s="1">
-        <v>38.3</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="L5" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N5" s="1">
         <v>8.1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>7.51</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>7.0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>7.38</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>8.59</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>7.67</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>19.0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>47.0</v>
       </c>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
         <v>76.0</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>8.0</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>39.0</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>60.2</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>24.6</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="1">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="1">
         <v>7.4</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>15.0</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>5.2</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>32.0</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>19.0</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>47.0</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>35.0</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>48.0</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>50.0</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AO5" s="1">
         <v>155.0</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP5" s="1">
         <v>60.2</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>24.6</v>
       </c>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1">
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1">
         <v>22.0</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>20.0</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>83.0</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV5" s="1">
         <v>3.9</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AW5" s="1">
         <v>1.4</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AX5" s="1">
         <v>10.0</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AY5" s="1">
         <v>0.3</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AZ5" s="1">
         <v>52.1</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BA5" s="1">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>8.25</v>
@@ -1283,118 +1327,121 @@
       <c r="J6" s="1">
         <v>3120.0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="11">
         <v>8104632.0</v>
       </c>
-      <c r="L6" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.1</v>
+      </c>
+      <c r="N6" s="1">
         <v>4.2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>4.21</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>4.23</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>3.92</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>4.07</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>4.11</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>14.0</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>23.0</v>
       </c>
-      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1">
         <v>66.0</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>18.0</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>40.0</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>52.8</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>9.8</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="7">
         <v>16.3</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>3.1</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>7.5</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>4.3</v>
       </c>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1">
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1">
         <v>14.0</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>23.0</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>28.0</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>32.0</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <v>11.0</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>79.1</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AP6" s="1">
         <v>52.8</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>9.8</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AR6" s="7">
         <v>16.3</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AS6" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="3">
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>2.4</v>
       </c>
-      <c r="AY6" s="3">
+      <c r="AZ6" s="7">
         <v>74.5</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="BA6" s="7">
         <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>9.92</v>
@@ -1411,128 +1458,131 @@
       <c r="J7" s="1">
         <v>550.0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="11">
         <v>1137745.0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.85</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="T7" s="1">
         <v>16.0</v>
       </c>
-      <c r="M7" s="1">
-        <v>4.49</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4.85</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4.54</v>
-      </c>
-      <c r="S7" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>17.0</v>
       </c>
-      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
         <v>72.0</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>12.0</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>36.0</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>51.5</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>11.1</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="7">
         <v>96.1</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>3.9</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>10.4</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>5.5</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>20.0</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>16.0</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>17.0</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>26.0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>15.0</v>
       </c>
       <c r="AM7" s="1">
         <v>15.0</v>
       </c>
       <c r="AN7" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AO7" s="1">
         <v>103.1</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AP7" s="1">
         <v>51.5</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>11.1</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AR7" s="7">
         <v>96.1</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AS7" s="7">
         <v>12.0</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AT7" s="7">
         <v>11.0</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AU7" s="7">
         <v>93.0</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AV7" s="7">
         <v>3.8</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AW7" s="7">
         <v>2.4</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AX7" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>2.7</v>
       </c>
-      <c r="AY7" s="3">
+      <c r="AZ7" s="7">
         <v>93.9</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="BA7" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>7.47</v>
@@ -1549,118 +1599,121 @@
       <c r="J8" s="1">
         <v>250.0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="11">
         <v>672949.0</v>
       </c>
-      <c r="L8" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L8" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="N8" s="1">
         <v>4.51</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>4.2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>4.38</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>4.33</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>4.65</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>4.25</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>14.0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>4.0</v>
       </c>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1">
         <v>64.0</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>22.0</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>38.0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>50.7</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>6.4</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="7">
         <v>32.6</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>3.3</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>9.9</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>5.8</v>
       </c>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1">
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1">
         <v>14.0</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>4.0</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>9.0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>3.0</v>
       </c>
       <c r="AM8" s="1">
         <v>3.0</v>
       </c>
       <c r="AN8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AO8" s="1">
         <v>93.6</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AP8" s="1">
         <v>50.7</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>6.4</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AR8" s="7">
         <v>32.6</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AS8" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
-      <c r="AW8" s="3">
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="7">
         <v>6.0</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>3.9</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AZ8" s="7">
         <v>127.8</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="BA8" s="7">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>12.72</v>
@@ -1677,122 +1730,125 @@
       <c r="J9" s="1">
         <v>100.0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="11">
         <v>180343.0</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="N9" s="1">
         <v>6.26</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>5.93</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>6.44</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>5.1</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>4.77</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>7.49</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>14.0</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>24.0</v>
       </c>
-      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
         <v>68.0</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>17.0</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>42.0</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>57.3</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>14.7</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="7">
         <v>92.2</v>
       </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="1">
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="1">
         <v>9.2</v>
       </c>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="1">
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>14.0</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>24.0</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>15.0</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>23.0</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>31.0</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>130.8</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
         <v>57.3</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <v>14.7</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AR9" s="7">
         <v>92.2</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AS9" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AT9" s="7">
         <v>10.0</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AU9" s="7">
         <v>90.0</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AV9" s="7">
         <v>5.2</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AW9" s="7">
         <v>2.1</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AX9" s="7">
         <v>7.0</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>4.8</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="AZ9" s="7">
         <v>86.7</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="BA9" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>8.28</v>
@@ -1807,112 +1863,115 @@
       <c r="J10" s="1">
         <v>30.0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="11">
         <v>186464.0</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="6">
+        <v>6.8</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
         <v>5.54</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>12.0</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>7.0</v>
       </c>
-      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1">
         <v>61.0</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>25.0</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>45.0</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>44.9</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>12.5</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="7">
         <v>2.7</v>
       </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="1">
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="1">
         <v>11.7</v>
       </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1">
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AJ10" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <v>7.0</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>2.0</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>8.0</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <v>26.0</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <v>94.1</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AP10" s="1">
         <v>44.9</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <v>12.5</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AR10" s="7">
         <v>2.7</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AS10" s="7">
         <v>1.0</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AT10" s="7">
         <v>15.0</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AU10" s="7">
         <v>92.0</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="AV10" s="7">
         <v>4.2</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="AW10" s="7">
         <v>0.6</v>
       </c>
-      <c r="AW10" s="3">
+      <c r="AX10" s="7">
         <v>3.0</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AY10" s="1">
         <v>5.6</v>
       </c>
-      <c r="AY10" s="3">
+      <c r="AZ10" s="7">
         <v>159.7</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="BA10" s="7">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
         <v>10.65</v>
@@ -1929,118 +1988,121 @@
       <c r="J11" s="1">
         <v>1470.0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="11">
         <v>3828199.0</v>
       </c>
-      <c r="L11" s="1">
-        <v>24.1</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="L11" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="N11" s="1">
         <v>6.1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>6.04</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>6.1</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>5.8</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>5.9</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>5.98</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>22.0</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>39.0</v>
       </c>
-      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1">
         <v>65.0</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>20.0</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>44.0</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>55.6</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>13.1</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="7">
         <v>10.6</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>4.4</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <v>10.9</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <v>4.4</v>
       </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1">
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
         <v>22.0</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <v>39.0</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>48.0</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>37.0</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AN11" s="1">
         <v>25.0</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AO11" s="1">
         <v>114.0</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AP11" s="1">
         <v>55.6</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <v>13.1</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AR11" s="7">
         <v>10.6</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AS11" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="3">
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="7">
         <v>14.0</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AY11" s="1">
         <v>1.4</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AZ11" s="7">
         <v>78.2</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="BA11" s="7">
         <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>10.53</v>
@@ -2057,128 +2119,131 @@
       <c r="J12" s="1">
         <v>980.0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="11">
         <v>2147399.0</v>
       </c>
-      <c r="L12" s="1">
-        <v>32.1</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="N12" s="1">
         <v>7.18</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>7.05</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>7.02</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>6.28</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>6.25</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>7.08</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>23.0</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>46.0</v>
       </c>
-      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
         <v>68.0</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>17.0</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>46.0</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>56.0</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>16.6</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="7">
         <v>24.3</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>4.8</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>9.0</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>5.0</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>21.0</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1">
         <v>23.0</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>46.0</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>50.0</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>40.0</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
         <v>33.0</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AO12" s="1">
         <v>124.4</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AP12" s="1">
         <v>56.0</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <v>16.6</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AR12" s="7">
         <v>24.3</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AS12" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="AT12" s="7">
         <v>11.0</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AU12" s="7">
         <v>87.0</v>
       </c>
-      <c r="AU12" s="3">
+      <c r="AV12" s="7">
         <v>4.0</v>
       </c>
-      <c r="AV12" s="3">
+      <c r="AW12" s="7">
         <v>9.7</v>
       </c>
-      <c r="AW12" s="3">
+      <c r="AX12" s="7">
         <v>15.0</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AY12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY12" s="3">
+      <c r="AZ12" s="7">
         <v>82.5</v>
       </c>
-      <c r="AZ12" s="3">
+      <c r="BA12" s="7">
         <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2191,120 +2256,123 @@
       <c r="J13" s="1">
         <v>220.0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="11">
         <v>265924.0</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="N13" s="1">
         <v>5.42</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>6.78</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>5.12</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>4.88</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>4.67</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>5.79</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>7.0</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>9.0</v>
       </c>
-      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
         <v>71.0</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>13.0</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>33.0</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>59.3</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>11.7</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="7">
         <v>27.3</v>
       </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="1">
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="1">
         <v>13.0</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>7.0</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>9.0</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>5.0</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>39.0</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
         <v>5.0</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AO13" s="1">
         <v>70.5</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AP13" s="1">
         <v>59.3</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <v>11.7</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AR13" s="7">
         <v>27.3</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AS13" s="7">
         <v>12.0</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AT13" s="7">
         <v>14.0</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AU13" s="7">
         <v>91.0</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AV13" s="7">
         <v>2.0</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AW13" s="7">
         <v>0.4</v>
       </c>
-      <c r="AW13" s="3">
+      <c r="AX13" s="7">
         <v>4.0</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AY13" s="1">
         <v>3.2</v>
       </c>
-      <c r="AY13" s="3">
+      <c r="AZ13" s="7">
         <v>113.6</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="BA13" s="7">
         <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
         <v>5.07</v>
@@ -2317,112 +2385,115 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="6">
+      <c r="K14" s="11">
         <v>328941.0</v>
       </c>
-      <c r="L14" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="N14" s="1">
         <v>4.55</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>5.05</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>4.31</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>5.06</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>5.13</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>5.27</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>18.0</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>27.0</v>
       </c>
-      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1">
         <v>78.0</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>6.0</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>32.0</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>58.4</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>10.9</v>
       </c>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="1">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="1">
         <v>4.4</v>
       </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="1">
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="1">
         <v>6.7</v>
       </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1">
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1">
         <v>18.0</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>27.0</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>38.0</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>36.0</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <v>14.0</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AO14" s="1">
         <v>92.0</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AP14" s="1">
         <v>58.4</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AQ14" s="1">
         <v>10.9</v>
       </c>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1">
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1">
         <v>15.0</v>
       </c>
-      <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="1">
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1">
         <v>10.0</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AY14" s="1">
         <v>0.5</v>
       </c>
-      <c r="AY14" s="1">
+      <c r="AZ14" s="1">
         <v>56.1</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="BA14" s="1">
         <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1">
         <v>12.39</v>
@@ -2439,128 +2510,131 @@
       <c r="J15" s="1">
         <v>690.0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="11">
         <v>2532027.0</v>
       </c>
-      <c r="L15" s="1">
-        <v>18.1</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="L15" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="N15" s="1">
         <v>6.12</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>6.55</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>5.67</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>5.5</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>5.62</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>5.59</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>16.0</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>22.0</v>
       </c>
-      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
         <v>68.0</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>17.0</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>39.0</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>51.8</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>11.3</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="7">
         <v>71.6</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>3.9</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>12.3</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>5.8</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>19.0</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>16.0</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <v>22.0</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <v>23.0</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>29.0</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <v>16.0</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <v>99.0</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AP15" s="1">
         <v>51.8</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <v>11.3</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AR15" s="7">
         <v>71.6</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AS15" s="7">
         <v>16.0</v>
       </c>
-      <c r="AS15" s="3">
+      <c r="AT15" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AU15" s="7">
         <v>93.0</v>
       </c>
-      <c r="AU15" s="3">
+      <c r="AV15" s="7">
         <v>3.0</v>
       </c>
-      <c r="AV15" s="3">
+      <c r="AW15" s="7">
         <v>1.4</v>
       </c>
-      <c r="AW15" s="3">
+      <c r="AX15" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AY15" s="1">
         <v>2.0</v>
       </c>
-      <c r="AY15" s="3">
+      <c r="AZ15" s="7">
         <v>89.0</v>
       </c>
-      <c r="AZ15" s="3">
+      <c r="BA15" s="7">
         <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
         <v>13.0</v>
@@ -2577,114 +2651,117 @@
       <c r="J16" s="1">
         <v>470.0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="11">
         <v>1295622.0</v>
       </c>
-      <c r="L16" s="1">
-        <v>30.9</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L16" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="N16" s="1">
         <v>7.22</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>6.72</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>6.54</v>
-      </c>
-      <c r="P16" s="1">
-        <v>6.75</v>
       </c>
       <c r="Q16" s="1">
         <v>6.75</v>
       </c>
       <c r="R16" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="S16" s="1">
         <v>7.16</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>14.0</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>29.0</v>
       </c>
-      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1">
         <v>75.0</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>9.0</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>41.0</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>59.7</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>16.7</v>
       </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="1">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="1">
         <v>5.9</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>10.8</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>7.6</v>
       </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1">
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1">
         <v>14.0</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AK16" s="1">
         <v>29.0</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>31.0</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>24.0</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AN16" s="1">
         <v>36.0</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AO16" s="1">
         <v>136.7</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AP16" s="1">
         <v>59.7</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AQ16" s="1">
         <v>16.7</v>
       </c>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1">
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1">
         <v>18.0</v>
       </c>
-      <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
-      <c r="AW16" s="1">
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1">
         <v>8.0</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AY16" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="AZ16" s="1">
         <v>68.5</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BA16" s="1">
         <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>10.37</v>
@@ -2701,116 +2778,119 @@
       <c r="J17" s="1">
         <v>120.0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="11">
         <v>592278.0</v>
       </c>
-      <c r="L17" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="L17" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="N17" s="1">
         <v>5.31</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>4.98</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>5.02</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>4.43</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>3.99</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>5.2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>12.0</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>14.0</v>
       </c>
-      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>39.0</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>59.9</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>12.4</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="7">
         <v>16.2</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>3.1</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>13.6</v>
       </c>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1">
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AK17" s="1">
         <v>14.0</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>19.0</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>10.0</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AN17" s="1">
         <v>12.0</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AO17" s="1">
         <v>85.4</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AP17" s="1">
         <v>59.9</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AQ17" s="1">
         <v>12.4</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AR17" s="7">
         <v>16.2</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AS17" s="7">
         <v>7.0</v>
       </c>
-      <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
-      <c r="AW17" s="3">
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="7">
         <v>5.0</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AY17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="AZ17" s="7">
         <v>63.5</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="BA17" s="7">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>9.3</v>
@@ -2825,128 +2905,131 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6">
+      <c r="K18" s="11">
         <v>558606.0</v>
       </c>
-      <c r="L18" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="L18" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="N18" s="1">
         <v>6.02</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>6.37</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>5.42</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>6.6</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>5.3</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>5.81</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>18.0</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>32.0</v>
       </c>
-      <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>31.0</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>60.3</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>16.2</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="7">
         <v>135.6</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <v>5.1</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <v>10.8</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>4.9</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>27.0</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>18.0</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <v>32.0</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>36.0</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>26.0</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AN18" s="1">
         <v>30.0</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AO18" s="1">
         <v>121.7</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AP18" s="1">
         <v>60.3</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AQ18" s="1">
         <v>16.2</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AR18" s="7">
         <v>135.6</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AS18" s="7">
         <v>16.0</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AT18" s="7">
         <v>15.0</v>
       </c>
-      <c r="AT18" s="3">
+      <c r="AU18" s="7">
         <v>88.0</v>
       </c>
-      <c r="AU18" s="3">
+      <c r="AV18" s="7">
         <v>4.6</v>
       </c>
-      <c r="AV18" s="3">
+      <c r="AW18" s="7">
         <v>2.2</v>
       </c>
-      <c r="AW18" s="3">
+      <c r="AX18" s="7">
         <v>12.0</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AY18" s="1">
         <v>1.8</v>
       </c>
-      <c r="AY18" s="3">
+      <c r="AZ18" s="7">
         <v>67.6</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="BA18" s="7">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>8.47</v>
@@ -2963,114 +3046,117 @@
       <c r="J19" s="1">
         <v>320.0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="11">
         <v>848472.0</v>
       </c>
-      <c r="L19" s="1">
-        <v>34.6</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="L19" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="N19" s="1">
         <v>6.59</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>6.05</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>4.9</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>6.43</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>6.15</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>5.77</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>12.0</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>36.0</v>
       </c>
-      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1">
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>45.0</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>61.1</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>21.8</v>
       </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="1">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="1">
         <v>5.6</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <v>10.3</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>5.4</v>
       </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1">
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AK19" s="1">
         <v>36.0</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>20.0</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>43.0</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AN19" s="1">
         <v>40.0</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AO19" s="1">
         <v>176.3</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AP19" s="1">
         <v>61.1</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AQ19" s="1">
         <v>21.8</v>
       </c>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1">
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1">
         <v>18.0</v>
       </c>
-      <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
-      <c r="AW19" s="1">
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1">
         <v>6.0</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AY19" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY19" s="1">
+      <c r="AZ19" s="1">
         <v>69.4</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BA19" s="1">
         <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
         <v>10.97</v>
@@ -3087,124 +3173,127 @@
       <c r="J20" s="1">
         <v>60.0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="11">
         <v>936106.0</v>
       </c>
-      <c r="L20" s="1">
-        <v>37.3</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="L20" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="M20" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="N20" s="1">
         <v>7.06</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>7.65</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>7.97</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>7.59</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>7.24</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>7.37</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>16.0</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>37.0</v>
       </c>
-      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>11.0</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>61.0</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>61.8</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>23.7</v>
       </c>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="1">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="1">
         <v>5.2</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>10.9</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>4.6</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AJ20" s="1">
         <v>16.0</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AK20" s="1">
         <v>37.0</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>18.0</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>33.0</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AN20" s="1">
         <v>46.0</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AO20" s="1">
         <v>168.4</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AP20" s="1">
         <v>61.8</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AQ20" s="1">
         <v>23.7</v>
       </c>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1">
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1">
         <v>21.0</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AT20" s="1">
         <v>12.0</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AU20" s="1">
         <v>76.0</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AV20" s="1">
         <v>2.4</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AW20" s="1">
         <v>0.8</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="AX20" s="1">
         <v>8.0</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AY20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="AZ20" s="1">
         <v>85.0</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BA20" s="1">
         <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -3219,122 +3308,125 @@
       <c r="J21" s="1">
         <v>100.0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="11">
         <v>231535.0</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="N21" s="1">
         <v>5.85</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>5.52</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>5.43</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>6.33</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>5.0</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>6.37</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>12.0</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>6.0</v>
       </c>
-      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
         <v>72.0</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>12.0</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>37.0</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>49.7</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>8.4</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="7">
         <v>1.9</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>4.7</v>
       </c>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="1">
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="1">
         <v>28.0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <v>6.0</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>3.0</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>5.0</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <v>20.0</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <v>126.2</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AP21" s="1">
         <v>49.7</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AQ21" s="1">
         <v>8.4</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AR21" s="7">
         <v>1.9</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AS21" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AT21" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AU21" s="7">
         <v>93.0</v>
       </c>
-      <c r="AU21" s="3">
+      <c r="AV21" s="7">
         <v>2.8</v>
       </c>
-      <c r="AV21" s="3">
+      <c r="AW21" s="7">
         <v>1.7</v>
       </c>
-      <c r="AW21" s="3">
+      <c r="AX21" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AY21" s="1">
         <v>12.9</v>
       </c>
-      <c r="AY21" s="3">
+      <c r="AZ21" s="7">
         <v>110.5</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="BA21" s="7">
         <v>8.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1">
         <v>9.72</v>
@@ -3351,118 +3443,121 @@
       <c r="J22" s="1">
         <v>210.0</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="11">
         <v>1193286.0</v>
       </c>
-      <c r="L22" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="L22" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="M22" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="N22" s="1">
         <v>6.43</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>6.02</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>5.84</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>5.73</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>5.99</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>6.03</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>13.0</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>12.0</v>
       </c>
-      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1">
         <v>62.0</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>23.0</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>40.0</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>56.9</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>10.9</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="7">
         <v>26.7</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AF22" s="1">
         <v>4.5</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <v>9.2</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <v>4.9</v>
       </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1">
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
         <v>13.0</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <v>12.0</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>13.0</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>9.0</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AN22" s="1">
         <v>24.0</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AO22" s="1">
         <v>103.1</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AP22" s="1">
         <v>56.9</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AQ22" s="1">
         <v>10.9</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AR22" s="7">
         <v>26.7</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AS22" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="3">
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="7">
         <v>7.0</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AY22" s="1">
         <v>2.8</v>
       </c>
-      <c r="AY22" s="3">
+      <c r="AZ22" s="7">
         <v>107.2</v>
       </c>
-      <c r="AZ22" s="3">
+      <c r="BA22" s="7">
         <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>5.97</v>
@@ -3479,128 +3574,131 @@
       <c r="J23" s="1">
         <v>740.0</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="11">
         <v>1381812.0</v>
       </c>
-      <c r="L23" s="1">
-        <v>16.4</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="L23" s="6">
+        <v>18.6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="N23" s="1">
         <v>3.66</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>4.18</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>3.73</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>3.94</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>3.23</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>3.32</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>12.0</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>1.0</v>
       </c>
-      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
         <v>67.0</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>18.0</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>31.0</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>48.7</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>5.8</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="7">
         <v>26.6</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AF23" s="1">
         <v>2.3</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <v>6.4</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <v>4.1</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <v>20.0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <v>1.0</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>6.0</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>1.0</v>
       </c>
       <c r="AM23" s="1">
         <v>1.0</v>
       </c>
       <c r="AN23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AO23" s="1">
         <v>80.0</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AP23" s="1">
         <v>48.7</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AQ23" s="1">
         <v>5.8</v>
       </c>
-      <c r="AQ23" s="3">
+      <c r="AR23" s="7">
         <v>26.6</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AS23" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS23" s="3">
+      <c r="AT23" s="7">
         <v>10.0</v>
       </c>
-      <c r="AT23" s="3">
+      <c r="AU23" s="7">
         <v>95.0</v>
       </c>
-      <c r="AU23" s="3">
+      <c r="AV23" s="7">
         <v>2.4</v>
       </c>
-      <c r="AV23" s="3">
+      <c r="AW23" s="7">
         <v>0.5</v>
       </c>
-      <c r="AW23" s="3">
+      <c r="AX23" s="7">
         <v>3.0</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AY23" s="1">
         <v>1.6</v>
       </c>
-      <c r="AY23" s="3">
+      <c r="AZ23" s="7">
         <v>105.3</v>
       </c>
-      <c r="AZ23" s="3">
+      <c r="BA23" s="7">
         <v>12.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>13.29</v>
@@ -3617,128 +3715,131 @@
       <c r="J24" s="1">
         <v>640.0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="11">
         <v>1874298.0</v>
       </c>
-      <c r="L24" s="1">
-        <v>19.1</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="M24" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="N24" s="1">
         <v>6.78</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>6.22</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>6.38</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>6.8</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>6.22</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>6.42</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>12.0</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>18.0</v>
       </c>
-      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1">
         <v>69.0</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>16.0</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>38.0</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>54.0</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>11.6</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="7">
         <v>19.3</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AF24" s="1">
         <v>4.3</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <v>13.4</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <v>6.6</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AI24" s="1">
         <v>26.0</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AK24" s="1">
         <v>18.0</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>8.0</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>22.0</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AN24" s="1">
         <v>28.0</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AO24" s="1">
         <v>121.0</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AP24" s="1">
         <v>54.0</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AQ24" s="1">
         <v>11.6</v>
       </c>
-      <c r="AQ24" s="3">
+      <c r="AR24" s="7">
         <v>19.3</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AS24" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AT24" s="7">
         <v>17.0</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AU24" s="7">
         <v>92.0</v>
       </c>
-      <c r="AU24" s="3">
+      <c r="AV24" s="7">
         <v>3.4</v>
       </c>
-      <c r="AV24" s="3">
+      <c r="AW24" s="7">
         <v>0.7</v>
       </c>
-      <c r="AW24" s="3">
+      <c r="AX24" s="7">
         <v>5.0</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AY24" s="1">
         <v>1.7</v>
       </c>
-      <c r="AY24" s="3">
+      <c r="AZ24" s="7">
         <v>95.9</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="BA24" s="7">
         <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>10.61</v>
@@ -3755,128 +3856,131 @@
       <c r="J25" s="1">
         <v>440.0</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="11">
         <v>1066806.0</v>
       </c>
-      <c r="L25" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="L25" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="M25" s="6">
         <v>4.8</v>
       </c>
       <c r="N25" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="O25" s="1">
         <v>5.06</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>4.53</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>4.13</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>4.83</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>4.5</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>12.0</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>8.0</v>
       </c>
-      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>11.0</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>33.0</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>58.2</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>8.2</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AE25" s="7">
         <v>30.8</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <v>3.8</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <v>9.2</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>4.0</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>21.0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AK25" s="1">
         <v>8.0</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>12.0</v>
       </c>
       <c r="AL25" s="1">
         <v>12.0</v>
       </c>
       <c r="AM25" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="AN25" s="1">
         <v>7.0</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AO25" s="1">
         <v>91.0</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AP25" s="1">
         <v>58.2</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AQ25" s="1">
         <v>8.2</v>
       </c>
-      <c r="AQ25" s="3">
+      <c r="AR25" s="7">
         <v>30.8</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AS25" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS25" s="3">
+      <c r="AT25" s="7">
         <v>11.0</v>
       </c>
-      <c r="AT25" s="3">
+      <c r="AU25" s="7">
         <v>96.0</v>
       </c>
-      <c r="AU25" s="3">
+      <c r="AV25" s="7">
         <v>2.0</v>
       </c>
-      <c r="AV25" s="3">
+      <c r="AW25" s="7">
         <v>1.4</v>
       </c>
-      <c r="AW25" s="3">
+      <c r="AX25" s="7">
         <v>5.0</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AY25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY25" s="3">
+      <c r="AZ25" s="7">
         <v>93.6</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="BA25" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>11.98</v>
@@ -3891,122 +3995,125 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="11">
         <v>591744.0</v>
       </c>
-      <c r="L26" s="1">
-        <v>39.1</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="L26" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="M26" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="N26" s="1">
         <v>8.73</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>8.41</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>8.71</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>8.12</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>9.39</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>9.11</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>20.0</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>51.0</v>
       </c>
-      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
         <v>74.0</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>57.0</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>59.7</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>26.4</v>
       </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="1">
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="1">
         <v>6.9</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <v>13.0</v>
       </c>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="1">
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="1">
         <v>25.0</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AJ26" s="1">
         <v>20.0</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AK26" s="1">
         <v>51.0</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>43.0</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>50.0</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AN26" s="1">
         <v>51.0</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AO26" s="1">
         <v>173.7</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AP26" s="1">
         <v>59.7</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AQ26" s="1">
         <v>26.4</v>
       </c>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1">
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1">
         <v>23.0</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AT26" s="1">
         <v>21.0</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AU26" s="1">
         <v>80.0</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AV26" s="1">
         <v>5.1</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AW26" s="1">
         <v>1.6</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AX26" s="1">
         <v>14.0</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AY26" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AZ26" s="1">
         <v>60.4</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BA26" s="1">
         <v>21.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>12.05</v>
@@ -4023,122 +4130,125 @@
       <c r="J27" s="1">
         <v>50.0</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="11">
         <v>1171775.0</v>
       </c>
-      <c r="L27" s="1">
-        <v>23.8</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="L27" s="6">
+        <v>28.9</v>
+      </c>
+      <c r="M27" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="N27" s="1">
         <v>6.26</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>6.35</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>6.14</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>5.89</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>5.85</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>6.77</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>19.0</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>40.0</v>
       </c>
-      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
         <v>74.0</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>39.0</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>57.7</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>16.9</v>
       </c>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="1">
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="1">
         <v>4.8</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AG27" s="1">
         <v>11.9</v>
       </c>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="1">
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="1">
         <v>25.0</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AJ27" s="1">
         <v>19.0</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AK27" s="1">
         <v>40.0</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <v>39.0</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>35.0</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AN27" s="1">
         <v>43.0</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AO27" s="1">
         <v>141.8</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AP27" s="1">
         <v>57.7</v>
       </c>
-      <c r="AP27" s="1">
+      <c r="AQ27" s="1">
         <v>16.9</v>
       </c>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1">
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1">
         <v>7.0</v>
       </c>
-      <c r="AS27" s="1">
+      <c r="AT27" s="1">
         <v>12.0</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AU27" s="1">
         <v>88.0</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AV27" s="1">
         <v>5.6</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AW27" s="1">
         <v>3.3</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AX27" s="1">
         <v>10.0</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AY27" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="AZ27" s="1">
         <v>74.0</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BA27" s="1">
         <v>22.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
@@ -4153,124 +4263,129 @@
       <c r="J28" s="1">
         <v>30.0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="11">
         <v>190089.0</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1">
+      <c r="L28" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="N28" s="1">
         <v>5.51</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4.78</v>
       </c>
       <c r="O28" s="1">
         <v>4.78</v>
       </c>
       <c r="P28" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="Q28" s="1">
         <v>5.0</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>4.9</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>4.65</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>17.0</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>26.0</v>
       </c>
-      <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1">
         <v>75.0</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>36.0</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>53.2</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>12.2</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AE28" s="7">
         <v>36.3</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AF28" s="1">
         <v>4.4</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="1">
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="1">
         <v>28.0</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AJ28" s="1">
         <v>17.0</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>26.0</v>
       </c>
       <c r="AK28" s="1">
         <v>26.0</v>
       </c>
       <c r="AL28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="AM28" s="1">
         <v>20.0</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AN28" s="1">
         <v>27.0</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AO28" s="1">
         <v>131.6</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AP28" s="1">
         <v>53.2</v>
       </c>
-      <c r="AP28" s="1">
+      <c r="AQ28" s="1">
         <v>12.2</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AR28" s="7">
         <v>36.3</v>
       </c>
-      <c r="AR28" s="3">
+      <c r="AS28" s="7">
         <v>7.0</v>
       </c>
-      <c r="AS28" s="3">
+      <c r="AT28" s="7">
         <v>13.0</v>
       </c>
-      <c r="AT28" s="3">
+      <c r="AU28" s="7">
         <v>95.0</v>
       </c>
-      <c r="AU28" s="3">
+      <c r="AV28" s="7">
         <v>2.8</v>
       </c>
-      <c r="AV28" s="3">
+      <c r="AW28" s="7">
         <v>2.1</v>
       </c>
-      <c r="AW28" s="3">
+      <c r="AX28" s="7">
         <v>10.0</v>
       </c>
-      <c r="AX28" s="1">
+      <c r="AY28" s="1">
         <v>5.3</v>
       </c>
-      <c r="AY28" s="3">
+      <c r="AZ28" s="7">
         <v>78.9</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="BA28" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
         <v>11.14</v>
@@ -4287,128 +4402,131 @@
       <c r="J29" s="1">
         <v>90.0</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="11">
         <v>370172.0</v>
       </c>
-      <c r="L29" s="1">
-        <v>25.1</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="L29" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="M29" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="N29" s="1">
         <v>5.54</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>5.77</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>4.93</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>5.68</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>5.49</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>5.83</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>16.0</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>21.0</v>
       </c>
-      <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>36.0</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>63.6</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>14.1</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="7">
         <v>15.5</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AF29" s="1">
         <v>5.0</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AG29" s="1">
         <v>12.39</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AH29" s="1">
         <v>4.7</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AI29" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AJ29" s="1">
         <v>16.0</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AK29" s="1">
         <v>21.0</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <v>32.0</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>16.0</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AN29" s="1">
         <v>13.0</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AO29" s="1">
         <v>89.4</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AP29" s="1">
         <v>63.6</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AQ29" s="1">
         <v>14.1</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AR29" s="7">
         <v>15.5</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AS29" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS29" s="3">
+      <c r="AT29" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT29" s="3">
+      <c r="AU29" s="7">
         <v>92.0</v>
       </c>
-      <c r="AU29" s="3">
+      <c r="AV29" s="7">
         <v>2.2</v>
       </c>
-      <c r="AV29" s="3">
+      <c r="AW29" s="7">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="3">
+      <c r="AX29" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AY29" s="1">
         <v>1.3</v>
       </c>
-      <c r="AY29" s="3">
+      <c r="AZ29" s="7">
         <v>70.0</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="BA29" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>8.85</v>
@@ -4423,118 +4541,121 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="6">
+      <c r="K30" s="11">
         <v>589149.0</v>
       </c>
-      <c r="L30" s="1">
-        <v>20.4</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="L30" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="M30" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="N30" s="1">
         <v>5.85</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>6.14</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>5.67</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>4.64</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>5.76</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>4.49</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>26.0</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>48.0</v>
       </c>
-      <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
         <v>67.0</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AA30" s="1">
         <v>18.0</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>43.0</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>53.2</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <v>14.0</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AE30" s="7">
         <v>45.3</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AF30" s="1">
         <v>4.4</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AG30" s="1">
         <v>10.3</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <v>5.3</v>
       </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1">
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1">
         <v>26.0</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <v>48.0</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>49.0</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>51.0</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AN30" s="1">
         <v>39.0</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AO30" s="1">
         <v>124.2</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AP30" s="1">
         <v>53.2</v>
       </c>
-      <c r="AP30" s="1">
+      <c r="AQ30" s="1">
         <v>14.0</v>
       </c>
-      <c r="AQ30" s="3">
+      <c r="AR30" s="7">
         <v>45.3</v>
       </c>
-      <c r="AR30" s="3">
+      <c r="AS30" s="7">
         <v>22.0</v>
       </c>
-      <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
-      <c r="AW30" s="1">
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1">
         <v>14.0</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AY30" s="1">
         <v>2.2</v>
       </c>
-      <c r="AY30" s="3">
+      <c r="AZ30" s="7">
         <v>58.2</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="BA30" s="7">
         <v>32.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
@@ -4549,112 +4670,117 @@
       <c r="J31" s="1">
         <v>130.0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="11">
         <v>241346.0</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
+      <c r="L31" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="N31" s="1">
         <v>4.21</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>3.5</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>3.21</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>4.41</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>3.96</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>3.48</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>13.0</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>5.0</v>
       </c>
-      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
         <v>71.0</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>22.0</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>47.9</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <v>4.6</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AE31" s="7">
         <v>19.6</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <v>3.9</v>
       </c>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1">
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
         <v>13.0</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AK31" s="1">
         <v>5.0</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>7.0</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>11.0</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AN31" s="1">
         <v>8.0</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AO31" s="1">
         <v>100.4</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AP31" s="1">
         <v>47.9</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AQ31" s="1">
         <v>4.6</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AR31" s="7">
         <v>19.6</v>
       </c>
-      <c r="AR31" s="3">
+      <c r="AS31" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
-      <c r="AW31" s="1">
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1">
         <v>5.0</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AY31" s="1">
         <v>4.0</v>
       </c>
-      <c r="AY31" s="3">
+      <c r="AZ31" s="7">
         <v>117.1</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="BA31" s="7">
         <v>11.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1">
         <v>7.5</v>
@@ -4671,128 +4797,131 @@
       <c r="J32" s="1">
         <v>670.0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="11">
         <v>1715123.0</v>
       </c>
-      <c r="L32" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="L32" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="M32" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="N32" s="1">
         <v>4.45</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>3.8</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>4.22</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>4.0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>3.57</v>
       </c>
       <c r="R32" s="1">
         <v>3.57</v>
       </c>
       <c r="S32" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="T32" s="1">
         <v>15.0</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>19.0</v>
       </c>
-      <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1">
         <v>58.0</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AA32" s="1">
         <v>27.0</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>30.0</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>58.7</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <v>8.2</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="7">
         <v>24.9</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AF32" s="1">
         <v>2.4</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AG32" s="1">
         <v>8.4</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="1">
         <v>3.9</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1">
         <v>12.0</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AJ32" s="1">
         <v>15.0</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AK32" s="1">
         <v>19.0</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>29.0</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>33.0</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AN32" s="1">
         <v>2.0</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AO32" s="1">
         <v>79.3</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AP32" s="1">
         <v>58.7</v>
       </c>
-      <c r="AP32" s="1">
+      <c r="AQ32" s="1">
         <v>8.2</v>
       </c>
-      <c r="AQ32" s="3">
+      <c r="AR32" s="7">
         <v>24.9</v>
       </c>
-      <c r="AR32" s="3">
+      <c r="AS32" s="7">
         <v>8.0</v>
       </c>
-      <c r="AS32" s="3">
+      <c r="AT32" s="7">
         <v>11.0</v>
       </c>
-      <c r="AT32" s="3">
+      <c r="AU32" s="7">
         <v>85.0</v>
       </c>
-      <c r="AU32" s="3">
+      <c r="AV32" s="7">
         <v>2.0</v>
       </c>
-      <c r="AV32" s="3">
+      <c r="AW32" s="7">
         <v>1.8</v>
       </c>
-      <c r="AW32" s="1">
+      <c r="AX32" s="1">
         <v>8.0</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AY32" s="1">
         <v>2.6</v>
       </c>
-      <c r="AY32" s="3">
+      <c r="AZ32" s="7">
         <v>93.2</v>
       </c>
-      <c r="AZ32" s="3">
+      <c r="BA32" s="7">
         <v>18.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
@@ -4807,126 +4936,129 @@
       <c r="J33" s="1">
         <v>120.0</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="11">
         <v>395286.0</v>
       </c>
-      <c r="L33" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="L33" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="N33" s="1">
         <v>5.85</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>5.69</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>5.66</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>5.3</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>4.77</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>5.88</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>12.0</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>41.0</v>
       </c>
-      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AA33" s="1">
         <v>12.0</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>55.0</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AC33" s="1">
         <v>53.1</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AD33" s="1">
         <v>19.7</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="7">
         <v>252.1</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AF33" s="1">
         <v>4.9</v>
       </c>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="1">
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="1">
         <v>4.6</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AI33" s="1">
         <v>21.0</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AJ33" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AK33" s="1">
         <v>41.0</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AL33" s="1">
         <v>34.0</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AM33" s="1">
         <v>46.0</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AN33" s="1">
         <v>42.0</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AO33" s="1">
         <v>202.6</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AP33" s="1">
         <v>53.1</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AQ33" s="1">
         <v>19.7</v>
       </c>
-      <c r="AQ33" s="3">
+      <c r="AR33" s="7">
         <v>252.1</v>
       </c>
-      <c r="AR33" s="3">
+      <c r="AS33" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AT33" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT33" s="3">
+      <c r="AU33" s="7">
         <v>94.0</v>
       </c>
-      <c r="AU33" s="3">
+      <c r="AV33" s="7">
         <v>3.3</v>
       </c>
-      <c r="AV33" s="3">
+      <c r="AW33" s="7">
         <v>2.2</v>
       </c>
-      <c r="AW33" s="3">
+      <c r="AX33" s="7">
         <v>12.0</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AY33" s="1">
         <v>5.7</v>
       </c>
-      <c r="AY33" s="3">
+      <c r="AZ33" s="7">
         <v>96.9</v>
       </c>
-      <c r="AZ33" s="3">
+      <c r="BA33" s="7">
         <v>35.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>7.44</v>
@@ -4943,128 +5075,131 @@
       <c r="J34" s="1">
         <v>2350.0</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="11">
         <v>4001053.0</v>
       </c>
-      <c r="L34" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="L34" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="N34" s="1">
         <v>4.58</v>
-      </c>
-      <c r="N34" s="1">
-        <v>4.33</v>
       </c>
       <c r="O34" s="1">
         <v>4.33</v>
       </c>
       <c r="P34" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="Q34" s="1">
         <v>4.08</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>4.16</v>
       </c>
-      <c r="R34" s="1">
+      <c r="S34" s="1">
         <v>4.26</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>14.0</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>10.0</v>
       </c>
-      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1">
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1">
         <v>59.0</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AA34" s="1">
         <v>26.0</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AB34" s="1">
         <v>47.0</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AC34" s="1">
         <v>53.6</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AD34" s="1">
         <v>8.6</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AE34" s="7">
         <v>11.2</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AF34" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AG34" s="1">
         <v>9.3</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AH34" s="1">
         <v>4.0</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AI34" s="1">
         <v>16.0</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AJ34" s="1">
         <v>14.0</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>10.0</v>
       </c>
       <c r="AK34" s="1">
         <v>10.0</v>
       </c>
       <c r="AL34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AM34" s="1">
         <v>27.0</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AN34" s="1">
         <v>5.0</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AO34" s="1">
         <v>81.9</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AP34" s="1">
         <v>53.6</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AQ34" s="1">
         <v>8.6</v>
       </c>
-      <c r="AQ34" s="3">
+      <c r="AR34" s="7">
         <v>11.2</v>
       </c>
-      <c r="AR34" s="3">
+      <c r="AS34" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS34" s="1">
+      <c r="AT34" s="1">
         <v>12.0</v>
       </c>
-      <c r="AT34" s="3">
+      <c r="AU34" s="7">
         <v>84.0</v>
       </c>
-      <c r="AU34" s="3">
+      <c r="AV34" s="7">
         <v>2.7</v>
       </c>
-      <c r="AV34" s="3">
+      <c r="AW34" s="7">
         <v>1.2</v>
       </c>
-      <c r="AW34" s="3">
+      <c r="AX34" s="7">
         <v>5.0</v>
       </c>
-      <c r="AX34" s="1">
+      <c r="AY34" s="1">
         <v>2.3</v>
       </c>
-      <c r="AY34" s="3">
+      <c r="AZ34" s="7">
         <v>104.7</v>
       </c>
-      <c r="AZ34" s="3">
+      <c r="BA34" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1">
         <v>11.71</v>
@@ -5081,118 +5216,121 @@
       <c r="J35" s="1">
         <v>480.0</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="11">
         <v>2016657.0</v>
       </c>
-      <c r="L35" s="1">
-        <v>26.7</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="L35" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="M35" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="N35" s="1">
         <v>7.03</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>6.75</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>6.78</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <v>6.77</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R35" s="1">
         <v>6.72</v>
       </c>
-      <c r="R35" s="1">
+      <c r="S35" s="1">
         <v>6.79</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>18.0</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>33.0</v>
       </c>
-      <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1">
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AA35" s="1">
         <v>15.0</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AB35" s="1">
         <v>38.0</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <v>57.6</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AD35" s="1">
         <v>15.0</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="7">
         <v>44.7</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AF35" s="1">
         <v>5.3</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AG35" s="1">
         <v>11.3</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AH35" s="1">
         <v>4.7</v>
       </c>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1">
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1">
         <v>18.0</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AK35" s="1">
         <v>33.0</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AL35" s="1">
         <v>43.0</v>
       </c>
-      <c r="AL35" s="1">
+      <c r="AM35" s="1">
         <v>13.0</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AN35" s="1">
         <v>31.0</v>
       </c>
-      <c r="AN35" s="1">
+      <c r="AO35" s="1">
         <v>133.7</v>
       </c>
-      <c r="AO35" s="1">
+      <c r="AP35" s="1">
         <v>57.6</v>
       </c>
-      <c r="AP35" s="1">
+      <c r="AQ35" s="1">
         <v>15.0</v>
       </c>
-      <c r="AQ35" s="3">
+      <c r="AR35" s="7">
         <v>44.7</v>
       </c>
-      <c r="AR35" s="3">
+      <c r="AS35" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="3">
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="7">
         <v>12.0</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AY35" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY35" s="3">
+      <c r="AZ35" s="7">
         <v>84.0</v>
       </c>
-      <c r="AZ35" s="3">
+      <c r="BA35" s="7">
         <v>20.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
@@ -5205,116 +5343,119 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="6">
+      <c r="K36" s="11">
         <v>146282.0</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="1">
+      <c r="M36" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="N36" s="1">
         <v>4.38</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>5.64</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>7.46</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>5.47</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>2.77</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <v>4.29</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>17.0</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <v>16.0</v>
       </c>
-      <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1">
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AA36" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AB36" s="1">
         <v>22.0</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AC36" s="1">
         <v>62.0</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AD36" s="1">
         <v>11.7</v>
       </c>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="1">
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="1">
         <v>30.0</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AJ36" s="1">
         <v>17.0</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AK36" s="1">
         <v>16.0</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AL36" s="1">
         <v>25.0</v>
       </c>
-      <c r="AL36" s="1">
+      <c r="AM36" s="1">
         <v>7.0</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AN36" s="1">
         <v>17.0</v>
       </c>
-      <c r="AN36" s="1">
+      <c r="AO36" s="1">
         <v>128.6</v>
       </c>
-      <c r="AO36" s="1">
+      <c r="AP36" s="1">
         <v>62.0</v>
       </c>
-      <c r="AP36" s="1">
+      <c r="AQ36" s="1">
         <v>11.7</v>
       </c>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1">
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1">
         <v>12.0</v>
       </c>
-      <c r="AS36" s="1">
+      <c r="AT36" s="1">
         <v>13.0</v>
       </c>
-      <c r="AT36" s="3">
+      <c r="AU36" s="7">
         <v>94.0</v>
       </c>
-      <c r="AU36" s="3">
+      <c r="AV36" s="7">
         <v>3.3</v>
       </c>
-      <c r="AV36" s="3">
+      <c r="AW36" s="7">
         <v>2.5</v>
       </c>
-      <c r="AW36" s="3">
+      <c r="AX36" s="7">
         <v>8.0</v>
       </c>
-      <c r="AX36" s="1">
+      <c r="AY36" s="1">
         <v>1.3</v>
       </c>
-      <c r="AY36" s="3">
+      <c r="AZ36" s="7">
         <v>66.3</v>
       </c>
-      <c r="AZ36" s="3">
+      <c r="BA36" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1">
         <v>12.69</v>
@@ -5331,118 +5472,121 @@
       <c r="J37" s="1">
         <v>430.0</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="11">
         <v>2203285.0</v>
       </c>
-      <c r="L37" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="L37" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="M37" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="N37" s="1">
         <v>7.18</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>6.94</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>6.89</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <v>6.7</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>7.06</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>7.11</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>15.0</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <v>29.0</v>
       </c>
-      <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1">
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="AA37" s="1">
         <v>11.0</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AB37" s="1">
         <v>40.0</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AC37" s="1">
         <v>57.3</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AD37" s="1">
         <v>15.4</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AE37" s="7">
         <v>15.1</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AF37" s="1">
         <v>5.5</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AG37" s="1">
         <v>13.6</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AH37" s="1">
         <v>6.2</v>
       </c>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1">
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1">
         <v>15.0</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>29.0</v>
       </c>
       <c r="AK37" s="1">
         <v>29.0</v>
       </c>
       <c r="AL37" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="AM37" s="1">
         <v>30.0</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AN37" s="1">
         <v>35.0</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="AO37" s="1">
         <v>136.2</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="AP37" s="1">
         <v>57.3</v>
       </c>
-      <c r="AP37" s="1">
+      <c r="AQ37" s="1">
         <v>15.4</v>
       </c>
-      <c r="AQ37" s="3">
+      <c r="AR37" s="7">
         <v>15.1</v>
       </c>
-      <c r="AR37" s="3">
+      <c r="AS37" s="7">
         <v>18.0</v>
       </c>
-      <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="3">
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="7">
         <v>6.0</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AY37" s="1">
         <v>0.5</v>
       </c>
-      <c r="AY37" s="3">
+      <c r="AZ37" s="7">
         <v>84.5</v>
       </c>
-      <c r="AZ37" s="3">
+      <c r="BA37" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
         <v>12.46</v>
@@ -5457,114 +5601,117 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="6">
+      <c r="K38" s="11">
         <v>768751.0</v>
       </c>
-      <c r="L38" s="1">
-        <v>29.6</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="L38" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="M38" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="N38" s="1">
         <v>7.79</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>7.09</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>7.0</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <v>5.9</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>7.13</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>6.89</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>23.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <v>48.0</v>
       </c>
-      <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1">
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1">
         <v>77.0</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AA38" s="1">
         <v>7.0</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AB38" s="1">
         <v>51.0</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AC38" s="1">
         <v>60.4</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AD38" s="1">
         <v>21.2</v>
       </c>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="1">
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="1">
         <v>6.4</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AG38" s="1">
         <v>11.2</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AH38" s="1">
         <v>6.2</v>
       </c>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1">
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1">
         <v>23.0</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AK38" s="1">
         <v>48.0</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AL38" s="1">
         <v>45.0</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>47.0</v>
       </c>
       <c r="AM38" s="1">
         <v>47.0</v>
       </c>
       <c r="AN38" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="AO38" s="1">
         <v>150.3</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AP38" s="1">
         <v>60.4</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="AQ38" s="1">
         <v>21.2</v>
       </c>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1">
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1">
         <v>2.0</v>
       </c>
-      <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="3">
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="7">
         <v>15.0</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AY38" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="AZ38" s="1">
         <v>55.0</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BA38" s="1">
         <v>23.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>8.81</v>
@@ -5581,126 +5728,129 @@
       <c r="J39" s="1">
         <v>310.0</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="11">
         <v>810399.0</v>
       </c>
-      <c r="L39" s="1">
-        <v>16.6</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="L39" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="N39" s="1">
         <v>5.34</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>4.22</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>4.85</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>4.22</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>3.79</v>
       </c>
-      <c r="R39" s="1">
+      <c r="S39" s="1">
         <v>4.48</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>14.0</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>13.0</v>
       </c>
-      <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1">
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AA39" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>44.0</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>47.3</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>10.1</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="7">
         <v>39.3</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AF39" s="1">
         <v>3.6</v>
       </c>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="1">
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="1">
         <v>4.4</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AI39" s="1">
         <v>23.0</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AJ39" s="1">
         <v>14.0</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AK39" s="1">
         <v>13.0</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AL39" s="1">
         <v>11.0</v>
       </c>
-      <c r="AL39" s="1">
+      <c r="AM39" s="1">
         <v>14.0</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AN39" s="1">
         <v>19.0</v>
       </c>
-      <c r="AN39" s="1">
+      <c r="AO39" s="1">
         <v>99.7</v>
       </c>
-      <c r="AO39" s="1">
+      <c r="AP39" s="1">
         <v>47.3</v>
       </c>
-      <c r="AP39" s="1">
+      <c r="AQ39" s="1">
         <v>10.1</v>
       </c>
-      <c r="AQ39" s="3">
+      <c r="AR39" s="7">
         <v>39.3</v>
       </c>
-      <c r="AR39" s="3">
+      <c r="AS39" s="7">
         <v>7.0</v>
       </c>
-      <c r="AS39" s="3">
+      <c r="AT39" s="7">
         <v>13.0</v>
       </c>
-      <c r="AT39" s="3">
+      <c r="AU39" s="7">
         <v>95.0</v>
       </c>
-      <c r="AU39" s="3">
+      <c r="AV39" s="7">
         <v>2.4</v>
       </c>
-      <c r="AV39" s="3">
+      <c r="AW39" s="7">
         <v>0.8</v>
       </c>
-      <c r="AW39" s="3">
+      <c r="AX39" s="7">
         <v>7.0</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="AY39" s="1">
         <v>2.8</v>
       </c>
-      <c r="AY39" s="3">
+      <c r="AZ39" s="7">
         <v>106.8</v>
       </c>
-      <c r="AZ39" s="3">
+      <c r="BA39" s="7">
         <v>17.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1">
         <v>9.49</v>
@@ -5717,128 +5867,131 @@
       <c r="J40" s="1">
         <v>460.0</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="11">
         <v>2383721.0</v>
       </c>
-      <c r="L40" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="L40" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="M40" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="N40" s="1">
         <v>6.08</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>5.94</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>5.93</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>5.58</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>5.37</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>5.69</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>13.0</v>
       </c>
-      <c r="T40" s="1">
+      <c r="U40" s="1">
         <v>19.0</v>
       </c>
-      <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1">
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1">
         <v>68.0</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AA40" s="1">
         <v>17.0</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AB40" s="1">
         <v>34.0</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AC40" s="1">
         <v>53.3</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AD40" s="1">
         <v>10.6</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="7">
         <v>17.4</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AF40" s="1">
         <v>4.1</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AG40" s="1">
         <v>9.8</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AH40" s="1">
         <v>5.7</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AI40" s="1">
         <v>21.0</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AJ40" s="1">
         <v>13.0</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AK40" s="1">
         <v>19.0</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AL40" s="1">
         <v>20.0</v>
       </c>
-      <c r="AL40" s="1">
+      <c r="AM40" s="1">
         <v>19.0</v>
       </c>
-      <c r="AM40" s="1">
+      <c r="AN40" s="1">
         <v>18.0</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AO40" s="1">
         <v>110.6</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="AP40" s="1">
         <v>53.3</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="AQ40" s="1">
         <v>10.6</v>
       </c>
-      <c r="AQ40" s="3">
+      <c r="AR40" s="7">
         <v>17.4</v>
       </c>
-      <c r="AR40" s="3">
+      <c r="AS40" s="7">
         <v>7.0</v>
       </c>
-      <c r="AS40" s="3">
+      <c r="AT40" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT40" s="3">
+      <c r="AU40" s="7">
         <v>91.0</v>
       </c>
-      <c r="AU40" s="3">
+      <c r="AV40" s="7">
         <v>3.0</v>
       </c>
-      <c r="AV40" s="3">
+      <c r="AW40" s="7">
         <v>4.8</v>
       </c>
-      <c r="AW40" s="3">
+      <c r="AX40" s="7">
         <v>6.0</v>
       </c>
-      <c r="AX40" s="1">
+      <c r="AY40" s="1">
         <v>1.0</v>
       </c>
-      <c r="AY40" s="3">
+      <c r="AZ40" s="7">
         <v>87.6</v>
       </c>
-      <c r="AZ40" s="3">
+      <c r="BA40" s="7">
         <v>14.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
@@ -5853,110 +6006,113 @@
       <c r="J41" s="1">
         <v>80.0</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="11">
         <v>209072.0</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1">
+      <c r="M41" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="N41" s="1">
         <v>6.2</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>4.95</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>5.9</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>3.96</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>4.3</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>3.9</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>8.0</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>3.0</v>
       </c>
-      <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1">
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1">
         <v>65.0</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AA41" s="1">
         <v>20.0</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>41.0</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AC41" s="1">
         <v>47.5</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AD41" s="1">
         <v>8.3</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="7">
         <v>7.1</v>
       </c>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1">
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
         <v>8.0</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AK41" s="1">
         <v>3.0</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AL41" s="1">
         <v>4.0</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AM41" s="1">
         <v>2.0</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AN41" s="1">
         <v>9.0</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AO41" s="1">
         <v>86.0</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AP41" s="1">
         <v>47.5</v>
       </c>
-      <c r="AP41" s="1">
+      <c r="AQ41" s="1">
         <v>8.3</v>
       </c>
-      <c r="AQ41" s="3">
+      <c r="AR41" s="7">
         <v>7.1</v>
       </c>
-      <c r="AR41" s="3">
+      <c r="AS41" s="7">
         <v>16.0</v>
       </c>
-      <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="1">
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1">
         <v>4.0</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="AY41" s="1">
         <v>3.7</v>
       </c>
-      <c r="AY41" s="3">
+      <c r="AZ41" s="7">
         <v>117.8</v>
       </c>
-      <c r="AZ41" s="3">
+      <c r="BA41" s="7">
         <v>14.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1">
         <v>11.63</v>
@@ -5973,118 +6129,121 @@
       <c r="J42" s="1">
         <v>130.0</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="11">
         <v>965704.0</v>
       </c>
-      <c r="L42" s="1">
-        <v>32.3</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="L42" s="6">
+        <v>35.7</v>
+      </c>
+      <c r="M42" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="N42" s="1">
         <v>6.52</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>7.11</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>6.89</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>6.64</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>7.26</v>
       </c>
-      <c r="R42" s="1">
+      <c r="S42" s="1">
         <v>6.76</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <v>20.0</v>
       </c>
-      <c r="T42" s="1">
+      <c r="U42" s="1">
         <v>38.0</v>
       </c>
-      <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="AA42" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>47.0</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>57.0</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>17.3</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="7">
         <v>82.2</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AF42" s="1">
         <v>5.2</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AG42" s="1">
         <v>12.9</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AH42" s="1">
         <v>5.2</v>
       </c>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1">
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
         <v>20.0</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AK42" s="1">
         <v>38.0</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AL42" s="1">
         <v>41.0</v>
       </c>
-      <c r="AL42" s="1">
+      <c r="AM42" s="1">
         <v>24.0</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AN42" s="1">
         <v>36.0</v>
       </c>
-      <c r="AN42" s="1">
+      <c r="AO42" s="1">
         <v>150.7</v>
       </c>
-      <c r="AO42" s="1">
+      <c r="AP42" s="1">
         <v>57.0</v>
       </c>
-      <c r="AP42" s="1">
+      <c r="AQ42" s="1">
         <v>17.3</v>
       </c>
-      <c r="AQ42" s="3">
+      <c r="AR42" s="7">
         <v>82.2</v>
       </c>
-      <c r="AR42" s="3">
+      <c r="AS42" s="7">
         <v>16.0</v>
       </c>
-      <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="3">
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="7">
         <v>12.0</v>
       </c>
-      <c r="AX42" s="1">
+      <c r="AY42" s="1">
         <v>0.5</v>
       </c>
-      <c r="AY42" s="3">
+      <c r="AZ42" s="7">
         <v>72.3</v>
       </c>
-      <c r="AZ42" s="3">
+      <c r="BA42" s="7">
         <v>27.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
@@ -6099,118 +6258,123 @@
       <c r="J43" s="1">
         <v>80.0</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="11">
         <v>158874.0</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1">
+      <c r="L43" s="6">
+        <v>35.8</v>
+      </c>
+      <c r="M43" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="N43" s="1">
         <v>7.75</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>5.89</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>6.99</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>7.3</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="R43" s="1">
         <v>6.07</v>
       </c>
-      <c r="R43" s="1">
+      <c r="S43" s="1">
         <v>7.77</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <v>9.0</v>
       </c>
-      <c r="T43" s="1">
+      <c r="U43" s="1">
         <v>29.0</v>
       </c>
-      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1">
         <v>79.0</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="AA43" s="1">
         <v>5.0</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>27.0</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>66.5</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>17.4</v>
       </c>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="1">
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="1">
         <v>4.1</v>
       </c>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="1">
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="1">
         <v>26.0</v>
       </c>
-      <c r="AI43" s="1">
+      <c r="AJ43" s="1">
         <v>9.0</v>
       </c>
-      <c r="AJ43" s="1">
+      <c r="AK43" s="1">
         <v>29.0</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AL43" s="1">
         <v>24.0</v>
       </c>
-      <c r="AL43" s="1">
+      <c r="AM43" s="1">
         <v>16.0</v>
       </c>
-      <c r="AM43" s="1">
+      <c r="AN43" s="1">
         <v>45.0</v>
       </c>
-      <c r="AN43" s="1">
+      <c r="AO43" s="1">
         <v>155.8</v>
       </c>
-      <c r="AO43" s="1">
+      <c r="AP43" s="1">
         <v>66.5</v>
       </c>
-      <c r="AP43" s="1">
+      <c r="AQ43" s="1">
         <v>17.4</v>
       </c>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1">
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1">
         <v>4.0</v>
       </c>
-      <c r="AS43" s="1">
+      <c r="AT43" s="1">
         <v>11.0</v>
       </c>
-      <c r="AT43" s="1">
+      <c r="AU43" s="1">
         <v>93.0</v>
       </c>
-      <c r="AU43" s="1">
+      <c r="AV43" s="1">
         <v>4.6</v>
       </c>
-      <c r="AV43" s="1">
+      <c r="AW43" s="1">
         <v>3.1</v>
       </c>
-      <c r="AW43" s="3">
+      <c r="AX43" s="7">
         <v>9.0</v>
       </c>
-      <c r="AX43" s="1">
+      <c r="AY43" s="1">
         <v>1.2</v>
       </c>
-      <c r="AY43" s="1">
+      <c r="AZ43" s="1">
         <v>74.2</v>
       </c>
-      <c r="AZ43" s="1">
+      <c r="BA43" s="1">
         <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1">
         <v>11.74</v>
@@ -6227,124 +6391,127 @@
       <c r="J44" s="1">
         <v>380.0</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="11">
         <v>1312517.0</v>
       </c>
-      <c r="L44" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="M44" s="1">
+      <c r="L44" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="N44" s="1">
         <v>7.29</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>6.89</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>6.96</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <v>6.38</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>6.18</v>
       </c>
-      <c r="R44" s="1">
+      <c r="S44" s="1">
         <v>6.61</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <v>17.0</v>
       </c>
-      <c r="T44" s="1">
+      <c r="U44" s="1">
         <v>43.0</v>
       </c>
-      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1">
         <v>74.0</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="AA44" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>44.0</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>59.3</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AD44" s="1">
         <v>21.0</v>
       </c>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="1">
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="1">
         <v>5.1</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AG44" s="1">
         <v>10.3</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AH44" s="1">
         <v>5.5</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AI44" s="1">
         <v>24.0</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AJ44" s="1">
         <v>17.0</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AK44" s="1">
         <v>43.0</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AL44" s="1">
         <v>37.0</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AM44" s="1">
         <v>45.0</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AN44" s="1">
         <v>44.0</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AO44" s="1">
         <v>159.5</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AP44" s="1">
         <v>59.3</v>
       </c>
-      <c r="AP44" s="1">
+      <c r="AQ44" s="1">
         <v>21.0</v>
       </c>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1">
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1">
         <v>19.0</v>
       </c>
-      <c r="AS44" s="1">
+      <c r="AT44" s="1">
         <v>13.0</v>
       </c>
-      <c r="AT44" s="1">
+      <c r="AU44" s="1">
         <v>87.0</v>
       </c>
-      <c r="AU44" s="1">
+      <c r="AV44" s="1">
         <v>3.6</v>
       </c>
-      <c r="AV44" s="1">
+      <c r="AW44" s="1">
         <v>2.7</v>
       </c>
-      <c r="AW44" s="3">
+      <c r="AX44" s="7">
         <v>11.0</v>
       </c>
-      <c r="AX44" s="1">
+      <c r="AY44" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY44" s="1">
+      <c r="AZ44" s="1">
         <v>77.0</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="BA44" s="1">
         <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1">
         <v>10.28</v>
@@ -6369,114 +6536,117 @@
       <c r="J45" s="1">
         <v>910.0</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="11">
         <v>5885855.0</v>
       </c>
-      <c r="L45" s="1">
-        <v>28.2</v>
-      </c>
-      <c r="M45" s="1">
+      <c r="L45" s="6">
+        <v>34.7</v>
+      </c>
+      <c r="M45" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="N45" s="1">
         <v>5.85</v>
-      </c>
-      <c r="N45" s="1">
-        <v>5.48</v>
       </c>
       <c r="O45" s="1">
         <v>5.48</v>
       </c>
       <c r="P45" s="1">
-        <v>5.29</v>
+        <v>5.48</v>
       </c>
       <c r="Q45" s="1">
         <v>5.29</v>
       </c>
       <c r="R45" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="S45" s="1">
         <v>5.72</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>27.0</v>
       </c>
-      <c r="T45" s="1">
+      <c r="U45" s="1">
         <v>50.0</v>
       </c>
-      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1">
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1">
         <v>73.0</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AA45" s="1">
         <v>11.0</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>48.0</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>61.9</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>20.4</v>
       </c>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="1">
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="1">
         <v>4.1</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AG45" s="1">
         <v>9.7</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AH45" s="1">
         <v>5.0</v>
       </c>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1">
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
         <v>27.0</v>
       </c>
-      <c r="AJ45" s="1">
+      <c r="AK45" s="1">
         <v>50.0</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AL45" s="1">
         <v>51.0</v>
       </c>
-      <c r="AL45" s="1">
+      <c r="AM45" s="1">
         <v>49.0</v>
       </c>
-      <c r="AM45" s="1">
+      <c r="AN45" s="1">
         <v>38.0</v>
       </c>
-      <c r="AN45" s="1">
+      <c r="AO45" s="1">
         <v>99.0</v>
       </c>
-      <c r="AO45" s="1">
+      <c r="AP45" s="1">
         <v>61.9</v>
       </c>
-      <c r="AP45" s="1">
+      <c r="AQ45" s="1">
         <v>20.4</v>
       </c>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1">
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1">
         <v>19.0</v>
       </c>
-      <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="3">
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="7">
         <v>21.0</v>
       </c>
-      <c r="AX45" s="1">
+      <c r="AY45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AY45" s="1">
+      <c r="AZ45" s="1">
         <v>63.4</v>
       </c>
-      <c r="AZ45" s="1">
+      <c r="BA45" s="1">
         <v>35.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1">
         <v>13.91</v>
@@ -6493,126 +6663,129 @@
       <c r="J46" s="1">
         <v>230.0</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="11">
         <v>675124.0</v>
       </c>
-      <c r="L46" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="M46" s="1">
+      <c r="L46" s="6">
+        <v>16.6</v>
+      </c>
+      <c r="M46" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="N46" s="1">
         <v>5.89</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>5.49</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>5.27</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <v>5.43</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="R46" s="1">
         <v>4.58</v>
       </c>
-      <c r="R46" s="1">
+      <c r="S46" s="1">
         <v>5.02</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <v>18.0</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U46" s="1">
         <v>28.0</v>
       </c>
-      <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1">
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1">
         <v>79.0</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="AA46" s="1">
         <v>5.0</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>17.0</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>61.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>9.0</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="7">
         <v>43.4</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AF46" s="1">
         <v>4.1</v>
       </c>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="1">
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="1">
         <v>4.9</v>
       </c>
-      <c r="AH46" s="1">
+      <c r="AI46" s="1">
         <v>30.0</v>
       </c>
-      <c r="AI46" s="1">
+      <c r="AJ46" s="1">
         <v>18.0</v>
       </c>
-      <c r="AJ46" s="1">
+      <c r="AK46" s="1">
         <v>28.0</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AL46" s="1">
         <v>40.0</v>
       </c>
-      <c r="AL46" s="1">
+      <c r="AM46" s="1">
         <v>28.0</v>
       </c>
-      <c r="AM46" s="1">
+      <c r="AN46" s="1">
         <v>20.0</v>
       </c>
-      <c r="AN46" s="1">
+      <c r="AO46" s="1">
         <v>84.3</v>
       </c>
-      <c r="AO46" s="1">
+      <c r="AP46" s="1">
         <v>61.3</v>
       </c>
-      <c r="AP46" s="1">
+      <c r="AQ46" s="1">
         <v>9.0</v>
       </c>
-      <c r="AQ46" s="3">
+      <c r="AR46" s="7">
         <v>43.4</v>
       </c>
-      <c r="AR46" s="3">
+      <c r="AS46" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS46" s="3">
+      <c r="AT46" s="7">
         <v>17.0</v>
       </c>
-      <c r="AT46" s="3">
+      <c r="AU46" s="7">
         <v>90.0</v>
       </c>
-      <c r="AU46" s="3">
+      <c r="AV46" s="7">
         <v>2.3</v>
       </c>
-      <c r="AV46" s="3">
+      <c r="AW46" s="7">
         <v>6.0</v>
       </c>
-      <c r="AW46" s="1">
+      <c r="AX46" s="1">
         <v>9.0</v>
       </c>
-      <c r="AX46" s="1">
+      <c r="AY46" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY46" s="3">
+      <c r="AZ46" s="7">
         <v>62.9</v>
       </c>
-      <c r="AZ46" s="3">
+      <c r="BA46" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -6627,116 +6800,121 @@
       <c r="J47" s="1">
         <v>40.0</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="11">
         <v>113854.0</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1">
+      <c r="L47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="N47" s="1">
         <v>4.77</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>6.44</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
         <v>0.0</v>
       </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1">
         <v>4.89</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>10.0</v>
       </c>
-      <c r="T47" s="1">
+      <c r="U47" s="1">
         <v>2.0</v>
       </c>
-      <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1">
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="AA47" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>38.0</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>44.3</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>5.8</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="7">
         <v>21.0</v>
       </c>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="1">
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="1">
         <v>31.0</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AJ47" s="1">
         <v>10.0</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AK47" s="1">
         <v>2.0</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AL47" s="1">
         <v>1.0</v>
       </c>
-      <c r="AL47" s="1">
+      <c r="AM47" s="1">
         <v>6.0</v>
       </c>
-      <c r="AM47" s="1">
+      <c r="AN47" s="1">
         <v>4.0</v>
       </c>
-      <c r="AN47" s="1">
+      <c r="AO47" s="1">
         <v>111.8</v>
       </c>
-      <c r="AO47" s="1">
+      <c r="AP47" s="1">
         <v>44.3</v>
       </c>
-      <c r="AP47" s="1">
+      <c r="AQ47" s="1">
         <v>5.8</v>
       </c>
-      <c r="AQ47" s="3">
+      <c r="AR47" s="7">
         <v>21.0</v>
       </c>
-      <c r="AR47" s="3">
+      <c r="AS47" s="7">
         <v>12.0</v>
       </c>
-      <c r="AS47" s="3">
+      <c r="AT47" s="7">
         <v>9.0</v>
       </c>
-      <c r="AT47" s="3">
+      <c r="AU47" s="7">
         <v>94.0</v>
       </c>
-      <c r="AU47" s="3">
+      <c r="AV47" s="7">
         <v>3.0</v>
       </c>
-      <c r="AV47" s="3">
+      <c r="AW47" s="7">
         <v>0.8</v>
       </c>
-      <c r="AW47" s="1">
+      <c r="AX47" s="1">
         <v>3.0</v>
       </c>
-      <c r="AX47" s="1">
+      <c r="AY47" s="1">
         <v>7.4</v>
       </c>
-      <c r="AY47" s="3">
+      <c r="AZ47" s="7">
         <v>136.8</v>
       </c>
-      <c r="AZ47" s="3">
+      <c r="BA47" s="7">
         <v>11.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1">
         <v>11.71</v>
@@ -6753,128 +6931,131 @@
       <c r="J48" s="1">
         <v>390.0</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="11">
         <v>1681168.0</v>
       </c>
-      <c r="L48" s="1">
-        <v>32.7</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="L48" s="6">
+        <v>42.3</v>
+      </c>
+      <c r="M48" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="N48" s="1">
         <v>5.9</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>5.61</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>5.81</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>5.76</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="R48" s="1">
         <v>5.96</v>
       </c>
-      <c r="R48" s="1">
+      <c r="S48" s="1">
         <v>6.21</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <v>17.0</v>
       </c>
-      <c r="T48" s="1">
+      <c r="U48" s="1">
         <v>25.0</v>
       </c>
-      <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1">
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="AA48" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AB48" s="1">
         <v>34.0</v>
       </c>
-      <c r="AB48" s="1">
+      <c r="AC48" s="1">
         <v>55.6</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AD48" s="1">
         <v>11.2</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="7">
         <v>85.2</v>
       </c>
-      <c r="AE48" s="1">
+      <c r="AF48" s="1">
         <v>4.5</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AG48" s="1">
         <v>10.3</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AH48" s="1">
         <v>6.1</v>
       </c>
-      <c r="AH48" s="1">
+      <c r="AI48" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI48" s="1">
+      <c r="AJ48" s="1">
         <v>17.0</v>
       </c>
-      <c r="AJ48" s="1">
+      <c r="AK48" s="1">
         <v>25.0</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AL48" s="1">
         <v>33.0</v>
       </c>
-      <c r="AL48" s="1">
+      <c r="AM48" s="1">
         <v>18.0</v>
       </c>
-      <c r="AM48" s="1">
+      <c r="AN48" s="1">
         <v>22.0</v>
       </c>
-      <c r="AN48" s="1">
+      <c r="AO48" s="1">
         <v>104.8</v>
       </c>
-      <c r="AO48" s="1">
+      <c r="AP48" s="1">
         <v>55.6</v>
       </c>
-      <c r="AP48" s="1">
+      <c r="AQ48" s="1">
         <v>11.2</v>
       </c>
-      <c r="AQ48" s="3">
+      <c r="AR48" s="7">
         <v>85.2</v>
       </c>
-      <c r="AR48" s="3">
+      <c r="AS48" s="7">
         <v>4.0</v>
       </c>
-      <c r="AS48" s="3">
+      <c r="AT48" s="7">
         <v>11.0</v>
       </c>
-      <c r="AT48" s="3">
+      <c r="AU48" s="7">
         <v>92.0</v>
       </c>
-      <c r="AU48" s="3">
+      <c r="AV48" s="7">
         <v>1.8</v>
       </c>
-      <c r="AV48" s="3">
+      <c r="AW48" s="7">
         <v>4.7</v>
       </c>
-      <c r="AW48" s="1">
+      <c r="AX48" s="1">
         <v>8.0</v>
       </c>
-      <c r="AX48" s="1">
+      <c r="AY48" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY48" s="3">
+      <c r="AZ48" s="7">
         <v>81.3</v>
       </c>
-      <c r="AZ48" s="3">
+      <c r="BA48" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1">
         <v>8.09</v>
@@ -6891,128 +7072,131 @@
       <c r="J49" s="1">
         <v>490.0</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="11">
         <v>1464754.0</v>
       </c>
-      <c r="L49" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="L49" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>4.4</v>
+      </c>
+      <c r="N49" s="1">
         <v>3.88</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>4.69</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>4.26</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <v>4.51</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>4.36</v>
       </c>
-      <c r="R49" s="1">
+      <c r="S49" s="1">
         <v>4.34</v>
-      </c>
-      <c r="S49" s="1">
-        <v>15.0</v>
       </c>
       <c r="T49" s="1">
         <v>15.0</v>
       </c>
-      <c r="U49" s="1"/>
+      <c r="U49" s="1">
+        <v>15.0</v>
+      </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1">
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1">
         <v>70.0</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="AA49" s="1">
         <v>14.0</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AB49" s="1">
         <v>33.0</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AC49" s="1">
         <v>53.3</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AD49" s="1">
         <v>9.6</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="7">
         <v>34.7</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AF49" s="1">
         <v>4.1</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AG49" s="1">
         <v>6.2</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AH49" s="1">
         <v>3.4</v>
       </c>
-      <c r="AH49" s="1">
+      <c r="AI49" s="1">
         <v>23.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>15.0</v>
       </c>
       <c r="AJ49" s="1">
         <v>15.0</v>
       </c>
       <c r="AK49" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AL49" s="1">
         <v>17.0</v>
       </c>
-      <c r="AL49" s="1">
+      <c r="AM49" s="1">
         <v>21.0</v>
       </c>
-      <c r="AM49" s="1">
+      <c r="AN49" s="1">
         <v>10.0</v>
       </c>
-      <c r="AN49" s="1">
+      <c r="AO49" s="1">
         <v>91.4</v>
       </c>
-      <c r="AO49" s="1">
+      <c r="AP49" s="1">
         <v>53.3</v>
       </c>
-      <c r="AP49" s="1">
+      <c r="AQ49" s="1">
         <v>9.6</v>
       </c>
-      <c r="AQ49" s="3">
+      <c r="AR49" s="7">
         <v>34.7</v>
       </c>
-      <c r="AR49" s="3">
+      <c r="AS49" s="7">
         <v>15.0</v>
       </c>
-      <c r="AS49" s="3">
+      <c r="AT49" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT49" s="3">
+      <c r="AU49" s="7">
         <v>92.0</v>
       </c>
-      <c r="AU49" s="3">
+      <c r="AV49" s="7">
         <v>2.6</v>
       </c>
-      <c r="AV49" s="3">
+      <c r="AW49" s="7">
         <v>1.0</v>
       </c>
-      <c r="AW49" s="3">
+      <c r="AX49" s="7">
         <v>7.0</v>
       </c>
-      <c r="AX49" s="1">
+      <c r="AY49" s="1">
         <v>2.6</v>
       </c>
-      <c r="AY49" s="3">
+      <c r="AZ49" s="7">
         <v>74.7</v>
       </c>
-      <c r="AZ49" s="3">
+      <c r="BA49" s="7">
         <v>19.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -7027,120 +7211,123 @@
       <c r="J50" s="1">
         <v>30.0</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="11">
         <v>322254.0</v>
       </c>
-      <c r="L50" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="M50" s="1">
-        <v>6.96</v>
+      <c r="L50" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="M50" s="6">
+        <v>6.8</v>
       </c>
       <c r="N50" s="1">
         <v>6.96</v>
       </c>
       <c r="O50" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="P50" s="1">
         <v>6.12</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>7.33</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1">
         <v>6.8</v>
       </c>
-      <c r="R50" s="1">
+      <c r="S50" s="1">
         <v>7.32</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>12.0</v>
       </c>
-      <c r="T50" s="1">
+      <c r="U50" s="1">
         <v>35.0</v>
       </c>
-      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1">
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1">
         <v>75.0</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="AA50" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AB50" s="1">
         <v>48.0</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AC50" s="1">
         <v>54.0</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AD50" s="1">
         <v>19.8</v>
       </c>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="1">
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="1">
         <v>7.0</v>
       </c>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="1">
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="1">
         <v>34.0</v>
       </c>
-      <c r="AI50" s="1">
+      <c r="AJ50" s="1">
         <v>12.0</v>
       </c>
-      <c r="AJ50" s="1">
+      <c r="AK50" s="1">
         <v>35.0</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AL50" s="1">
         <v>14.0</v>
       </c>
-      <c r="AL50" s="1">
+      <c r="AM50" s="1">
         <v>31.0</v>
       </c>
-      <c r="AM50" s="1">
+      <c r="AN50" s="1">
         <v>49.0</v>
       </c>
-      <c r="AN50" s="1">
+      <c r="AO50" s="1">
         <v>203.6</v>
       </c>
-      <c r="AO50" s="1">
+      <c r="AP50" s="1">
         <v>54.0</v>
       </c>
-      <c r="AP50" s="1">
+      <c r="AQ50" s="1">
         <v>19.8</v>
       </c>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1">
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1">
         <v>22.0</v>
       </c>
-      <c r="AS50" s="1">
+      <c r="AT50" s="1">
         <v>12.0</v>
       </c>
-      <c r="AT50" s="1">
+      <c r="AU50" s="1">
         <v>87.0</v>
       </c>
-      <c r="AU50" s="1">
+      <c r="AV50" s="1">
         <v>3.3</v>
       </c>
-      <c r="AV50" s="1">
+      <c r="AW50" s="1">
         <v>0.7</v>
       </c>
-      <c r="AW50" s="3">
+      <c r="AX50" s="7">
         <v>7.0</v>
       </c>
-      <c r="AX50" s="1">
+      <c r="AY50" s="1">
         <v>0.3</v>
       </c>
-      <c r="AY50" s="1">
+      <c r="AZ50" s="1">
         <v>78.3</v>
       </c>
-      <c r="AZ50" s="1">
+      <c r="BA50" s="1">
         <v>15.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1">
         <v>11.31</v>
@@ -7157,128 +7344,131 @@
       <c r="J51" s="1">
         <v>480.0</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="11">
         <v>1083819.0</v>
       </c>
-      <c r="L51" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="M51" s="1">
+      <c r="L51" s="6">
+        <v>18.1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="N51" s="1">
         <v>6.39</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>6.12</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>5.86</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>5.94</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="R51" s="1">
         <v>5.36</v>
       </c>
-      <c r="R51" s="1">
+      <c r="S51" s="1">
         <v>5.8</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>13.0</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U51" s="1">
         <v>11.0</v>
       </c>
-      <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1">
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1">
         <v>75.0</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="AA51" s="1">
         <v>9.0</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AB51" s="1">
         <v>334.0</v>
       </c>
-      <c r="AB51" s="1">
+      <c r="AC51" s="1">
         <v>54.2</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AD51" s="1">
         <v>9.8</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AE51" s="7">
         <v>82.0</v>
       </c>
-      <c r="AE51" s="1">
+      <c r="AF51" s="1">
         <v>4.2</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AG51" s="1">
         <v>12.9</v>
       </c>
-      <c r="AG51" s="1">
+      <c r="AH51" s="1">
         <v>5.2</v>
       </c>
-      <c r="AH51" s="1">
+      <c r="AI51" s="1">
         <v>24.0</v>
       </c>
-      <c r="AI51" s="1">
+      <c r="AJ51" s="1">
         <v>13.0</v>
       </c>
-      <c r="AJ51" s="1">
+      <c r="AK51" s="1">
         <v>11.0</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AL51" s="1">
         <v>16.0</v>
       </c>
-      <c r="AL51" s="1">
+      <c r="AM51" s="1">
         <v>4.0</v>
       </c>
-      <c r="AM51" s="1">
+      <c r="AN51" s="1">
         <v>23.0</v>
       </c>
-      <c r="AN51" s="1">
+      <c r="AO51" s="1">
         <v>105.0</v>
       </c>
-      <c r="AO51" s="1">
+      <c r="AP51" s="1">
         <v>54.2</v>
       </c>
-      <c r="AP51" s="1">
+      <c r="AQ51" s="1">
         <v>9.8</v>
       </c>
-      <c r="AQ51" s="3">
+      <c r="AR51" s="7">
         <v>82.0</v>
       </c>
-      <c r="AR51" s="3">
+      <c r="AS51" s="7">
         <v>16.0</v>
       </c>
-      <c r="AS51" s="3">
+      <c r="AT51" s="7">
         <v>12.0</v>
       </c>
-      <c r="AT51" s="3">
+      <c r="AU51" s="7">
         <v>93.0</v>
       </c>
-      <c r="AU51" s="3">
+      <c r="AV51" s="7">
         <v>3.1</v>
       </c>
-      <c r="AV51" s="3">
+      <c r="AW51" s="7">
         <v>1.6</v>
       </c>
-      <c r="AW51" s="3">
+      <c r="AX51" s="7">
         <v>6.0</v>
       </c>
-      <c r="AX51" s="1">
+      <c r="AY51" s="1">
         <v>0.4</v>
       </c>
-      <c r="AY51" s="3">
+      <c r="AZ51" s="7">
         <v>76.9</v>
       </c>
-      <c r="AZ51" s="3">
+      <c r="BA51" s="7">
         <v>16.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
@@ -7293,124 +7483,127 @@
       <c r="J52" s="1">
         <v>40.0</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="11">
         <v>107740.0</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="1">
+      <c r="M52" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="N52" s="1">
         <v>4.64</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>5.33</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>7.16</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>5.22</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="R52" s="1">
         <v>5.45</v>
       </c>
-      <c r="R52" s="1">
+      <c r="S52" s="1">
         <v>5.62</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <v>22.0</v>
       </c>
-      <c r="T52" s="1">
+      <c r="U52" s="1">
         <v>42.0</v>
       </c>
-      <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1">
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1">
         <v>76.0</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="AA52" s="1">
         <v>8.0</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AB52" s="1">
         <v>30.0</v>
       </c>
-      <c r="AB52" s="1">
+      <c r="AC52" s="1">
         <v>55.4</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AD52" s="1">
         <v>16.0</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="7">
         <v>323.5</v>
       </c>
-      <c r="AE52" s="1">
+      <c r="AF52" s="1">
         <v>5.3</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AG52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="1">
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="1">
         <v>32.0</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AJ52" s="1">
         <v>22.0</v>
       </c>
-      <c r="AJ52" s="1">
+      <c r="AK52" s="1">
         <v>42.0</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AL52" s="1">
         <v>47.0</v>
       </c>
-      <c r="AL52" s="1">
+      <c r="AM52" s="1">
         <v>43.0</v>
       </c>
-      <c r="AM52" s="1">
+      <c r="AN52" s="1">
         <v>28.0</v>
       </c>
-      <c r="AN52" s="1">
+      <c r="AO52" s="1">
         <v>103.9</v>
       </c>
-      <c r="AO52" s="1">
+      <c r="AP52" s="1">
         <v>55.4</v>
       </c>
-      <c r="AP52" s="1">
+      <c r="AQ52" s="1">
         <v>16.0</v>
       </c>
-      <c r="AQ52" s="3">
+      <c r="AR52" s="7">
         <v>323.5</v>
       </c>
-      <c r="AR52" s="3">
+      <c r="AS52" s="7">
         <v>12.0</v>
       </c>
-      <c r="AS52" s="3">
+      <c r="AT52" s="7">
         <v>17.0</v>
       </c>
-      <c r="AT52" s="3">
+      <c r="AU52" s="7">
         <v>91.0</v>
       </c>
-      <c r="AU52" s="3">
+      <c r="AV52" s="7">
         <v>4.4</v>
       </c>
-      <c r="AV52" s="3">
+      <c r="AW52" s="7">
         <v>5.6</v>
       </c>
-      <c r="AW52" s="3">
+      <c r="AX52" s="7">
         <v>14.0</v>
       </c>
-      <c r="AX52" s="1">
+      <c r="AY52" s="1">
         <v>4.7</v>
       </c>
-      <c r="AY52" s="3">
+      <c r="AZ52" s="7">
         <v>74.0</v>
       </c>
-      <c r="AZ52" s="3">
+      <c r="BA52" s="7">
         <v>30.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7433,13 +7626,15 @@
         <v>19.0</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="6">
+      <c r="K53" s="11">
         <v>6.3958243E7</v>
       </c>
-      <c r="L53" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="M53" s="1"/>
+      <c r="L53" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="M53" s="6">
+        <v>5.4</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -7447,47 +7642,47 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1">
+      <c r="U53" s="1"/>
+      <c r="V53" s="1">
         <v>12.001</v>
       </c>
-      <c r="V53" s="1">
+      <c r="W53" s="1">
         <v>12.012</v>
       </c>
-      <c r="W53" s="1">
+      <c r="X53" s="1">
         <v>12.023</v>
       </c>
-      <c r="X53" s="1">
+      <c r="Y53" s="1">
         <v>12.009</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Z53" s="1">
         <v>69.0</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="AA53" s="1">
         <v>15.0</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AB53" s="1">
         <v>41.0</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AC53" s="1">
         <v>56.0</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AD53" s="1">
         <v>13.6</v>
       </c>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="1">
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="1">
         <v>4.4</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AG53" s="1">
         <v>10.6</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AH53" s="1">
         <v>4.8</v>
       </c>
-      <c r="AH53" s="1">
+      <c r="AI53" s="1">
         <v>22.0</v>
       </c>
-      <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
@@ -7496,31 +7691,32 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
-      <c r="AR53" s="1">
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1">
         <v>17.0</v>
       </c>
-      <c r="AS53" s="1">
+      <c r="AT53" s="1">
         <v>13.0</v>
       </c>
-      <c r="AT53" s="1">
+      <c r="AU53" s="1">
         <v>89.0</v>
       </c>
-      <c r="AU53" s="1">
+      <c r="AV53" s="1">
         <v>3.1</v>
       </c>
-      <c r="AV53" s="1">
+      <c r="AW53" s="1">
         <v>2.6</v>
       </c>
-      <c r="AW53" s="1">
+      <c r="AX53" s="1">
         <v>10.0</v>
       </c>
-      <c r="AX53" s="1">
+      <c r="AY53" s="1">
         <v>1.5</v>
       </c>
-      <c r="AY53" s="1">
+      <c r="AZ53" s="1">
         <v>78.9</v>
       </c>
-      <c r="AZ53" s="1">
+      <c r="BA53" s="1">
         <v>23.0</v>
       </c>
     </row>
